--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97FCBD-7867-4947-8D73-23420A9D3726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE6FBA-9E6C-44F8-B19B-6E3A991CA144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="478">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1635,6 +1638,338 @@
   <si>
     <t>使用了Thread.sleep
 https://blog.csdn.net/psh18513234633/article/details/79477354</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个GitHub仓库，多个地方的电脑连接，怎么搞？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh原理，实现啥的，解决了什么问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个电脑根据自己的user.email的配置，生成rsa key，加入到GitHub仓库即可；
+https://www.zhihu.com/question/21402411
+https://blog.csdn.net/qq_43768946/article/details/90411154
+ssh-keygen -t rsa -C “这里换上你的邮箱”
+https://git-scm.com/book/zh/v2/%E6%9C%8D%E5%8A%A1%E5%99%A8%E4%B8%8A%E7%9A%84-Git-%E7%94%9F%E6%88%90-SSH-%E5%85%AC%E9%92%A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象转换利器MapStruct学习下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能好，使用方便，一定要学着用下
+https://www.jianshu.com/p/56b97843af61?utm_campaign=hugo
+https://mapstruct.org/documentation/stable/reference/html/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理，源码，历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻量级的CQRS框架有哪些，或者自己实现下？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像有个renovo，研究下
+https://blog.csdn.net/cunfu6353/article/details/107228898
+https://github.com/dmart28/reveno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构，java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQRS，AXON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳是干啥的？Mysql字段的时间类型怎么用？对应java的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳：https://www.zhihu.com/question/53306472/answer/652364961
+对应java：https://www.cnblogs.com/twoheads/p/9987935.html
+时间类型的应用：https://time.geekbang.org/column/article/350470</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql还是没学好，系统学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改造过程中，遇到BeanNotOfRequiredTypeException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接原因是@Resource注解的类和变量名称不同导致的
+深层次原因是注解的是通过名字动态代理来的
+https://www.dazhuanlan.com/2019/12/09/5dee6aa5a670a/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java动态代理及其应用场景啥的
+spring的注解，bean的实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring
+java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven指定java版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;properties&gt;
+    &lt;maven.compiler.source&gt;1.8&lt;/maven.compiler.source&gt;
+    &lt;maven.compiler.target&gt;1.8&lt;/maven.compiler.target&gt;
+&lt;/properties&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven系统学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构中，移动了一些文件之后，明明是一个包的，但是idea报cannot access xxx，不知道为啥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea的bug
+https://blog.csdn.net/qa275267067/article/details/100512663
+触发场景，遇到两次了，应该都和文件移动有关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java的函数式编程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习下lambda的各种方式，尤其是Function等的学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot的启动，好像很简单易用，但是不是很会用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统学习springboot
+https://time.geekbang.org/course/intro/100023501
+先学习了解下关注的启动过程——还是有点深奥了...
+https://www.cnblogs.com/trgl/p/7353782.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先实战springboot先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot配置mybatis，数据源druid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考https://blog.csdn.net/linkingfei/article/details/94407142</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visio找个课程系统学习下
+b站视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLA框架学习记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>致力于成为应用架构的典范
+应用架构的本质：要解决代码要如何被组织的问题（模块，组件，包，类）
+架构的本质，简单来说，就是要素结构。所谓的要素（Components）是指架构中的主要元素，结构是指要素之间的相互关系（Relationship）。
+好的应用架构，也遵循一些共同模式，都提倡以业务为核心，解耦外部依赖，分离业务复杂度和技术复杂度。
+应用系统处理复杂业务逻辑也应该是分层的，下层对上层屏蔽处理细节，每一层各司其职，分离关注点
+分层是属于大粒度的职责划分，太粗，我们有必要往下再down一层，细化到包结构的粒度，才能更好的指导我们的工作。
+内聚，就是把功能类似的玩具放在一个盒子里，这样可以让应用结构清晰，极大的降低系统的认知成本和维护成本。
+问题的关键是要看，新增的模型没有给你带来收益。比如有没有帮助系统解耦，有没有提升业务语义表达能力的提升，有没有提升系统的可维护性和可测性等等
+利用依赖倒置，统一使用gateway来实现业务领域和外部依赖的解耦。
+https://www.cnblogs.com/makai/p/14240924.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从COLA的github和描述介绍中了解到
+定位架构本身，前后变更多个版本
+以分层-分包-解耦-脚手架来阐述整个框架结构、能力、特点
+最大的特点在于规范化，有多个方便可用的组件，有方便的落地工具这样子
+最应理解学习到的是一些架构思想，设计上的分层、分包、解耦；映射到项目上的模块、组件、包、接口；有了设计架构的逻辑线路了！
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为啥ide中，实现接口的没有写Override注解会报错？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有实际作用，因为重写是代码层面的解释；但注解上之后，一方面方便也读，一方面编译器会帮忙检查
+https://www.cnblogs.com/longesang/p/10616792.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单查看下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>esa rpc的学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像是开源了的
+https://blog.csdn.net/weixin_39637285/article/details/110642494</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java中如何判断两个list相等？或者两个list中元素都有？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是ArrayList，使用retainAll进行判断可以；
+否则可以暴力搞？
+技巧上，优先判断size等信息；
+也可以使用map等进行处理
+不过总体而言好像没有工具类这样子
+https://www.jianshu.com/p/e96216367a81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>renevo 轻量级的cqrs框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDD落地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据迁移，新方案：通过binlog订阅消息，进行数据迁移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update原数据，比如时间啥的，根据update，生成了binlog，
+binlog 订阅的，目前使用的是公司的工具，实际上市面上有多种工具了，可以发送到redis、mq等
+https://github.com/alibaba/canal/wiki/Canal-Kafka-RocketMQ-QuickStart
+https://time.geekbang.org/column/article/217593
+利用Canal伪装为从库，或者直接写入mq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战，源码原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据迁移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postman调用post请求，结果在后端看到变成了get请求？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http响应头的server字段含义？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB 服务器表明自己是什么软件及版本等信息。例如：Server：Apache/2.0.61 (Unix)
+https://www.cnblogs.com/wangyang108/p/5755525.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发现postman的响应头中，显式server是ngnix，应该是转发了？
+2、查这个现象，发现nginx代理的时候，如果协议用错了，会发生这种问题，替换后解决
+https://blog.csdn.net/supming1/article/details/99472632</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx理论，实战，原理
+代理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN和对象存储的关系？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、先搞清楚这两个是啥东西：CDN(Content Delivery Network)是内容分发网络。基本思路就是在网络各处部署服务节点，系统实时地根据网络流量、负载状况、服务节点到用户的响应时间等信息，自动将用户请求到导向离用户最近的节点上。目的就是让用户就近取得数据，提高响应速度。对象存储存图片视频啥的大对象
+2、所以就是通过CDN加速图片访问
+https://www.zhihu.com/question/358248463/answer/914164894</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于瀑布和敏捷开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、软件开发模式的比较
+2、敏捷是趋势，毕竟拥抱变化，但不可迷信
+3、回顾之前和现在，感觉之前的敏捷，主要是从需求分析层面开始的，敏捷的思路指导整个工作，但是真正的开发阶段，可能并不是完全按照敏捷的要求来的；
+4、综合考虑，两个各有各的好处，关键是吸收思想，融会贯通，去统一整个团队的工作思路这样子
+https://www.cnblogs.com/jackyfei/p/10078988.html
+https://time.geekbang.org/column/article/185498
+https://zhuanlan.zhihu.com/p/95992944</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发模式，定义团队工作流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发模式，思考和成文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2045,11 +2380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2085,1123 +2420,1075 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
+        <v>44293</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
+        <v>44293</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>44293</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <v>44293</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
+        <v>44293</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44295</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44295</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44295</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>44364</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C17" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="C18" s="4">
+        <v>44298</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>44364</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="C19" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>44364</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="C22" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44302</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <v>44364</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="C26" s="4">
+        <v>44305</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44305</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
-        <v>44364</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="C28" s="4">
+        <v>44306</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="C29" s="4">
+        <v>44306</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="C30" s="4">
+        <v>44309</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44309</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4">
+        <v>44311</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4">
+        <v>44311</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>5</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4">
+        <v>44312</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="4">
+        <v>44313</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44378</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44379</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44379</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44379</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>44392</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4">
-        <v>44392</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
+      <c r="B36" s="7"/>
       <c r="C36" s="4">
-        <v>44392</v>
+        <v>44315</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="4">
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>0</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="8">
-        <v>44326</v>
+        <v>2</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="4">
+        <v>44315</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="4">
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>132</v>
+        <v>255</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="4">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="4">
-        <v>44309</v>
+        <v>44315</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>139</v>
+        <v>332</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="8">
-        <v>44323</v>
+      <c r="C42" s="4">
+        <v>44315</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>141</v>
+        <v>349</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>144</v>
+        <v>350</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4">
+        <v>44315</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>1</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8">
-        <v>44326</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>1</v>
-      </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="10">
-        <v>44327</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>151</v>
+      <c r="C44" s="8">
+        <v>44323</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="4">
-        <v>44313</v>
+      <c r="C45" s="8">
+        <v>44323</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>152</v>
+        <v>183</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="4">
-        <v>44315</v>
+      <c r="C46" s="8">
+        <v>44323</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="4">
-        <v>44315</v>
+      <c r="C47" s="8">
+        <v>44323</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>159</v>
+        <v>193</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8">
-        <v>44357</v>
+        <v>44323</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8">
-        <v>44357</v>
+        <v>44323</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>166</v>
+        <v>278</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8">
-        <v>44357</v>
+        <v>44323</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>169</v>
+        <v>282</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8">
-        <v>44357</v>
+        <v>44323</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>171</v>
+        <v>328</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8">
-        <v>44357</v>
+        <v>44323</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>173</v>
+        <v>361</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>1</v>
-      </c>
-      <c r="B53" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="C53" s="8">
-        <v>44357</v>
+        <v>44326</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="8">
-        <v>44293</v>
+        <v>44326</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>2</v>
       </c>
-      <c r="C55" s="4">
-        <v>44305</v>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8">
+        <v>44326</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="8">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="8">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>187</v>
+        <v>345</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>193</v>
+        <v>358</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>194</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>2</v>
+      <c r="A59" s="9">
+        <v>1</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="8">
-        <v>44326</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>198</v>
+      <c r="C59" s="10">
+        <v>44327</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>2</v>
+      <c r="A60" s="9">
+        <v>3</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="4">
-        <v>44315</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>201</v>
+      <c r="C60" s="10">
+        <v>44327</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>2</v>
+      <c r="A61" s="9">
+        <v>5</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="8">
-        <v>44334</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>204</v>
+      <c r="C61" s="10">
+        <v>44327</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3210,19 +3497,16 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8">
-        <v>44337</v>
+        <v>44334</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3234,16 +3518,16 @@
         <v>44337</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3255,16 +3539,16 @@
         <v>44337</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3273,220 +3557,244 @@
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8">
-        <v>44357</v>
+        <v>44337</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8">
-        <v>44357</v>
+        <v>44337</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>223</v>
+        <v>288</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8">
-        <v>44357</v>
+        <v>44337</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>226</v>
+        <v>292</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4">
-        <v>44295</v>
+        <v>6</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8">
+        <v>44337</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>227</v>
+        <v>334</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4">
-        <v>44295</v>
+        <v>1</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8">
+        <v>44357</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>229</v>
+        <v>161</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4">
-        <v>44298</v>
+        <v>1</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8">
+        <v>44357</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>3</v>
-      </c>
-      <c r="C71" s="4">
-        <v>44302</v>
+        <v>1</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8">
+        <v>44357</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4">
-        <v>44306</v>
+        <v>1</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8">
+        <v>44357</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4">
-        <v>44309</v>
+        <v>1</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8">
+        <v>44357</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="8">
-        <v>44323</v>
+        <v>44357</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8">
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9">
-        <v>3</v>
+      <c r="A76" s="7">
+        <v>2</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="10">
-        <v>44327</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>252</v>
+      <c r="C76" s="8">
+        <v>44357</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="4">
-        <v>44311</v>
+      <c r="C77" s="8">
+        <v>44357</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>253</v>
+        <v>224</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,17 +3802,17 @@
         <v>3</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="4">
-        <v>44315</v>
+      <c r="C78" s="8">
+        <v>44357</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,677 +3824,704 @@
         <v>44357</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <v>3</v>
-      </c>
-      <c r="B80" s="7"/>
+        <v>2</v>
+      </c>
       <c r="C80" s="8">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>261</v>
+        <v>365</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <v>4</v>
-      </c>
-      <c r="B81" s="7"/>
+        <v>3</v>
+      </c>
       <c r="C81" s="8">
-        <v>44293</v>
+        <v>44362</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>263</v>
+        <v>368</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8">
+        <v>44362</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>44364</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4">
+        <v>44364</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>44364</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4">
+        <v>44364</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>44364</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>3</v>
+      </c>
+      <c r="C95" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4">
+        <v>44379</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5">
+        <v>44379</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5">
+        <v>44379</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>4</v>
       </c>
-      <c r="C82" s="4">
-        <v>44295</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
+      <c r="C101" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5">
+        <v>44392</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>3</v>
+      </c>
+      <c r="C111" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>4</v>
       </c>
-      <c r="C83" s="4">
-        <v>44298</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>4</v>
-      </c>
-      <c r="C84" s="4">
-        <v>44298</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
-        <v>4</v>
-      </c>
-      <c r="C85" s="4">
-        <v>44302</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
-        <v>4</v>
-      </c>
-      <c r="C86" s="4">
-        <v>44302</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
-        <v>4</v>
-      </c>
-      <c r="C87" s="4">
-        <v>44305</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
-        <v>4</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8">
-        <v>44323</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <v>4</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8">
-        <v>44323</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <v>4</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="4">
-        <v>44311</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>4</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8">
-        <v>44337</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <v>4</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8">
-        <v>44337</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <v>5</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8">
-        <v>44293</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
-        <v>5</v>
-      </c>
-      <c r="C94" s="4">
-        <v>44298</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4">
-        <v>44298</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
-        <v>5</v>
-      </c>
-      <c r="C96" s="4">
-        <v>44302</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <v>5</v>
-      </c>
-      <c r="C97" s="4">
-        <v>44302</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="9">
-        <v>5</v>
-      </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="10">
-        <v>44327</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>5</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="4">
-        <v>44312</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
-        <v>5</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="4">
-        <v>44315</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <v>6</v>
-      </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8">
-        <v>44293</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
-        <v>6</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8">
-        <v>44293</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
-        <v>6</v>
-      </c>
-      <c r="C103" s="4">
-        <v>44298</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
-        <v>6</v>
-      </c>
-      <c r="C104" s="4">
-        <v>44302</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
-        <v>6</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8">
-        <v>44323</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
-        <v>6</v>
-      </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="4">
-        <v>44315</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <v>6</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8">
-        <v>44337</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
-        <v>7</v>
-      </c>
-      <c r="C108" s="4">
-        <v>44298</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
-        <v>7</v>
-      </c>
-      <c r="C109" s="4">
-        <v>44302</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
-        <v>7</v>
-      </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8">
-        <v>44326</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <v>7</v>
-      </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="4">
-        <v>44315</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
-        <v>7</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="4">
-        <v>44315</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <v>8</v>
-      </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8">
-        <v>44326</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
-        <v>9</v>
-      </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8">
-        <v>44323</v>
+      <c r="C114" s="4">
+        <v>44392</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>363</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+      <c r="A115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>2</v>
       </c>
-      <c r="C115" s="8">
-        <v>44362</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
-        <v>3</v>
-      </c>
-      <c r="C116" s="8">
-        <v>44362</v>
+      <c r="C116" s="4">
+        <v>44392</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>369</v>
+        <v>117</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
-        <v>0</v>
-      </c>
-      <c r="C117" s="8">
-        <v>44362</v>
+      <c r="A117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4">
+        <v>44392</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>371</v>
+        <v>119</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4429,10 +4764,430 @@
         <v>40</v>
       </c>
     </row>
+    <row r="130" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>2</v>
+      </c>
+      <c r="C130" s="4">
+        <v>44397</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="4">
+        <v>44397</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4">
+        <v>44397</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="4">
+        <v>44397</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>0</v>
+      </c>
+      <c r="C134" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>8</v>
+      </c>
+      <c r="C136" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>3</v>
+      </c>
+      <c r="C140" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>4</v>
+      </c>
+      <c r="C141" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>2</v>
+      </c>
+      <c r="C142" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>5</v>
+      </c>
+      <c r="C143" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="4">
+        <v>44400</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>4</v>
+      </c>
+      <c r="C146" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>3</v>
+      </c>
+      <c r="C147" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>2</v>
+      </c>
+      <c r="C148" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>3</v>
+      </c>
+      <c r="C149" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>2</v>
+      </c>
+      <c r="C150" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>4</v>
+      </c>
+      <c r="C151" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="4">
+        <v>44406</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{FB4EA808-F96F-43DB-A551-DAEA8F7FFD73}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G138">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" display="https://time.geekbang.org/column/intro/100023701%0ahttps:/www.zhihu.com/question/61045348/answer/1677273017" xr:uid="{9ABB3CF6-D385-481F-B48D-36CCADE296BF}"/>
+    <hyperlink ref="F42" r:id="rId1" display="https://time.geekbang.org/column/intro/100023701%0ahttps:/www.zhihu.com/question/61045348/answer/1677273017" xr:uid="{9ABB3CF6-D385-481F-B48D-36CCADE296BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId2"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE6FBA-9E6C-44F8-B19B-6E3A991CA144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F5EBB-F21C-4ADA-8C9D-85F6CAACABA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="587">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1148,15 +1148,6 @@
     <t>Mockito是怎么使用的？尤其是对象注入这块的使用？</t>
   </si>
   <si>
-    <t>1、Mockito基本使用方法，引入；https://site.mockito.org/；https://segmentfault.com/a/1190000006746409
-——歪个题，博客风格可以向思否靠近
-2、把Mock对象注入的基本思路，Mock改变，使用InjectMocks把Mock的对象，注入其他实体中去
-https://www.jianshu.com/p/bb705a56f620；https://bbs.csdn.net/topics/394370087
-3、目前的使用情况，仅使用when,thenReturn即可完成工作了，其他的spy，verify,answer,mock都没怎么涉及
-4、涉及的概念，比如测试桩，就是在过程中打一个桩，假装过这个桩的点的情况，https://www.cnblogs.com/lijunji/archive/2019/09/01/11443195.html
-5、Inject，如果只把需要的几个Mock了，其他没有Mock的对象是null，未注入，需要在service上注解Inject和AutoWired，一方面注入Mock的，一方面注入正常的：https://blog.csdn.net/u011047968/article/details/91970070</t>
-  </si>
-  <si>
     <t>实验Mockito更多功能和场景等；
 找更好的文档或教程等，没有的话就自己写一下；
 了解inject是怎么实现的</t>
@@ -1970,6 +1961,526 @@
   </si>
   <si>
     <t>软件开发模式，思考和成文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postProcessAfterInitialization的使用方法？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用spring框架提供的能力，实现bean初始化之后的操作，
+特点是针对所有的bean进行处理
+https://www.cnblogs.com/twelve-eleven/p/8080038.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring学习，理解设计思路，使用
+尤其是框架能力的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解PreAuthrize是做啥的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring全家桶，安全这块
+权限控制的实现方案，安全相关的系统学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring
+安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限控制
+spring-security的东西，挺好的感觉
+https://www.cnblogs.com/c2g5201314/p/13036656.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解ConditionalOnMissingBean啥情况？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring4增加的新注解系列，Conditional
+方便程序根据当前环境或者容器情况来动态注入bean
+MissingBean的使用场景：A存在的情况，不注入B，否则注入B
+https://blog.csdn.net/xcy1193068639/article/details/81517456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartInitializingSingleton这个接口是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现SmartInitializingSingleton的接口后，当所有单例 bean 都初始化完成以后， Spring的IOC容器会回调该接口的 afterSingletonsInstantiated()方法。
+https://blog.csdn.net/inrgihc/article/details/104743023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就构建部署这一套是怎么回事啊。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程（？存疑）
+https://time.geekbang.org/column/article/82848</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于网关，也就是提到这个东西应该想到什么东西？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 网关（API Gateway）不是一个开源组件，而是一种架构模式，它是将一些服务共有的功能整合在一起，独立部署为单独的一层，用来解决一些服务治理的问题。你可以把它看作系统的边界，它可以对出入系统的流量做统一的管控。
+https://time.geekbang.org/column/article/169944</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现简单的，具有网关的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解Transactional(readOnly = true) 的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、标注当前方法是只读数据的
+2、spring对这种好像是有优化
+https://blog.csdn.net/weixin_33910137/article/details/92613177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quartz框架学习使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理，源码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度平台
+现在使用的是基于elasticJob的
+https://www.w3cschool.cn/quartz_doc/quartz_doc-1xbu2clr.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql建表时候的COLLATE是啥意思？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译过来是“核对”
+对于mysql中那些字符类型的列，如VARCHAR，CHAR，TEXT类型的列，都需要有一个COLLATE类型来告知mysql如何对该列进行排序和比较。简而言之，COLLATE会影响到ORDER BY语句的顺序，会影响到WHERE条件中大于小于号筛选出来的结果，会影响**DISTINCT**、**GROUP BY**、**HAVING**语句的查询结果。另外，mysql建索引的时候，如果索引列是字符类型，也会影响索引创建，只不过这种影响我们感知不到。总之，凡是涉及到字符类型比较或排序的地方，都会和COLLATE有关
+COLLATE又和Charset有关，在mysql中，请忘记utf-8而是utf8mb4,是mysql的遗留问题，对应的collate是utf8mb4_general_ci
+_ci字样，这是Case Insensitive的缩写，即大小写无关
+_cs后缀的COLLATE，则是Case Sensitive，即大小写敏感的
+https://www.cnblogs.com/qcloud1001/p/10033364.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库高级使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastdfs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理系统搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop注解的around使用？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数注意是ProceedingJoinPoint 
+注意让被围绕的对象进行proceed
+注意对结果进行返回，ret = joinPoint.proceed(); return ret;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop原理和使用，还是仅仅是熟悉的程度，理解深入之后才能更熟练的运用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java，spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用aop拦截记录日志并异步持久化？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义注解+注解处理+监听
+https://blog.csdn.net/qq_34936541/article/details/93617061
+https://blog.csdn.net/fajing_feiyue/article/details/100068726 这一段Signature等的没懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义注解的使用和原理，aop，监听，反射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jackson使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapStruct使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考官方文档即可，https://mapstruct.org/documentation/reference-guide/
+注意Mapper，Mappings，Mapping注解，expression的使用；
+编译之后的impl文件的参考</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理及源码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log的门面和框架，都有api，应该用哪个？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先给结论，使用门面；
+门面是外观模式，是屏蔽底层实现的，如果需要更换底层日志实现的时候，更有效；
+来源于阿里巴巴的java手册，有明令禁止直接使用日志系统的api
+https://zhuanlan.zhihu.com/p/52799066
+来源于@Slf4j和@Log4j注解出现在同一个工程中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志是怎么运转的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA加密算法原理和java实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密和安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学推导，简直看不懂要哭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理，阮一峰老师讲的很清楚：对称加密-非对称加密（加密和解密可以使用不同的规则，只要这两种规则之间存在某种对应关系即可，这样就避免了直接传递密钥）-互质关系
+http://www.ruanyifeng.com/blog/2013/06/rsa_algorithm_part_one.html
+java是java.security包中有RSAPrivateKey这些的，流程是KeyPairGenerator.getInstance，kpg.initialize，generateKeyPair，getPublic，转string(Base64.encodeBase64URLSafeString) https://www.cnblogs.com/pungwe/articles/9096858.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的时间函数等使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_date(),now()是不一样的…一个是date，一个是精确到时分秒
+https://www.cnblogs.com/codecat/p/10894292.html
+另外date_format展示处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数学习下使用，尤其是format</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function学习，函数式编程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理，具体使用，来源于使用动态的疑惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则引擎easy_rules的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参考GitHub的wiki即可，https://github.com/j-easy/easy-rules/wiki/air-conditioning
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键是思路和实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则引擎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的and和or的联查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用括号即可
+https://www.cnblogs.com/houzheng/p/8944281.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionalInterface这个注解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionalInterface标记在接口上，“函数式接口”是指仅仅只包含一个抽象方法的接口。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash做限量场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像都是使用set进行pop或者zset实现复杂功能的，有使用hash的，但是使用了redis的事务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test时候的互相依赖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junit的test，dependsOn
+http://cn.voidcc.com/question/p-fdobjdli-xx.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junit及相关的测试框架的学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看懂火焰图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>性能分析利器，CPU耗时直观显示
+https://www.ruanyifeng.com/blog/2017/09/flame-graph.html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+y轴是栈的深度，x轴是抽样次数，如果有平顶，理论上就有性能问题
+svg图片，可以互动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svg图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译为，可伸缩矢量图形
+xml标记语言
+https://baike.baidu.com/item/SVG%E6%A0%BC%E5%BC%8F/3463453?fr=aladdin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sublist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arraylist.subList(int fromIndex, int toIndex)
+fromIndex - 截取元素的起始位置，包含该索引位置元素
+toIndex - 截取元素的结束位置，不包含该索引位置元素
+https://www.runoob.com/java/java-arraylist-sublist.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看代码，记住代码底层怎么处理的就不用记规则了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字内容长度和String的length的关系？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接实验就知道是对应的，
+api文档描述为  "返回此字符串的长度,长度等于字符串中 Unicode 代码单元的数量。
+https://blog.csdn.net/ljx_catcher/article/details/13303461</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看代码，了解行业做法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时场景怎么做？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查了下，好像没有比较好的文章，可以写下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、下单后的倒计时，往往只是前端的倒计时组件，后端付款的时候校验一下到时没有；
+2、后端的倒计时，可以通过调度去轮训
+3、不可靠的有基于消息的监听机制这样子，已知的有redis的过期事件的监听
+4、最近在做的是基于zset的轮训，score是时间戳这样子
+https://www.cnblogs.com/zhengzhaoxiang/p/13977100.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jackson的自引用问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环引用了
+https://www.jianshu.com/p/7f8afb398326</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化，了解主流的原理这些
+fastjson，jackson，protobuf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java对象怎么转Byte数组？Byte用在哪些场景？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本来想监听redis的过期事件的，但说是基于pub/sub的，不可靠，作罢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pub/Sub功能（means Publish, Subscribe）即发布及订阅功能
+https://www.cnblogs.com/onlymate/p/9524960.html
+根本没有理解，待学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java获取时间戳的方法，和最佳是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.currentTimeMills()
+https://www.cnblogs.com/zhujiabin/p/6168671.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到System就心慌，要系统了解下System机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT类型对应的mybatis类型？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR
+要明白是java-mybatis-mysql数据类型对应关系的
+https://www.cnblogs.com/coder-xqc/p/14919029.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql
+java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解中间桥接的实现，两头的数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Mockito基本使用方法，引入；https://site.mockito.org/；https://segmentfault.com/a/1190000006746409
+——歪个题，博客风格可以向思否靠近
+2、把Mock对象注入的基本思路，Mock改变，使用InjectMocks把Mock的对象，注入其他实体中去——好像使用MockBean注解更方便
+https://www.jianshu.com/p/bb705a56f620；https://bbs.csdn.net/topics/394370087
+3、目前的使用情况，仅使用when,thenReturn即可完成工作了，其他的spy，verify,answer,mock都没怎么涉及
+4、涉及的概念，比如测试桩，就是在过程中打一个桩，假装过这个桩的点的情况，https://www.cnblogs.com/lijunji/archive/2019/09/01/11443195.html
+5、Inject，如果只把需要的几个Mock了，其他没有Mock的对象是null，未注入，需要在service上注解Inject和AutoWired，一方面注入Mock的，一方面注入正常的：https://blog.csdn.net/u011047968/article/details/91970070</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2380,11 +2891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2461,10 +2972,10 @@
         <v>44293</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,10 +2987,10 @@
         <v>44293</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,10 +3002,10 @@
         <v>44293</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2629,10 +3140,10 @@
         <v>44298</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,10 +3154,10 @@
         <v>44298</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,13 +3168,13 @@
         <v>44298</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,13 +3185,13 @@
         <v>44298</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,16 +3244,16 @@
         <v>44302</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,16 +3264,16 @@
         <v>44302</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,16 +3284,16 @@
         <v>44302</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,16 +3304,16 @@
         <v>44302</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,10 +3442,10 @@
         <v>44311</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,10 +3457,10 @@
         <v>44312</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,13 +3559,13 @@
         <v>44315</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,16 +3577,16 @@
         <v>44315</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3087,13 +3598,13 @@
         <v>44315</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3105,16 +3616,16 @@
         <v>44315</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3255,13 +3766,13 @@
         <v>280</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3273,13 +3784,13 @@
         <v>44323</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,16 +3802,16 @@
         <v>44323</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,16 +3906,16 @@
         <v>44326</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,16 +3927,16 @@
         <v>44326</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3479,16 +3990,16 @@
         <v>44327</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,16 +4092,16 @@
         <v>44337</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,16 +4113,16 @@
         <v>44337</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3623,16 +4134,16 @@
         <v>44337</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3838,13 +4349,13 @@
         <v>44362</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,13 +4366,13 @@
         <v>44362</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,10 +4383,10 @@
         <v>44362</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4350,7 +4861,7 @@
         <v>88</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>89</v>
@@ -4532,16 +5043,16 @@
         <v>44396</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,13 +5063,13 @@
         <v>44396</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="F119" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>120</v>
@@ -4572,16 +5083,16 @@
         <v>44396</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,13 +5103,13 @@
         <v>44396</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>113</v>
@@ -4612,16 +5123,16 @@
         <v>44396</v>
       </c>
       <c r="D122" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,13 +5143,13 @@
         <v>44396</v>
       </c>
       <c r="D123" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>94</v>
@@ -4652,13 +5163,13 @@
         <v>44396</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>94</v>
@@ -4672,13 +5183,13 @@
         <v>44396</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>40</v>
@@ -4692,13 +5203,13 @@
         <v>44396</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>40</v>
@@ -4712,13 +5223,13 @@
         <v>44396</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>40</v>
@@ -4732,13 +5243,13 @@
         <v>44396</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>94</v>
@@ -4752,13 +5263,13 @@
         <v>44396</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>40</v>
@@ -4772,16 +5283,16 @@
         <v>44397</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="G130" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4792,13 +5303,13 @@
         <v>44397</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>40</v>
@@ -4812,16 +5323,16 @@
         <v>44397</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4832,13 +5343,13 @@
         <v>44397</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>113</v>
@@ -4852,16 +5363,16 @@
         <v>44399</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4872,13 +5383,13 @@
         <v>44399</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>65</v>
@@ -4892,16 +5403,16 @@
         <v>44399</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="G136" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,10 +5423,10 @@
         <v>44399</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>40</v>
@@ -4929,13 +5440,13 @@
         <v>44399</v>
       </c>
       <c r="D138" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>44</v>
@@ -4949,10 +5460,10 @@
         <v>44399</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>44</v>
@@ -4966,13 +5477,13 @@
         <v>44399</v>
       </c>
       <c r="D140" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4983,16 +5494,16 @@
         <v>44399</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5003,16 +5514,16 @@
         <v>44399</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="G142" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5023,13 +5534,13 @@
         <v>44399</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="G143" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,16 +5551,16 @@
         <v>44399</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="G144" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5060,7 +5571,7 @@
         <v>44400</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5071,10 +5582,10 @@
         <v>44406</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5085,16 +5596,16 @@
         <v>44406</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5105,16 +5616,16 @@
         <v>44406</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5125,16 +5636,16 @@
         <v>44406</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="G149" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5145,13 +5656,13 @@
         <v>44406</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="G150" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5162,21 +5673,636 @@
         <v>44406</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="G151" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>1</v>
+      </c>
       <c r="C152" s="4">
         <v>44406</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>2</v>
+      </c>
+      <c r="C153" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>1</v>
+      </c>
+      <c r="C154" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="C155" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>2</v>
+      </c>
+      <c r="C156" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>4</v>
+      </c>
+      <c r="C157" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>2</v>
+      </c>
+      <c r="C158" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>5</v>
+      </c>
+      <c r="C159" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>2</v>
+      </c>
+      <c r="C160" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>8</v>
+      </c>
+      <c r="C161" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>1</v>
+      </c>
+      <c r="C164" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>3</v>
+      </c>
+      <c r="C165" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>2</v>
+      </c>
+      <c r="C166" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>4</v>
+      </c>
+      <c r="C167" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>0</v>
+      </c>
+      <c r="C169" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>4</v>
+      </c>
+      <c r="C170" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>2</v>
+      </c>
+      <c r="C171" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>3</v>
+      </c>
+      <c r="C172" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>3</v>
+      </c>
+      <c r="C174" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>4</v>
+      </c>
+      <c r="C175" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>8</v>
+      </c>
+      <c r="C176" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>2</v>
+      </c>
+      <c r="C177" s="4">
+        <v>44418</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>1</v>
+      </c>
+      <c r="C178" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>2</v>
+      </c>
+      <c r="C179" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>1</v>
+      </c>
+      <c r="C180" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>3</v>
+      </c>
+      <c r="C182" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>3</v>
+      </c>
+      <c r="C184" s="4">
+        <v>44420</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="4">
+        <v>44420</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA5434-5338-42A0-98FD-C4BDC25E5372}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46951C-7BF6-44CE-8867-CAEDCF251855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="744">
   <si>
     <t>Date</t>
   </si>
@@ -3239,6 +3239,23 @@
     <t>首先数据类型本身就大概率能决定数据范围，括号内的影响展示，不足填0啥的
 https://bbs.csdn.net/topics/190132957
 可以试试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java中的异步处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本思路就是用另一个线程去处理，当前线程继续往下走就好了；
+那么关于用另一个线程去处理，这个地方的好的处理就是线程池了
+https://blog.csdn.net/qq_34337272/article/details/106693958
+https://www.cnblogs.com/softidea/p/4861232.html
+https://www.toutiao.com/i6815052795415101959/?tt_from=copy_link&amp;utm_campaign=client_share&amp;timestamp=1586926518&amp;app=news_article_social&amp;utm_source=copy_link&amp;utm_medium=toutiao_ios&amp;req_id=20200415125517010014041151170D2D9D&amp;group_id=6815052795415101959&amp;wid=1630894748624
+线程池的选用，最佳实践，参数配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4055,8 +4072,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3575050" y="1314450"/>
-              <a:ext cx="4572000" cy="2695575"/>
+              <a:off x="3578225" y="1339850"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4356,7 +4373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
+      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4398,7 +4415,7 @@
     </row>
     <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f>B2-C2</f>
+        <f t="shared" ref="A2:A65" si="0">B2-C2</f>
         <v>9</v>
       </c>
       <c r="B2" s="7">
@@ -4423,7 +4440,7 @@
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -4448,7 +4465,7 @@
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B4" s="7">
@@ -4473,7 +4490,7 @@
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B5" s="7">
@@ -4494,7 +4511,7 @@
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B6" s="7">
@@ -4518,7 +4535,7 @@
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B7" s="7">
@@ -4542,7 +4559,7 @@
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B8" s="7">
@@ -4566,7 +4583,7 @@
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B9" s="7">
@@ -4590,7 +4607,7 @@
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="7">
@@ -4614,7 +4631,7 @@
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="7">
@@ -4638,7 +4655,7 @@
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="7">
@@ -4662,7 +4679,7 @@
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="7">
@@ -4686,7 +4703,7 @@
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="7">
@@ -4710,7 +4727,7 @@
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B15" s="7">
@@ -4731,7 +4748,7 @@
     </row>
     <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="7">
@@ -4752,7 +4769,7 @@
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="3">
@@ -4773,7 +4790,7 @@
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B18" s="7">
@@ -4795,7 +4812,7 @@
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="7">
@@ -4817,7 +4834,7 @@
     </row>
     <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B20" s="7">
@@ -4839,7 +4856,7 @@
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B21" s="7">
@@ -4861,7 +4878,7 @@
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B22" s="7">
@@ -4879,7 +4896,7 @@
     </row>
     <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B23" s="7">
@@ -4900,7 +4917,7 @@
     </row>
     <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B24" s="7">
@@ -4921,7 +4938,7 @@
     </row>
     <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B25" s="7">
@@ -4948,7 +4965,7 @@
     </row>
     <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B26" s="7">
@@ -4972,7 +4989,7 @@
     </row>
     <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B27" s="7">
@@ -4999,7 +5016,7 @@
     </row>
     <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B28" s="7">
@@ -5020,7 +5037,7 @@
     </row>
     <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B29" s="7">
@@ -5041,7 +5058,7 @@
     </row>
     <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B30" s="7">
@@ -5062,7 +5079,7 @@
     </row>
     <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="7">
@@ -5083,7 +5100,7 @@
     </row>
     <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <f>B32-C32</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B32" s="7">
@@ -5107,7 +5124,7 @@
     </row>
     <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <f>B33-C33</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B33" s="7">
@@ -5128,7 +5145,7 @@
     </row>
     <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <f>B34-C34</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B34" s="7">
@@ -5149,7 +5166,7 @@
     </row>
     <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <f>B35-C35</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B35" s="7">
@@ -5167,7 +5184,7 @@
     </row>
     <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <f>B36-C36</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B36" s="7">
@@ -5191,7 +5208,7 @@
     </row>
     <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <f>B37-C37</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B37" s="7">
@@ -5215,7 +5232,7 @@
     </row>
     <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <f>B38-C38</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B38" s="7">
@@ -5239,7 +5256,7 @@
     </row>
     <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <f>B39-C39</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B39" s="7">
@@ -5263,7 +5280,7 @@
     </row>
     <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <f>B40-C40</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B40" s="7">
@@ -5287,7 +5304,7 @@
     </row>
     <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <f>B41-C41</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B41" s="7">
@@ -5311,7 +5328,7 @@
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <f>B42-C42</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B42" s="7">
@@ -5335,7 +5352,7 @@
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f>B43-C43</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B43" s="7">
@@ -5356,7 +5373,7 @@
     </row>
     <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <f>B44-C44</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B44" s="7">
@@ -5380,7 +5397,7 @@
     </row>
     <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <f>B45-C45</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B45" s="7">
@@ -5401,7 +5418,7 @@
     </row>
     <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <f>B46-C46</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B46" s="7">
@@ -5420,7 +5437,7 @@
     </row>
     <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <f>B47-C47</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B47" s="7">
@@ -5439,7 +5456,7 @@
     </row>
     <row r="48" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <f>B48-C48</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B48" s="7">
@@ -5461,7 +5478,7 @@
     </row>
     <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <f>B49-C49</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B49" s="7">
@@ -5480,7 +5497,7 @@
     </row>
     <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <f>B50-C50</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B50" s="7">
@@ -5505,7 +5522,7 @@
     </row>
     <row r="51" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <f>B51-C51</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B51" s="7">
@@ -5530,7 +5547,7 @@
     </row>
     <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <f>B52-C52</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B52" s="7">
@@ -5552,7 +5569,7 @@
     </row>
     <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <f>B53-C53</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B53" s="7">
@@ -5574,7 +5591,7 @@
     </row>
     <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <f>B54-C54</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B54" s="7">
@@ -5599,7 +5616,7 @@
     </row>
     <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <f>B55-C55</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B55" s="7">
@@ -5624,7 +5641,7 @@
     </row>
     <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <f>B56-C56</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B56" s="7">
@@ -5649,7 +5666,7 @@
     </row>
     <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <f>B57-C57</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B57" s="7">
@@ -5674,7 +5691,7 @@
     </row>
     <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <f>B58-C58</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B58" s="7">
@@ -5699,7 +5716,7 @@
     </row>
     <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <f>B59-C59</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B59" s="7">
@@ -5724,7 +5741,7 @@
     </row>
     <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <f>B60-C60</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B60" s="7">
@@ -5749,7 +5766,7 @@
     </row>
     <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <f>B61-C61</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B61" s="7">
@@ -5774,7 +5791,7 @@
     </row>
     <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <f>B62-C62</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B62" s="7">
@@ -5799,7 +5816,7 @@
     </row>
     <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <f>B63-C63</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B63" s="7">
@@ -5824,7 +5841,7 @@
     </row>
     <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <f>B64-C64</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B64" s="7">
@@ -5849,7 +5866,7 @@
     </row>
     <row r="65" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <f>B65-C65</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B65" s="7">
@@ -5874,7 +5891,7 @@
     </row>
     <row r="66" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <f>B66-C66</f>
+        <f t="shared" ref="A66:A129" si="1">B66-C66</f>
         <v>9</v>
       </c>
       <c r="B66" s="7">
@@ -5896,7 +5913,7 @@
     </row>
     <row r="67" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <f>B67-C67</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B67" s="7">
@@ -5923,7 +5940,7 @@
     </row>
     <row r="68" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <f>B68-C68</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B68" s="7">
@@ -5948,7 +5965,7 @@
     </row>
     <row r="69" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <f>B69-C69</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B69" s="7">
@@ -5973,7 +5990,7 @@
     </row>
     <row r="70" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <f>B70-C70</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B70" s="7">
@@ -5998,7 +6015,7 @@
     </row>
     <row r="71" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <f>B71-C71</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B71" s="7">
@@ -6023,7 +6040,7 @@
     </row>
     <row r="72" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <f>B72-C72</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B72" s="7">
@@ -6048,7 +6065,7 @@
     </row>
     <row r="73" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <f>B73-C73</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B73" s="7">
@@ -6073,7 +6090,7 @@
     </row>
     <row r="74" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <f>B74-C74</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B74" s="7">
@@ -6098,7 +6115,7 @@
     </row>
     <row r="75" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <f>B75-C75</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B75" s="7">
@@ -6123,7 +6140,7 @@
     </row>
     <row r="76" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <f>B76-C76</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B76" s="7">
@@ -6148,7 +6165,7 @@
     </row>
     <row r="77" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <f>B77-C77</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B77" s="7">
@@ -6173,7 +6190,7 @@
     </row>
     <row r="78" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <f>B78-C78</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B78" s="7">
@@ -6198,7 +6215,7 @@
     </row>
     <row r="79" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <f>B79-C79</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B79" s="7">
@@ -6223,7 +6240,7 @@
     </row>
     <row r="80" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <f>B80-C80</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B80" s="7">
@@ -6248,7 +6265,7 @@
     </row>
     <row r="81" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <f>B81-C81</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B81" s="7">
@@ -6273,7 +6290,7 @@
     </row>
     <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <f>B82-C82</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B82" s="7">
@@ -6295,7 +6312,7 @@
     </row>
     <row r="83" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <f>B83-C83</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B83" s="7">
@@ -6317,7 +6334,7 @@
     </row>
     <row r="84" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <f>B84-C84</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B84" s="7">
@@ -6342,7 +6359,7 @@
     </row>
     <row r="85" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <f>B85-C85</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B85" s="7">
@@ -6367,7 +6384,7 @@
     </row>
     <row r="86" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
-        <f>B86-C86</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B86" s="7">
@@ -6392,7 +6409,7 @@
     </row>
     <row r="87" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <f>B87-C87</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B87" s="7">
@@ -6417,7 +6434,7 @@
     </row>
     <row r="88" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
-        <f>B88-C88</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B88" s="7">
@@ -6442,7 +6459,7 @@
     </row>
     <row r="89" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <f>B89-C89</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B89" s="7">
@@ -6464,7 +6481,7 @@
     </row>
     <row r="90" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
-        <f>B90-C90</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B90" s="7">
@@ -6488,7 +6505,7 @@
     </row>
     <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
-        <f>B91-C91</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B91" s="7">
@@ -6512,7 +6529,7 @@
     </row>
     <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
-        <f>B92-C92</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B92" s="7">
@@ -6536,7 +6553,7 @@
     </row>
     <row r="93" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
-        <f>B93-C93</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B93" s="7">
@@ -6560,7 +6577,7 @@
     </row>
     <row r="94" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
-        <f>B94-C94</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B94" s="7">
@@ -6584,7 +6601,7 @@
     </row>
     <row r="95" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
-        <f>B95-C95</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B95" s="7">
@@ -6608,7 +6625,7 @@
     </row>
     <row r="96" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
-        <f>B96-C96</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B96" s="7">
@@ -6629,7 +6646,7 @@
     </row>
     <row r="97" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
-        <f>B97-C97</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B97" s="7">
@@ -6653,7 +6670,7 @@
     </row>
     <row r="98" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
-        <f>B98-C98</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B98" s="7">
@@ -6677,7 +6694,7 @@
     </row>
     <row r="99" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
-        <f>B99-C99</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B99" s="7">
@@ -6701,7 +6718,7 @@
     </row>
     <row r="100" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
-        <f>B100-C100</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B100" s="7">
@@ -6725,7 +6742,7 @@
     </row>
     <row r="101" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
-        <f>B101-C101</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B101" s="7">
@@ -6749,7 +6766,7 @@
     </row>
     <row r="102" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
-        <f>B102-C102</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B102" s="7">
@@ -6773,7 +6790,7 @@
     </row>
     <row r="103" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
-        <f>B103-C103</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B103" s="7">
@@ -6794,7 +6811,7 @@
     </row>
     <row r="104" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
-        <f>B104-C104</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B104" s="7">
@@ -6815,7 +6832,7 @@
     </row>
     <row r="105" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
-        <f>B105-C105</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B105" s="7">
@@ -6839,7 +6856,7 @@
     </row>
     <row r="106" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
-        <f>B106-C106</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B106" s="7">
@@ -6863,7 +6880,7 @@
     </row>
     <row r="107" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
-        <f>B107-C107</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B107" s="7">
@@ -6887,7 +6904,7 @@
     </row>
     <row r="108" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
-        <f>B108-C108</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B108" s="7">
@@ -6908,7 +6925,7 @@
     </row>
     <row r="109" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
-        <f>B109-C109</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B109" s="7">
@@ -6932,7 +6949,7 @@
     </row>
     <row r="110" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
-        <f>B110-C110</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B110" s="7">
@@ -6956,7 +6973,7 @@
     </row>
     <row r="111" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
-        <f>B111-C111</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B111" s="7">
@@ -6974,7 +6991,7 @@
     </row>
     <row r="112" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
-        <f>B112-C112</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B112" s="7">
@@ -6995,7 +7012,7 @@
     </row>
     <row r="113" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
-        <f>B113-C113</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B113" s="7">
@@ -7016,7 +7033,7 @@
     </row>
     <row r="114" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
-        <f>B114-C114</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B114" s="7">
@@ -7040,7 +7057,7 @@
     </row>
     <row r="115" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
-        <f>B115-C115</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B115" s="7">
@@ -7064,7 +7081,7 @@
     </row>
     <row r="116" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
-        <f>B116-C116</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B116" s="7">
@@ -7088,7 +7105,7 @@
     </row>
     <row r="117" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
-        <f>B117-C117</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B117" s="7">
@@ -7112,7 +7129,7 @@
     </row>
     <row r="118" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
-        <f>B118-C118</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B118" s="7">
@@ -7136,7 +7153,7 @@
     </row>
     <row r="119" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
-        <f>B119-C119</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B119" s="7">
@@ -7160,7 +7177,7 @@
     </row>
     <row r="120" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
-        <f>B120-C120</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B120" s="7">
@@ -7184,7 +7201,7 @@
     </row>
     <row r="121" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
-        <f>B121-C121</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B121" s="7">
@@ -7208,7 +7225,7 @@
     </row>
     <row r="122" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
-        <f>B122-C122</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B122" s="7">
@@ -7232,7 +7249,7 @@
     </row>
     <row r="123" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
-        <f>B123-C123</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B123" s="7">
@@ -7256,7 +7273,7 @@
     </row>
     <row r="124" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
-        <f>B124-C124</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B124" s="7">
@@ -7280,7 +7297,7 @@
     </row>
     <row r="125" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
-        <f>B125-C125</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B125" s="7">
@@ -7304,7 +7321,7 @@
     </row>
     <row r="126" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
-        <f>B126-C126</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B126" s="7">
@@ -7328,7 +7345,7 @@
     </row>
     <row r="127" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
-        <f>B127-C127</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B127" s="7">
@@ -7352,7 +7369,7 @@
     </row>
     <row r="128" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
-        <f>B128-C128</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B128" s="7">
@@ -7376,7 +7393,7 @@
     </row>
     <row r="129" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
-        <f>B129-C129</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B129" s="7">
@@ -7400,7 +7417,7 @@
     </row>
     <row r="130" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
-        <f>B130-C130</f>
+        <f t="shared" ref="A130:A193" si="2">B130-C130</f>
         <v>10</v>
       </c>
       <c r="B130" s="7">
@@ -7424,7 +7441,7 @@
     </row>
     <row r="131" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
-        <f>B131-C131</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B131" s="7">
@@ -7448,7 +7465,7 @@
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
-        <f>B132-C132</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B132" s="7">
@@ -7472,7 +7489,7 @@
     </row>
     <row r="133" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
-        <f>B133-C133</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B133" s="7">
@@ -7496,7 +7513,7 @@
     </row>
     <row r="134" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
-        <f>B134-C134</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B134" s="7">
@@ -7517,7 +7534,7 @@
     </row>
     <row r="135" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
-        <f>B135-C135</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B135" s="7">
@@ -7541,7 +7558,7 @@
     </row>
     <row r="136" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
-        <f>B136-C136</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B136" s="7">
@@ -7562,7 +7579,7 @@
     </row>
     <row r="137" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
-        <f>B137-C137</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B137" s="7">
@@ -7586,7 +7603,7 @@
     </row>
     <row r="138" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
-        <f>B138-C138</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B138" s="7">
@@ -7607,7 +7624,7 @@
     </row>
     <row r="139" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
-        <f>B139-C139</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B139" s="7">
@@ -7631,7 +7648,7 @@
     </row>
     <row r="140" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
-        <f>B140-C140</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B140" s="7">
@@ -7655,7 +7672,7 @@
     </row>
     <row r="141" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
-        <f>B141-C141</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B141" s="7">
@@ -7676,7 +7693,7 @@
     </row>
     <row r="142" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
-        <f>B142-C142</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B142" s="7">
@@ -7700,7 +7717,7 @@
     </row>
     <row r="143" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
-        <f>B143-C143</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B143" s="7">
@@ -7718,7 +7735,7 @@
     </row>
     <row r="144" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
-        <f>B144-C144</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B144" s="7">
@@ -7742,7 +7759,7 @@
     </row>
     <row r="145" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
-        <f>B145-C145</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B145" s="7">
@@ -7766,7 +7783,7 @@
     </row>
     <row r="146" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
-        <f>B146-C146</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B146" s="7">
@@ -7787,7 +7804,7 @@
     </row>
     <row r="147" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
-        <f>B147-C147</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B147" s="7">
@@ -7811,7 +7828,7 @@
     </row>
     <row r="148" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
-        <f>B148-C148</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B148" s="7">
@@ -7832,7 +7849,7 @@
     </row>
     <row r="149" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
-        <f>B149-C149</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B149" s="7">
@@ -7856,7 +7873,7 @@
     </row>
     <row r="150" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
-        <f>B150-C150</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B150" s="7">
@@ -7877,7 +7894,7 @@
     </row>
     <row r="151" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
-        <f>B151-C151</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B151" s="7">
@@ -7901,7 +7918,7 @@
     </row>
     <row r="152" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
-        <f>B152-C152</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B152" s="7">
@@ -7925,7 +7942,7 @@
     </row>
     <row r="153" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
-        <f>B153-C153</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B153" s="7">
@@ -7943,7 +7960,7 @@
     </row>
     <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
-        <f>B154-C154</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B154" s="7">
@@ -7967,7 +7984,7 @@
     </row>
     <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
-        <f>B155-C155</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B155" s="7">
@@ -7991,7 +8008,7 @@
     </row>
     <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
-        <f>B156-C156</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B156" s="7">
@@ -8015,7 +8032,7 @@
     </row>
     <row r="157" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
-        <f>B157-C157</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B157" s="7">
@@ -8036,7 +8053,7 @@
     </row>
     <row r="158" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
-        <f>B158-C158</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B158" s="7">
@@ -8060,7 +8077,7 @@
     </row>
     <row r="159" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
-        <f>B159-C159</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B159" s="7">
@@ -8078,7 +8095,7 @@
     </row>
     <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
-        <f>B160-C160</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B160" s="7">
@@ -8102,7 +8119,7 @@
     </row>
     <row r="161" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
-        <f>B161-C161</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B161" s="7">
@@ -8123,7 +8140,7 @@
     </row>
     <row r="162" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
-        <f>B162-C162</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B162" s="7">
@@ -8144,7 +8161,7 @@
     </row>
     <row r="163" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
-        <f>B163-C163</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B163" s="7">
@@ -8168,7 +8185,7 @@
     </row>
     <row r="164" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
-        <f>B164-C164</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B164" s="7">
@@ -8192,7 +8209,7 @@
     </row>
     <row r="165" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
-        <f>B165-C165</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B165" s="7">
@@ -8213,7 +8230,7 @@
     </row>
     <row r="166" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
-        <f>B166-C166</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B166" s="7">
@@ -8237,7 +8254,7 @@
     </row>
     <row r="167" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
-        <f>B167-C167</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B167" s="7">
@@ -8261,7 +8278,7 @@
     </row>
     <row r="168" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
-        <f>B168-C168</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B168" s="7">
@@ -8282,7 +8299,7 @@
     </row>
     <row r="169" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
-        <f>B169-C169</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B169" s="7">
@@ -8306,7 +8323,7 @@
     </row>
     <row r="170" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
-        <f>B170-C170</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B170" s="7">
@@ -8330,7 +8347,7 @@
     </row>
     <row r="171" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
-        <f>B171-C171</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B171" s="7">
@@ -8354,7 +8371,7 @@
     </row>
     <row r="172" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
-        <f>B172-C172</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B172" s="7">
@@ -8375,7 +8392,7 @@
     </row>
     <row r="173" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
-        <f>B173-C173</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B173" s="7">
@@ -8399,7 +8416,7 @@
     </row>
     <row r="174" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
-        <f>B174-C174</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B174" s="7">
@@ -8420,7 +8437,7 @@
     </row>
     <row r="175" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
-        <f>B175-C175</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B175" s="7">
@@ -8441,7 +8458,7 @@
     </row>
     <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
-        <f>B176-C176</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B176" s="7">
@@ -8465,7 +8482,7 @@
     </row>
     <row r="177" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
-        <f>B177-C177</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B177" s="7">
@@ -8489,7 +8506,7 @@
     </row>
     <row r="178" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
-        <f>B178-C178</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B178" s="7">
@@ -8513,7 +8530,7 @@
     </row>
     <row r="179" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
-        <f>B179-C179</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B179" s="7">
@@ -8537,7 +8554,7 @@
     </row>
     <row r="180" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
-        <f>B180-C180</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B180" s="7">
@@ -8561,7 +8578,7 @@
     </row>
     <row r="181" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
-        <f>B181-C181</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B181" s="7">
@@ -8582,7 +8599,7 @@
     </row>
     <row r="182" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
-        <f>B182-C182</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B182" s="7">
@@ -8606,7 +8623,7 @@
     </row>
     <row r="183" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
-        <f>B183-C183</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B183" s="7">
@@ -8630,7 +8647,7 @@
     </row>
     <row r="184" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
-        <f>B184-C184</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B184" s="3">
@@ -8648,7 +8665,7 @@
     </row>
     <row r="185" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
-        <f>B185-C185</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B185" s="3">
@@ -8669,7 +8686,7 @@
     </row>
     <row r="186" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
-        <f>B186-C186</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B186" s="3">
@@ -8690,7 +8707,7 @@
     </row>
     <row r="187" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
-        <f>B187-C187</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B187" s="3">
@@ -8711,7 +8728,7 @@
     </row>
     <row r="188" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
-        <f>B188-C188</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B188" s="3">
@@ -8735,7 +8752,7 @@
     </row>
     <row r="189" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
-        <f>B189-C189</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B189" s="3">
@@ -8759,7 +8776,7 @@
     </row>
     <row r="190" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
-        <f>B190-C190</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B190" s="3">
@@ -8780,7 +8797,7 @@
     </row>
     <row r="191" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
-        <f>B191-C191</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B191" s="3">
@@ -8804,7 +8821,7 @@
     </row>
     <row r="192" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
-        <f>B192-C192</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B192" s="3">
@@ -8825,7 +8842,7 @@
     </row>
     <row r="193" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
-        <f>B193-C193</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B193" s="3">
@@ -8846,7 +8863,7 @@
     </row>
     <row r="194" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
-        <f>B194-C194</f>
+        <f t="shared" ref="A194:A257" si="3">B194-C194</f>
         <v>8</v>
       </c>
       <c r="B194" s="3">
@@ -8867,7 +8884,7 @@
     </row>
     <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
-        <f>B195-C195</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B195" s="3">
@@ -8888,7 +8905,7 @@
     </row>
     <row r="196" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
-        <f>B196-C196</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B196" s="3">
@@ -8909,7 +8926,7 @@
     </row>
     <row r="197" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
-        <f>B197-C197</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B197" s="3">
@@ -8930,7 +8947,7 @@
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
-        <f>B198-C198</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B198" s="3">
@@ -8951,7 +8968,7 @@
     </row>
     <row r="199" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
-        <f>B199-C199</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B199" s="3">
@@ -8972,7 +8989,7 @@
     </row>
     <row r="200" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
-        <f>B200-C200</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B200" s="3">
@@ -8993,7 +9010,7 @@
     </row>
     <row r="201" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <f>B201-C201</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B201" s="3">
@@ -9017,7 +9034,7 @@
     </row>
     <row r="202" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <f>B202-C202</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B202" s="3">
@@ -9041,7 +9058,7 @@
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <f>B203-C203</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B203" s="3">
@@ -9065,7 +9082,7 @@
     </row>
     <row r="204" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <f>B204-C204</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B204" s="3">
@@ -9089,7 +9106,7 @@
     </row>
     <row r="205" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <f>B205-C205</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B205" s="3">
@@ -9110,7 +9127,7 @@
     </row>
     <row r="206" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <f>B206-C206</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B206" s="3">
@@ -9131,7 +9148,7 @@
     </row>
     <row r="207" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <f>B207-C207</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B207" s="3">
@@ -9152,7 +9169,7 @@
     </row>
     <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <f>B208-C208</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B208" s="3">
@@ -9176,7 +9193,7 @@
     </row>
     <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <f>B209-C209</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B209" s="3">
@@ -9197,7 +9214,7 @@
     </row>
     <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
-        <f>B210-C210</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B210" s="3">
@@ -9218,7 +9235,7 @@
     </row>
     <row r="211" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
-        <f>B211-C211</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B211" s="3">
@@ -9242,7 +9259,7 @@
     </row>
     <row r="212" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <f>B212-C212</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B212" s="3">
@@ -9266,7 +9283,7 @@
     </row>
     <row r="213" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <f>B213-C213</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B213" s="3">
@@ -9290,7 +9307,7 @@
     </row>
     <row r="214" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <f>B214-C214</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B214" s="3">
@@ -9311,7 +9328,7 @@
     </row>
     <row r="215" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <f>B215-C215</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B215" s="3">
@@ -9332,7 +9349,7 @@
     </row>
     <row r="216" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <f>B216-C216</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B216" s="3">
@@ -9350,7 +9367,7 @@
     </row>
     <row r="217" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <f>B217-C217</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B217" s="3">
@@ -9374,7 +9391,7 @@
     </row>
     <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <f>B218-C218</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B218" s="3">
@@ -9398,7 +9415,7 @@
     </row>
     <row r="219" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <f>B219-C219</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B219" s="3">
@@ -9419,7 +9436,7 @@
     </row>
     <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <f>B220-C220</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B220" s="3">
@@ -9443,7 +9460,7 @@
     </row>
     <row r="221" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <f>B221-C221</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B221" s="3">
@@ -9461,7 +9478,7 @@
     </row>
     <row r="222" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <f>B222-C222</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B222" s="3">
@@ -9482,7 +9499,7 @@
     </row>
     <row r="223" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <f>B223-C223</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B223" s="3">
@@ -9506,7 +9523,7 @@
     </row>
     <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <f>B224-C224</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B224" s="3">
@@ -9527,7 +9544,7 @@
     </row>
     <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <f>B225-C225</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B225" s="3">
@@ -9548,7 +9565,7 @@
     </row>
     <row r="226" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <f>B226-C226</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B226" s="3">
@@ -9572,7 +9589,7 @@
     </row>
     <row r="227" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <f>B227-C227</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B227" s="3">
@@ -9593,7 +9610,7 @@
     </row>
     <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <f>B228-C228</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B228" s="3">
@@ -9614,7 +9631,7 @@
     </row>
     <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <f>B229-C229</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B229" s="3">
@@ -9635,7 +9652,7 @@
     </row>
     <row r="230" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <f>B230-C230</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B230" s="3">
@@ -9656,7 +9673,7 @@
     </row>
     <row r="231" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <f>B231-C231</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B231" s="3">
@@ -9677,7 +9694,7 @@
     </row>
     <row r="232" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <f>B232-C232</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B232" s="3">
@@ -9701,7 +9718,7 @@
     </row>
     <row r="233" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <f>B233-C233</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B233" s="3">
@@ -9722,7 +9739,7 @@
     </row>
     <row r="234" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <f>B234-C234</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B234" s="3">
@@ -9743,7 +9760,7 @@
     </row>
     <row r="235" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <f>B235-C235</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B235" s="3">
@@ -9764,7 +9781,7 @@
     </row>
     <row r="236" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <f>B236-C236</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B236" s="3">
@@ -9785,7 +9802,7 @@
     </row>
     <row r="237" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <f>B237-C237</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B237" s="3">
@@ -9806,7 +9823,7 @@
     </row>
     <row r="238" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <f>B238-C238</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B238" s="3">
@@ -9827,7 +9844,7 @@
     </row>
     <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <f>B239-C239</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B239" s="3">
@@ -9848,7 +9865,7 @@
     </row>
     <row r="240" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <f>B240-C240</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B240" s="3">
@@ -9869,7 +9886,7 @@
     </row>
     <row r="241" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <f>B241-C241</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B241" s="3">
@@ -9890,7 +9907,7 @@
     </row>
     <row r="242" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <f>B242-C242</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B242" s="3">
@@ -9911,7 +9928,7 @@
     </row>
     <row r="243" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <f>B243-C243</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B243" s="3">
@@ -9932,7 +9949,7 @@
     </row>
     <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <f>B244-C244</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B244" s="3">
@@ -9953,7 +9970,7 @@
     </row>
     <row r="245" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <f>B245-C245</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B245" s="3">
@@ -9974,7 +9991,7 @@
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <f>B246-C246</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B246" s="3">
@@ -9995,7 +10012,7 @@
     </row>
     <row r="247" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <f>B247-C247</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B247" s="3">
@@ -10016,7 +10033,7 @@
     </row>
     <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <f>B248-C248</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B248" s="3">
@@ -10037,7 +10054,7 @@
     </row>
     <row r="249" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <f>B249-C249</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B249" s="3">
@@ -10058,7 +10075,7 @@
     </row>
     <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <f>B250-C250</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B250" s="3">
@@ -10079,1504 +10096,1516 @@
     </row>
     <row r="251" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <f>B251-C251</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B251" s="3">
+        <v>8</v>
       </c>
       <c r="D251" s="4">
-        <v>44442</v>
+        <v>44445</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <f>B252-C252</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <f>B253-C253</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <f>B254-C254</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <f>B255-C255</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <f>B256-C256</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <f>B257-C257</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <f>B258-C258</f>
+        <f t="shared" ref="A258:A321" si="4">B258-C258</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <f>B259-C259</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <f>B260-C260</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <f>B261-C261</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <f>B262-C262</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <f>B263-C263</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
-        <f>B264-C264</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <f>B265-C265</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
-        <f>B266-C266</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <f>B267-C267</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <f>B268-C268</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <f>B269-C269</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <f>B270-C270</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
-        <f>B271-C271</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <f>B272-C272</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
-        <f>B273-C273</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <f>B274-C274</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
-        <f>B275-C275</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <f>B276-C276</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
-        <f>B277-C277</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <f>B278-C278</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
-        <f>B279-C279</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <f>B280-C280</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
-        <f>B281-C281</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <f>B282-C282</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
-        <f>B283-C283</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <f>B284-C284</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
-        <f>B285-C285</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <f>B286-C286</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
-        <f>B287-C287</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <f>B288-C288</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
-        <f>B289-C289</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <f>B290-C290</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
-        <f>B291-C291</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <f>B292-C292</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
-        <f>B293-C293</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <f>B294-C294</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
-        <f>B295-C295</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
-        <f>B296-C296</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
-        <f>B297-C297</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
-        <f>B298-C298</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
-        <f>B299-C299</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
-        <f>B300-C300</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
-        <f>B301-C301</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
-        <f>B302-C302</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
-        <f>B303-C303</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
-        <f>B304-C304</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
-        <f>B305-C305</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
-        <f>B306-C306</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
-        <f>B307-C307</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
-        <f>B308-C308</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <f>B309-C309</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <f>B310-C310</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <f>B311-C311</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
-        <f>B312-C312</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
-        <f>B313-C313</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
-        <f>B314-C314</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
-        <f>B315-C315</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
-        <f>B316-C316</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
-        <f>B317-C317</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
-        <f>B318-C318</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
-        <f>B319-C319</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
-        <f>B320-C320</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
-        <f>B321-C321</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
-        <f>B322-C322</f>
+        <f t="shared" ref="A322:A385" si="5">B322-C322</f>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
-        <f>B323-C323</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
-        <f>B324-C324</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
-        <f>B325-C325</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
-        <f>B326-C326</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
-        <f>B327-C327</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
-        <f>B328-C328</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
-        <f>B329-C329</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
-        <f>B330-C330</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
-        <f>B331-C331</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
-        <f>B332-C332</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
-        <f>B333-C333</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
-        <f>B334-C334</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
-        <f>B335-C335</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
-        <f>B336-C336</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
-        <f>B337-C337</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
-        <f>B338-C338</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
-        <f>B339-C339</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
-        <f>B340-C340</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
-        <f>B341-C341</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
-        <f>B342-C342</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
-        <f>B343-C343</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
-        <f>B344-C344</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
-        <f>B345-C345</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
-        <f>B346-C346</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
-        <f>B347-C347</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
-        <f>B348-C348</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
-        <f>B349-C349</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
-        <f>B350-C350</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
-        <f>B351-C351</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
-        <f>B352-C352</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
-        <f>B353-C353</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
-        <f>B354-C354</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
-        <f>B355-C355</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
-        <f>B356-C356</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
-        <f>B357-C357</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
-        <f>B358-C358</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
-        <f>B359-C359</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
-        <f>B360-C360</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
-        <f>B361-C361</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
-        <f>B362-C362</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
-        <f>B363-C363</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
-        <f>B364-C364</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
-        <f>B365-C365</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
-        <f>B366-C366</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
-        <f>B367-C367</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
-        <f>B368-C368</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
-        <f>B369-C369</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
-        <f>B370-C370</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
-        <f>B371-C371</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
-        <f>B372-C372</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
-        <f>B373-C373</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
-        <f>B374-C374</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
-        <f>B375-C375</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
-        <f>B376-C376</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
-        <f>B377-C377</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
-        <f>B378-C378</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
-        <f>B379-C379</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
-        <f>B380-C380</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
-        <f>B381-C381</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
-        <f>B382-C382</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
-        <f>B383-C383</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
-        <f>B384-C384</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
-        <f>B385-C385</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
-        <f>B386-C386</f>
+        <f t="shared" ref="A386:A449" si="6">B386-C386</f>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
-        <f>B387-C387</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <f>B388-C388</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
-        <f>B389-C389</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
-        <f>B390-C390</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
-        <f>B391-C391</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
-        <f>B392-C392</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
-        <f>B393-C393</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
-        <f>B394-C394</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
-        <f>B395-C395</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
-        <f>B396-C396</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
-        <f>B397-C397</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
-        <f>B398-C398</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
-        <f>B399-C399</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
-        <f>B400-C400</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
-        <f>B401-C401</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
-        <f>B402-C402</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
-        <f>B403-C403</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
-        <f>B404-C404</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
-        <f>B405-C405</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
-        <f>B406-C406</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
-        <f>B407-C407</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <f>B408-C408</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
-        <f>B409-C409</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
-        <f>B410-C410</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
-        <f>B411-C411</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
-        <f>B412-C412</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
-        <f>B413-C413</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
-        <f>B414-C414</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
-        <f>B415-C415</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
-        <f>B416-C416</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
-        <f>B417-C417</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
-        <f>B418-C418</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
-        <f>B419-C419</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
-        <f>B420-C420</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
-        <f>B421-C421</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
-        <f>B422-C422</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
-        <f>B423-C423</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
-        <f>B424-C424</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
-        <f>B425-C425</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
-        <f>B426-C426</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
-        <f>B427-C427</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
-        <f>B428-C428</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
-        <f>B429-C429</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
-        <f>B430-C430</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
-        <f>B431-C431</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
-        <f>B432-C432</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
-        <f>B433-C433</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
-        <f>B434-C434</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
-        <f>B435-C435</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
-        <f>B436-C436</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
-        <f>B437-C437</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
-        <f>B438-C438</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
-        <f>B439-C439</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
-        <f>B440-C440</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
-        <f>B441-C441</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
-        <f>B442-C442</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
-        <f>B443-C443</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
-        <f>B444-C444</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
-        <f>B445-C445</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
-        <f>B446-C446</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
-        <f>B447-C447</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
-        <f>B448-C448</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
-        <f>B449-C449</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
-        <f>B450-C450</f>
+        <f t="shared" ref="A450:A513" si="7">B450-C450</f>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
-        <f>B451-C451</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
-        <f>B452-C452</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
-        <f>B453-C453</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
-        <f>B454-C454</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
-        <f>B455-C455</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
-        <f>B456-C456</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
-        <f>B457-C457</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
-        <f>B458-C458</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
-        <f>B459-C459</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
-        <f>B460-C460</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
-        <f>B461-C461</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
-        <f>B462-C462</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
-        <f>B463-C463</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
-        <f>B464-C464</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
-        <f>B465-C465</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
-        <f>B466-C466</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
-        <f>B467-C467</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
-        <f>B468-C468</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
-        <f>B469-C469</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
-        <f>B470-C470</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
-        <f>B471-C471</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
-        <f>B472-C472</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
-        <f>B473-C473</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
-        <f>B474-C474</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
-        <f>B475-C475</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
-        <f>B476-C476</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
-        <f>B477-C477</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
-        <f>B478-C478</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
-        <f>B479-C479</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
-        <f>B480-C480</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
-        <f>B481-C481</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
-        <f>B482-C482</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
-        <f>B483-C483</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
-        <f>B484-C484</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
-        <f>B485-C485</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
-        <f>B486-C486</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
-        <f>B487-C487</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
-        <f>B488-C488</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
-        <f>B489-C489</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
-        <f>B490-C490</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
-        <f>B491-C491</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
-        <f>B492-C492</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
-        <f>B493-C493</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
-        <f>B494-C494</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
-        <f>B495-C495</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
-        <f>B496-C496</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
-        <f>B497-C497</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
-        <f>B498-C498</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
-        <f>B499-C499</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
-        <f>B500-C500</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11638,11 +11667,11 @@
       </c>
       <c r="B2">
         <f>SUMIF(logs!H:H,汇总表!A2,logs!A:A)</f>
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C2">
         <f>SUM(B:B)</f>
-        <v>1734</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46951C-7BF6-44CE-8867-CAEDCF251855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C709575-FBA6-47B8-A1A7-67F3372F9ED9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$A$1:$H$501</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表!$A$1:$C$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">汇总表!$A$2:$A$33</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">汇总表!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">汇总表!$B$2:$B$33</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="804">
   <si>
     <t>Date</t>
   </si>
@@ -1096,9 +1096,6 @@
     <t>想实现简单的本地缓存</t>
   </si>
   <si>
-    <t>使用ConcurrentHashMap达成 理论上使用一个static的Map，前后就能缓存了，但是对于线程安全的要求，还是需要并发容器来搞的，适用于一个请求前后的缓存情况 https://ifeve.com/java8-local-caching/</t>
-  </si>
-  <si>
     <t>缓存方案梳理</t>
   </si>
   <si>
@@ -1389,14 +1386,6 @@
   </si>
   <si>
     <t>看源码，能找到历史最好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实际上没有配置好
-2、每一个显式配置的ConfigBean中，都要指定MapperScan的范围；还要指定哪些是对应配置（配置名前缀匹配）；还要指定mapper位置
-PrimaryDataSourceConfig-primaryDataSource-primarySqlSessionFactory-primaryTransactionManager-primarySqlSessionTemplate
-https://blog.csdn.net/Z__Sheng/article/details/93485347
-https://blog.csdn.net/newbie_907486852/article/details/81391525</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2555,10 +2544,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>学习后权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MarkDown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3256,6 +3241,297 @@
   </si>
   <si>
     <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hessian，之前了解是序列化方式之一，现在又看到在dubbo中有用到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hessian是一个轻量级的rpc框架，所以有序列化方式很正常；结合dubbo使用，算是协议（？）
+http://hessian.caucho.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie，session，token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Servlet来学吧
+Tomcat与Java Web开发技术详解（第2版）尝试通过此书建立目录、入门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo不停重连报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重连机制没问题，问题在于重连了过时的信息；
+而过时的信息没有及时清除是问题的根源；
+解决是配置动态注册
+https://blog.csdn.net/weixin_39883374/article/details/112109644
+https://blog.csdn.net/u012998254/article/details/78575158
+http://www.huati365.com/7466d55695dfcbaf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像也不知道是干啥的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemovalListener是做啥用的，怎么生效的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guava的localCache的机制，可以在key移除的时候执行这块内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个id字段明明有索引，但explain发现没有走？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看下是不是触发到了隐式类型转换！！！
+表结构是varchar，但却使用数字类型去筛选！
+可以通过show warnings;语句查看
+Cannot use range access on index ‘idx_var’
+due to type or collation conversion on field ‘var’
+隐式转换开销大，所以优化器选择全表了..
+https://blog.csdn.net/markzy/article/details/80323454</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建索引的时候，使用using btree干嘛？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为又btree和hash，全文三种索引（innodb）；
+其中btree是默认的
+https://www.cnblogs.com/jamaler/p/12222176.html
+https://blog.csdn.net/ScarletMeCarzy/article/details/109091115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie的readonly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止前端拦截之后篡改，xss攻击
+https://www.cnblogs.com/grefr/p/6088111.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql的group的后，having语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm的参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得入个门
+之前设置的最大最小一致，还都和应用服务器的内存大小一致….
+https://blog.csdn.net/zfgogo/article/details/81260172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux环境变量查看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像可以通过环境变量进行某些配置的替换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux权限的3组还是不记得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有者，所属组，其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl玩法，以及shell下使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程就参考阮一峰的即可了http://www.ruanyifeng.com/blog/2019/09/curl-reference.html
+但是会在linux啥的使用的时候遇到问题，比如shell的转义啥的（多个get的参数情况下）
+https://www.cnblogs.com/zhaoyanhaoBlog/p/13268044.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的show table status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到表的很多信息，包括大小啊啥的
+https://blog.csdn.net/java2000_wl/article/details/7935035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现有好多mysql的show的神奇命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis设置密码后的扩容问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求相同的密码啥的，没有细看
+https://www.cnblogs.com/wuvikr/p/14226850.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea的阿里巴巴的规范的插件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alibaba啥啥啥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习后减少权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw.io</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘图工具，自己搭建下https://zhuanlan.zhihu.com/p/98635546</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动手速度搞下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub-System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维数组转List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson的TypeReference了解下
+https://blog.csdn.net/nihaoqiulinhe/article/details/59108549</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm的G1参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中，不要手动指定new ratio大小，会影响G1灵活的运行的
+https://www.cnblogs.com/javaadu/p/10713956.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的bit数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据有效性有看到有使用，奇怪为啥平时没有用到这个东西
+https://www.cnblogs.com/libin6505/p/10438240.html
+先知道就好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql中的时间数据类型和on update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date datetime timestamp；由于时间范围兼容性啥的，我觉得还是优先使用date datetime；
+current_timestamp()是函数，获取当前时间戳
+ON UPDATE CURRENT_TIMESTAMP是建表的时候写上的，update的时候写上当前的时间戳
+https://www.cnblogs.com/wlzjdm/p/6953398.html
+https://www.cnblogs.com/shengulong/p/8987446.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch的用法对不</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直是git fetch了然后再切换到那个分支下这样的用法的，不知道对不对
+实际来看是对的，只是没有完全理解
+https://blog.csdn.net/qq_42780289/article/details/98049574</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ConcurrentHashMap达成 理论上使用一个static的Map，前后就能缓存了，但是对于线程安全的要求，还是需要并发容器来搞的，适用于一个请求前后的缓存情况 https://ifeve.com/java8-local-caching/
+其他方案包括但不限于Guava的CacheBuilder，spring的Cache（？）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实际上没有配置好
+2、每一个显式配置的ConfigBean中，都要指定MapperScan的范围；还要指定哪些是对应配置（配置名前缀匹配）；还要指定mapper位置
+PrimaryDataSourceConfig-primaryDataSource-primarySqlSessionFactory-primaryTransactionManager-primarySqlSessionTemplate
+https://blog.csdn.net/Z__Sheng/article/details/93485347
+https://blog.csdn.net/newbie_907486852/article/details/81391525
+多数据源配置：https://blog.csdn.net/linkingfei/article/details/94407142</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3318,7 +3594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3343,6 +3619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3357,7 +3639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3394,6 +3676,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4027,13 +4312,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4072,8 +4357,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3578225" y="1339850"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="3575050" y="1314450"/>
+              <a:ext cx="4572000" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4369,11 +4654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4383,19 +4668,19 @@
     <col min="4" max="4" width="14.625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="40.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="3"/>
+    <col min="7" max="9" width="40.625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>586</v>
+        <v>782</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -4412,8 +4697,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A65" si="0">B2-C2</f>
         <v>9</v>
@@ -4435,10 +4723,10 @@
         <v>128</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4460,10 +4748,10 @@
         <v>214</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4479,16 +4767,19 @@
         <v>262</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4506,10 +4797,10 @@
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4533,7 +4824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4554,10 +4845,10 @@
         <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4581,7 +4872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4602,10 +4893,10 @@
         <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4626,10 +4917,10 @@
         <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4650,10 +4941,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4668,16 +4959,16 @@
         <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>339</v>
+        <v>803</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4701,7 +4992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4725,7 +5016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4743,10 +5034,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4758,13 +5049,13 @@
         <v>44362</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4779,13 +5070,13 @@
         <v>44439</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4807,7 +5098,7 @@
         <v>153</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4829,7 +5120,7 @@
         <v>224</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4851,7 +5142,7 @@
         <v>250</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4867,13 +5158,13 @@
         <v>44293</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4891,7 +5182,7 @@
         <v>194</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,7 +5203,7 @@
         <v>196</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4933,7 +5224,7 @@
         <v>226</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4960,7 +5251,7 @@
         <v>108</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4984,7 +5275,7 @@
         <v>199</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5011,7 +5302,7 @@
         <v>114</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5032,7 +5323,7 @@
         <v>228</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5050,10 +5341,10 @@
         <v>229</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5074,7 +5365,7 @@
         <v>252</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5095,7 +5386,7 @@
         <v>254</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5110,16 +5401,16 @@
         <v>44298</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5140,7 +5431,7 @@
         <v>201</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5161,7 +5452,7 @@
         <v>231</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5179,7 +5470,7 @@
         <v>232</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,7 +5494,7 @@
         <v>257</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5242,16 +5533,16 @@
         <v>44302</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5266,16 +5557,16 @@
         <v>44302</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5299,7 +5590,7 @@
         <v>156</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5323,7 +5614,7 @@
         <v>235</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5347,7 +5638,7 @@
         <v>117</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5368,7 +5659,7 @@
         <v>203</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5392,7 +5683,7 @@
         <v>120</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5413,7 +5704,7 @@
         <v>205</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5432,7 +5723,7 @@
         <v>215</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,13 +5758,13 @@
         <v>44312</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5492,7 +5783,7 @@
         <v>129</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5517,7 +5808,7 @@
         <v>132</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5542,7 +5833,7 @@
         <v>135</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5564,7 +5855,7 @@
         <v>172</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5586,7 +5877,7 @@
         <v>217</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5602,16 +5893,16 @@
         <v>44315</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5627,16 +5918,16 @@
         <v>44315</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5652,16 +5943,16 @@
         <v>44315</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5686,7 +5977,7 @@
         <v>123</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5761,7 +6052,7 @@
         <v>167</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5786,7 +6077,7 @@
         <v>208</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5811,7 +6102,7 @@
         <v>238</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5830,13 +6121,13 @@
         <v>239</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>240</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5852,16 +6143,16 @@
         <v>44323</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5877,16 +6168,16 @@
         <v>44323</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5908,7 +6199,7 @@
         <v>125</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5935,7 +6226,7 @@
         <v>111</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5960,7 +6251,7 @@
         <v>170</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5985,7 +6276,7 @@
         <v>211</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6001,16 +6292,16 @@
         <v>44326</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,16 +6317,16 @@
         <v>44326</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6060,7 +6351,7 @@
         <v>175</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6085,7 +6376,7 @@
         <v>178</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6110,7 +6401,7 @@
         <v>181</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6135,7 +6426,7 @@
         <v>184</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6160,7 +6451,7 @@
         <v>245</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6185,7 +6476,7 @@
         <v>248</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6201,16 +6492,16 @@
         <v>44337</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6235,7 +6526,7 @@
         <v>138</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6260,7 +6551,7 @@
         <v>141</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6285,7 +6576,7 @@
         <v>144</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,7 +6598,7 @@
         <v>146</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6329,7 +6620,7 @@
         <v>148</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6354,7 +6645,7 @@
         <v>151</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6379,7 +6670,7 @@
         <v>187</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6404,7 +6695,7 @@
         <v>190</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6429,7 +6720,7 @@
         <v>193</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6454,7 +6745,7 @@
         <v>220</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6476,7 +6767,7 @@
         <v>222</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6491,16 +6782,16 @@
         <v>44362</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="H90" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6515,16 +6806,16 @@
         <v>44362</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6548,7 +6839,7 @@
         <v>7</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6620,7 +6911,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6641,7 +6932,7 @@
         <v>12</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6665,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6761,7 +7052,7 @@
         <v>25</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6806,7 +7097,7 @@
         <v>41</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6827,7 +7118,7 @@
         <v>22</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6875,7 +7166,7 @@
         <v>48</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6920,7 +7211,7 @@
         <v>102</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6944,7 +7235,7 @@
         <v>83</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7052,7 +7343,7 @@
         <v>89</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7076,7 +7367,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7091,13 +7382,13 @@
         <v>44396</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>35</v>
@@ -7115,13 +7406,13 @@
         <v>44396</v>
       </c>
       <c r="E117" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>35</v>
@@ -7139,13 +7430,13 @@
         <v>44396</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>35</v>
@@ -7163,13 +7454,13 @@
         <v>44396</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="G119" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>93</v>
@@ -7187,16 +7478,16 @@
         <v>44396</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="G120" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7211,16 +7502,16 @@
         <v>44396</v>
       </c>
       <c r="E121" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="H121" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,13 +7526,13 @@
         <v>44396</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>35</v>
@@ -7259,16 +7550,16 @@
         <v>44396</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7283,16 +7574,16 @@
         <v>44396</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="H124" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7307,16 +7598,16 @@
         <v>44396</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="H125" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7331,16 +7622,16 @@
         <v>44396</v>
       </c>
       <c r="E126" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="H126" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7355,13 +7646,13 @@
         <v>44396</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="G127" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>35</v>
@@ -7379,13 +7670,13 @@
         <v>44397</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>35</v>
@@ -7403,16 +7694,16 @@
         <v>44397</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="H129" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7427,16 +7718,16 @@
         <v>44397</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="H130" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7451,16 +7742,16 @@
         <v>44397</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="G131" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7475,13 +7766,13 @@
         <v>44399</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>39</v>
@@ -7499,13 +7790,13 @@
         <v>44399</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>60</v>
@@ -7523,10 +7814,10 @@
         <v>44399</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>35</v>
@@ -7544,13 +7835,13 @@
         <v>44399</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>39</v>
@@ -7568,10 +7859,10 @@
         <v>44399</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>39</v>
@@ -7589,16 +7880,16 @@
         <v>44399</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7613,13 +7904,13 @@
         <v>44399</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7634,16 +7925,16 @@
         <v>44399</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="H139" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7658,16 +7949,16 @@
         <v>44399</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7682,13 +7973,13 @@
         <v>44399</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7703,16 +7994,16 @@
         <v>44399</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="H142" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7727,10 +8018,10 @@
         <v>44400</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7745,16 +8036,16 @@
         <v>44406</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7769,16 +8060,16 @@
         <v>44406</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="H145" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7793,13 +8084,13 @@
         <v>44406</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7814,16 +8105,16 @@
         <v>44406</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7838,13 +8129,13 @@
         <v>44406</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7859,13 +8150,13 @@
         <v>44406</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="G149" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>39</v>
@@ -7883,13 +8174,13 @@
         <v>44406</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7904,16 +8195,16 @@
         <v>44406</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="H151" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7928,16 +8219,16 @@
         <v>44406</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="H152" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7952,10 +8243,10 @@
         <v>44406</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7970,16 +8261,16 @@
         <v>44406</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="H154" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7994,16 +8285,16 @@
         <v>44406</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="H155" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8018,16 +8309,16 @@
         <v>44418</v>
       </c>
       <c r="E156" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="H156" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8042,13 +8333,13 @@
         <v>44418</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8063,13 +8354,13 @@
         <v>44418</v>
       </c>
       <c r="E158" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>39</v>
@@ -8087,10 +8378,10 @@
         <v>44418</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8105,16 +8396,16 @@
         <v>44418</v>
       </c>
       <c r="E160" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="H160" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8129,13 +8420,13 @@
         <v>44418</v>
       </c>
       <c r="E161" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H161" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8150,13 +8441,13 @@
         <v>44418</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8171,16 +8462,16 @@
         <v>44418</v>
       </c>
       <c r="E163" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H163" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8195,13 +8486,13 @@
         <v>44418</v>
       </c>
       <c r="E164" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>35</v>
@@ -8219,13 +8510,13 @@
         <v>44418</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8240,16 +8531,16 @@
         <v>44418</v>
       </c>
       <c r="E166" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="H166" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8264,16 +8555,16 @@
         <v>44418</v>
       </c>
       <c r="E167" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="H167" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8288,13 +8579,13 @@
         <v>44418</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8309,13 +8600,13 @@
         <v>44418</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>16</v>
@@ -8333,16 +8624,16 @@
         <v>44418</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="G170" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8357,16 +8648,16 @@
         <v>44418</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="H171" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8381,10 +8672,10 @@
         <v>44418</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>35</v>
@@ -8402,16 +8693,16 @@
         <v>44418</v>
       </c>
       <c r="E173" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="H173" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8426,13 +8717,13 @@
         <v>44418</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8447,13 +8738,13 @@
         <v>44418</v>
       </c>
       <c r="E175" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H175" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8468,16 +8759,16 @@
         <v>44420</v>
       </c>
       <c r="E176" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="H176" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8492,16 +8783,16 @@
         <v>44420</v>
       </c>
       <c r="E177" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="H177" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8516,16 +8807,16 @@
         <v>44420</v>
       </c>
       <c r="E178" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="H178" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8540,16 +8831,16 @@
         <v>44420</v>
       </c>
       <c r="E179" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>490</v>
-      </c>
       <c r="G179" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8564,16 +8855,16 @@
         <v>44420</v>
       </c>
       <c r="E180" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="G180" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8588,13 +8879,13 @@
         <v>44420</v>
       </c>
       <c r="E181" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H181" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8609,16 +8900,16 @@
         <v>44420</v>
       </c>
       <c r="E182" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="H182" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8633,13 +8924,13 @@
         <v>44424</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>39</v>
@@ -8657,10 +8948,10 @@
         <v>44424</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8675,13 +8966,13 @@
         <v>44424</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8696,13 +8987,13 @@
         <v>44425</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,13 +9008,13 @@
         <v>44427</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8738,16 +9029,16 @@
         <v>44427</v>
       </c>
       <c r="E188" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>528</v>
-      </c>
       <c r="H188" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8762,16 +9053,16 @@
         <v>44427</v>
       </c>
       <c r="E189" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="H189" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8786,13 +9077,13 @@
         <v>44427</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8807,16 +9098,16 @@
         <v>44427</v>
       </c>
       <c r="E191" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H191" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,13 +9122,13 @@
         <v>44427</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8852,10 +9143,10 @@
         <v>44427</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>16</v>
@@ -8873,13 +9164,13 @@
         <v>44428</v>
       </c>
       <c r="E194" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H194" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8894,10 +9185,10 @@
         <v>44428</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>16</v>
@@ -8915,13 +9206,13 @@
         <v>44428</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8936,13 +9227,13 @@
         <v>44428</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8957,13 +9248,13 @@
         <v>44428</v>
       </c>
       <c r="E198" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H198" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8978,13 +9269,13 @@
         <v>44428</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8999,13 +9290,13 @@
         <v>44428</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H200" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9020,16 +9311,16 @@
         <v>44432</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H201" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9044,16 +9335,16 @@
         <v>44432</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9068,16 +9359,16 @@
         <v>44432</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9092,16 +9383,16 @@
         <v>44432</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9116,13 +9407,13 @@
         <v>44432</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9137,13 +9428,13 @@
         <v>44432</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9158,13 +9449,13 @@
         <v>44432</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9179,16 +9470,16 @@
         <v>44432</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9203,13 +9494,13 @@
         <v>44432</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,13 +9515,13 @@
         <v>44432</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9248,13 +9539,13 @@
         <v>44432</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9269,16 +9560,16 @@
         <v>44433</v>
       </c>
       <c r="E212" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="H212" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9293,16 +9584,16 @@
         <v>44433</v>
       </c>
       <c r="E213" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H213" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9317,13 +9608,13 @@
         <v>44433</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9338,13 +9629,13 @@
         <v>44433</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9359,10 +9650,10 @@
         <v>44434</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9377,16 +9668,16 @@
         <v>44434</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9401,16 +9692,16 @@
         <v>44434</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9425,13 +9716,13 @@
         <v>44434</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9446,16 +9737,16 @@
         <v>44434</v>
       </c>
       <c r="E220" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="H220" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="H220" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9470,10 +9761,10 @@
         <v>44434</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9488,13 +9779,13 @@
         <v>44434</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9509,16 +9800,16 @@
         <v>44434</v>
       </c>
       <c r="E223" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F223" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="G223" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9533,13 +9824,13 @@
         <v>44434</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9554,13 +9845,13 @@
         <v>44434</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,16 +9866,16 @@
         <v>44434</v>
       </c>
       <c r="E226" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H226" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="H226" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9599,13 +9890,13 @@
         <v>44434</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9620,13 +9911,13 @@
         <v>44440</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9641,13 +9932,13 @@
         <v>44442</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9662,13 +9953,13 @@
         <v>44442</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9683,13 +9974,13 @@
         <v>44442</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9704,16 +9995,16 @@
         <v>44442</v>
       </c>
       <c r="E232" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>695</v>
-      </c>
       <c r="G232" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9728,13 +10019,13 @@
         <v>44442</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9749,13 +10040,13 @@
         <v>44442</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9770,13 +10061,13 @@
         <v>44442</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9791,13 +10082,13 @@
         <v>44442</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9812,13 +10103,13 @@
         <v>44442</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9833,13 +10124,13 @@
         <v>44442</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9854,13 +10145,13 @@
         <v>44442</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9875,13 +10166,13 @@
         <v>44442</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9896,13 +10187,13 @@
         <v>44442</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9917,13 +10208,13 @@
         <v>44442</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9938,13 +10229,13 @@
         <v>44442</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9959,13 +10250,13 @@
         <v>44442</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9980,13 +10271,13 @@
         <v>44442</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10001,13 +10292,13 @@
         <v>44442</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10022,13 +10313,13 @@
         <v>44442</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10043,13 +10334,13 @@
         <v>44442</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10064,13 +10355,13 @@
         <v>44442</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10085,13 +10376,13 @@
         <v>44442</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10106,232 +10397,589 @@
         <v>44445</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B252" s="3">
+        <v>7</v>
+      </c>
+      <c r="D252" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B253" s="3">
+        <v>10</v>
+      </c>
+      <c r="D253" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E253" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B254" s="3">
+        <v>4</v>
+      </c>
+      <c r="D254" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B255" s="3">
+        <v>3</v>
+      </c>
+      <c r="D255" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B256" s="3">
+        <v>2</v>
+      </c>
+      <c r="D256" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B257" s="3">
+        <v>8</v>
+      </c>
+      <c r="D257" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <f t="shared" ref="A258:A321" si="4">B258-C258</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B258" s="3">
+        <v>6</v>
+      </c>
+      <c r="D258" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B259" s="3">
+        <v>8</v>
+      </c>
+      <c r="D259" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B260" s="3">
+        <v>4</v>
+      </c>
+      <c r="D260" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B261" s="3">
+        <v>10</v>
+      </c>
+      <c r="D261" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E261" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B262" s="3">
+        <v>2</v>
+      </c>
+      <c r="D262" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B263" s="3">
+        <v>6</v>
+      </c>
+      <c r="D263" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B264" s="3">
+        <v>8</v>
+      </c>
+      <c r="D264" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B265" s="3">
+        <v>8</v>
+      </c>
+      <c r="D265" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B266" s="3">
+        <v>6</v>
+      </c>
+      <c r="D266" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="3">
+        <v>5</v>
+      </c>
+      <c r="C267" s="3">
+        <v>5</v>
+      </c>
+      <c r="D267" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B268" s="3">
+        <v>10</v>
+      </c>
+      <c r="D268" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B269" s="3">
+        <v>10</v>
+      </c>
+      <c r="D269" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B270" s="3">
+        <v>7</v>
+      </c>
+      <c r="D270" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B271" s="3">
+        <v>8</v>
+      </c>
+      <c r="D271" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B272" s="3">
+        <v>4</v>
+      </c>
+      <c r="D272" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B273" s="3">
+        <v>8</v>
+      </c>
+      <c r="D273" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B274" s="3">
+        <v>8</v>
+      </c>
+      <c r="D274" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D275" s="4">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11305,7 +11953,7 @@
     </row>
     <row r="450" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
-        <f t="shared" ref="A450:A513" si="7">B450-C450</f>
+        <f t="shared" ref="A450:A500" si="7">B450-C450</f>
         <v>0</v>
       </c>
     </row>
@@ -11638,11 +12286,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE44AF1-E9EF-434A-BFBF-13A6CD5A8721}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11652,13 +12300,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11666,21 +12314,21 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <f>SUMIF(logs!H:H,汇总表!A2,logs!A:A)</f>
-        <v>456</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A2,logs!A:A)</f>
+        <v>481</v>
       </c>
       <c r="C2">
-        <f>SUM(B:B)</f>
-        <v>1742</v>
+        <f ca="1">SUM(B:B)</f>
+        <v>1894</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B3">
-        <f>SUMIF(logs!H:H,汇总表!A3,logs!A:A)</f>
-        <v>272</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A3,logs!A:A)</f>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11688,8 +12336,8 @@
         <v>93</v>
       </c>
       <c r="B4">
-        <f>SUMIF(logs!H:H,汇总表!A4,logs!A:A)</f>
-        <v>101</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A4,logs!A:A)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11697,7 +12345,7 @@
         <v>86</v>
       </c>
       <c r="B5">
-        <f>SUMIF(logs!H:H,汇总表!A5,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A5,logs!A:A)</f>
         <v>18</v>
       </c>
     </row>
@@ -11706,79 +12354,79 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <f>SUMIF(logs!H:H,汇总表!A6,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A6,logs!A:A)</f>
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7">
-        <f>SUMIF(logs!H:H,汇总表!A7,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A7,logs!A:A)</f>
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B8">
-        <f>SUMIF(logs!H:H,汇总表!A8,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A8,logs!A:A)</f>
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B9">
-        <f>SUMIF(logs!H:H,汇总表!A9,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B10">
-        <f>SUMIF(logs!H:H,汇总表!A10,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A10,logs!A:A)</f>
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B11">
-        <f>SUMIF(logs!H:H,汇总表!A11,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A11,logs!A:A)</f>
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B12">
-        <f>SUMIF(logs!H:H,汇总表!A12,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A12,logs!A:A)</f>
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B13">
-        <f>SUMIF(logs!H:H,汇总表!A13,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A13,logs!A:A)</f>
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B14">
-        <f>SUMIF(logs!H:H,汇总表!A14,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A14,logs!A:A)</f>
         <v>6</v>
       </c>
     </row>
@@ -11787,34 +12435,34 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <f>SUMIF(logs!H:H,汇总表!A15,logs!A:A)</f>
-        <v>29</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A15,logs!A:A)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16">
-        <f>SUMIF(logs!H:H,汇总表!A16,logs!A:A)</f>
-        <v>44</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A16,logs!A:A)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B17">
-        <f>SUMIF(logs!H:H,汇总表!A17,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A17,logs!A:A)</f>
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B18">
-        <f>SUMIF(logs!H:H,汇总表!A18,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A18,logs!A:A)</f>
         <v>7</v>
       </c>
     </row>
@@ -11823,16 +12471,16 @@
         <v>60</v>
       </c>
       <c r="B19">
-        <f>SUMIF(logs!H:H,汇总表!A19,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A19,logs!A:A)</f>
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B20">
-        <f>SUMIF(logs!H:H,汇总表!A20,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A20,logs!A:A)</f>
         <v>7</v>
       </c>
     </row>
@@ -11841,52 +12489,52 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <f>SUMIF(logs!H:H,汇总表!A21,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A21,logs!A:A)</f>
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>582</v>
+        <v>397</v>
       </c>
       <c r="B22">
-        <f>SUMIF(logs!H:H,汇总表!A22,logs!A:A)</f>
-        <v>7</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A22,logs!A:A)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B23">
-        <f>SUMIF(logs!H:H,汇总表!A23,logs!A:A)</f>
-        <v>7</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A23,logs!A:A)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="B24">
-        <f>SUMIF(logs!H:H,汇总表!A24,logs!A:A)</f>
-        <v>51</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A24,logs!A:A)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B25">
-        <f>SUMIF(logs!H:H,汇总表!A25,logs!A:A)</f>
-        <v>25</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A25,logs!A:A)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B26">
-        <f>SUMIF(logs!H:H,汇总表!A26,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A26,logs!A:A)</f>
         <v>31</v>
       </c>
     </row>
@@ -11895,93 +12543,120 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <f>SUMIF(logs!H:H,汇总表!A27,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A27,logs!A:A)</f>
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B28">
-        <f>SUMIF(logs!H:H,汇总表!A28,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A28,logs!A:A)</f>
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B29">
-        <f>SUMIF(logs!H:H,汇总表!A29,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A29,logs!A:A)</f>
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B30">
-        <f>SUMIF(logs!H:H,汇总表!A30,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A30,logs!A:A)</f>
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B31">
-        <f>SUMIF(logs!H:H,汇总表!A31,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A31,logs!A:A)</f>
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B32">
-        <f>SUMIF(logs!H:H,汇总表!A32,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A32,logs!A:A)</f>
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B33">
-        <f>SUMIF(logs!H:H,汇总表!A33,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A33,logs!A:A)</f>
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B34">
-        <f>SUMIF(logs!H:H,汇总表!A34,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A34,logs!A:A)</f>
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B35">
-        <f>SUMIF(logs!H:H,汇总表!A35,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A35,logs!A:A)</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B36">
-        <f>SUMIF(logs!H:H,汇总表!A36,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A36,logs!A:A)</f>
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>751</v>
+      </c>
+      <c r="B37">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A37,logs!A:A)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>755</v>
+      </c>
+      <c r="B38">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A38,logs!A:A)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>785</v>
+      </c>
+      <c r="B39">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A39,logs!A:A)</f>
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{8157A2F3-CF3A-4289-8B5C-3C605C448C06}"/>
+  <autoFilter ref="A1:C1" xr:uid="{8375E566-3254-4E6F-88D1-7508F7A4D64C}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C709575-FBA6-47B8-A1A7-67F3372F9ED9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A092A3BA-9C2D-4928-BD4F-4CABFC2ACFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="865">
   <si>
     <t>Date</t>
   </si>
@@ -654,11 +654,6 @@
     <t>java SPI?拓展点？</t>
   </si>
   <si>
-    <t>就是接口，然后通过实现接口，再通过文件配置，java允许不同的实现这样子。拓展点或者比较低耦合的实现可以这样子做，但这种多半属于偏底层的分流；继承那种实现更多的是更高层的实现样子。dubbo和jdbc都用的这个。由于是java的机制，和框架无关
-https://www.cnblogs.com/jy107600/p/11464985.html，
-https://www.jianshu.com/p/3a3edbcd8f24</t>
-  </si>
-  <si>
     <t>历史？原理？实践下？也看下优缺点</t>
   </si>
   <si>
@@ -1520,10 +1515,6 @@
   </si>
   <si>
     <t>java的函数式编程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习下lambda的各种方式，尤其是Function等的学习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3532,6 +3523,287 @@
 https://blog.csdn.net/Z__Sheng/article/details/93485347
 https://blog.csdn.net/newbie_907486852/article/details/81391525
 多数据源配置：https://blog.csdn.net/linkingfei/article/details/94407142</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunWith注解的使用啥的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解下springboot使用；重点关注下启动过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整体不熟悉；RunWith这个注解挺不错的，直观，好用，测试和启动项都有
+https://blog.csdn.net/weixin_43671497/article/details/90543225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP中post和put的区别？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术上没啥区别，语义上有；
+http认为是url资源，所以put是直接把资源放进去；幂等；
+post的场景更多，非幂等
+https://www.zhihu.com/question/48482736</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function类的创建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用lambda表达式可以很优雅的创建，注意看Function的定义，就能理解入参出参的关系和构造器的关系了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java泛型方法调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型方法的定义和调用，简直都是异类，不知道为啥这样子写
+调用是ResultBuilder.&lt;User&gt;doubleUser()，泛型在点的后面…
+https://segmentfault.com/q/1010000012866624?sort=created</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由requestBody想到的事情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、requestBody是spring的，允许从http请求参数体重取值
+2、get和post技术上没有限制参数传递方式，之前有一篇文章也讲过：https://zhuanlan.zhihu.com/p/22536382；
+3、比较通用的用法是get用requestParam，HttpServletRequest，post用requestBody等https://blog.csdn.net/qfikh/article/details/88553603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以了解下requestbody的原理https://www.cnblogs.com/wyq1995/p/11870220.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/octet-stream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot的AutoConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于springFramework的支撑，实现各种自动化配置；
+Enable系列注解不是boot引入的，多通过import注解引入功能实现（？）
+在springboot的包中，有大量Configure类
+https://www.cnblogs.com/leihuazhe/p/7743479.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import注解的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似xml中&lt;import&gt;标签的能力，但有几种使用场景;https://www.jianshu.com/p/56d4cadbe5c9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习下lambda的各种方式，尤其是Function等的学习
+极客的https://time.geekbang.org/column/article/256862以及后续的高级使用
+理解java是面向对象的，但是引入了lambda来实现部分的函数式编程；
+函数式是函数式一等公民，函数之间组合调用等等
+lambda是lambda验算来的
+java的函数式接口一大堆：https://www.runoob.com/java/java8-functional-interfaces.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm设置fullgc之后dump到文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置dump参数https://blog.csdn.net/jeff_fangji/article/details/43973745</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurrentModificationException出现以及解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代遍历的时候，如果同步对集合做元素的增减，会出现这个异常
+修改的话，分多线程单线程情况，理论上比较直观的解决方式就是加锁，synchronized
+https://blog.csdn.net/u013394527/article/details/80551842
+https://www.cnblogs.com/zhuyeshen/p/10956822.html
+https://www.cnblogs.com/lukelook/p/9946065.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转义字符常识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\开头这样子
+https://www.cnblogs.com/lukelook/p/9946065.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的between的开闭问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统的核心线程数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime.getRuntime().availableProcessors()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java中把多个数据合并处理等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatmap，reduce学习了解下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是防呆提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过设计，让人在操作使用的时候很直观，很难出错
+https://baike.baidu.com/item/%E9%98%B2%E5%91%86/2610192?fr=aladdin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java的charAt方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string的方法，返回位于索引的字符，索引是0-(n-1)的范围
+https://www.runoob.com/java/java-string-charat.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>where 标记会自动将其后第一个条件的and或者是or给忽略掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的where标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务中标记readonly的作用？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记事务是只读事务，只是读数据的事务；https://blog.csdn.net/andyzhaojianhui/article/details/51984157
+标记后，有可能会对此进行优化，开销减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>readtree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向spring容器动态注册代码，BeanDefinitionBuilder.genericBeanDefinition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考http://fetosoft.cn/archives/2020/06/04/208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java的反射和使用，谨慎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class.forName引来的，系统学习下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向接口编程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是接口，然后通过实现接口，再通过文件配置，java允许不同的实现这样子。拓展点或者比较低耦合的实现可以这样子做，但这种多半属于偏底层的分流；继承那种实现更多的是更高层的实现样子。dubbo和jdbc都用的这个。由于是java的机制，和框架无关
+https://www.cnblogs.com/jy107600/p/11464985.html，
+https://www.jianshu.com/p/3a3edbcd8f24
+serviceLoader来实现这块内容的，https://www.cnblogs.com/aspirant/p/10616704.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel的百分比公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考"本月利润完成率为"&amp;TEXT(C2/B2,"0%")
+https://www.pdftodoc.cn/news-1629.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御式编程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuppressWarnings的正确使用方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑制警告对代码工具的提示的影响
+https://www.cnblogs.com/unknows/p/10261292.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁fullgc排查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个思路：https://blog.csdn.net/wangshuminjava/article/details/80907129</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4357,8 +4629,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3575050" y="1314450"/>
-              <a:ext cx="4572000" cy="2695575"/>
+              <a:off x="2892425" y="1339850"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4656,9 +4928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4674,13 +4946,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -4698,7 +4970,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4723,7 +4995,7 @@
         <v>128</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4739,16 +5011,16 @@
         <v>44327</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,19 +5036,19 @@
         <v>44327</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4797,7 +5069,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4845,7 +5117,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4893,7 +5165,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4917,7 +5189,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4941,7 +5213,7 @@
         <v>73</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4959,13 +5231,13 @@
         <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,7 +5306,7 @@
         <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5049,13 +5321,13 @@
         <v>44362</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,13 +5342,13 @@
         <v>44439</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5092,13 +5364,13 @@
         <v>44293</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,13 +5386,13 @@
         <v>44293</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5136,13 +5408,13 @@
         <v>44293</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5158,13 +5430,13 @@
         <v>44293</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5179,10 +5451,10 @@
         <v>44295</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,13 +5469,13 @@
         <v>44295</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5218,13 +5490,13 @@
         <v>44295</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5251,7 +5523,7 @@
         <v>108</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5266,16 +5538,16 @@
         <v>44298</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5302,7 +5574,7 @@
         <v>114</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5317,13 +5589,13 @@
         <v>44298</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5338,13 +5610,13 @@
         <v>44298</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,13 +5631,13 @@
         <v>44298</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5380,13 +5652,13 @@
         <v>44298</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5401,16 +5673,16 @@
         <v>44298</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5425,13 +5697,13 @@
         <v>44302</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5446,13 +5718,13 @@
         <v>44302</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,10 +5739,10 @@
         <v>44302</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5485,16 +5757,16 @@
         <v>44302</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5509,16 +5781,16 @@
         <v>44302</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5533,16 +5805,16 @@
         <v>44302</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5557,16 +5829,16 @@
         <v>44302</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5581,16 +5853,16 @@
         <v>44305</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5605,16 +5877,16 @@
         <v>44305</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5638,7 +5910,7 @@
         <v>117</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5653,13 +5925,13 @@
         <v>44306</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5683,7 +5955,7 @@
         <v>120</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5698,13 +5970,13 @@
         <v>44309</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5720,10 +5992,10 @@
         <v>44311</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5739,10 +6011,10 @@
         <v>44311</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5758,13 +6030,13 @@
         <v>44312</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5783,7 +6055,7 @@
         <v>129</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5808,7 +6080,7 @@
         <v>132</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5833,7 +6105,7 @@
         <v>135</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5849,13 +6121,13 @@
         <v>44315</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5871,13 +6143,13 @@
         <v>44315</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5893,16 +6165,16 @@
         <v>44315</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5918,16 +6190,16 @@
         <v>44315</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5943,16 +6215,16 @@
         <v>44315</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5977,7 +6249,7 @@
         <v>123</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5993,16 +6265,16 @@
         <v>44323</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6018,16 +6290,16 @@
         <v>44323</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6043,16 +6315,16 @@
         <v>44323</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6068,16 +6340,16 @@
         <v>44323</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H61" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6093,16 +6365,16 @@
         <v>44323</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6118,16 +6390,16 @@
         <v>44323</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="H63" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6143,16 +6415,16 @@
         <v>44323</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6168,16 +6440,16 @@
         <v>44323</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6199,7 +6471,7 @@
         <v>125</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6226,7 +6498,7 @@
         <v>111</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6242,16 +6514,16 @@
         <v>44326</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6267,16 +6539,16 @@
         <v>44326</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6292,16 +6564,16 @@
         <v>44326</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6317,16 +6589,16 @@
         <v>44326</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6342,16 +6614,16 @@
         <v>44334</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6367,16 +6639,16 @@
         <v>44337</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="H73" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6392,16 +6664,16 @@
         <v>44337</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="H74" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6417,16 +6689,16 @@
         <v>44337</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6442,16 +6714,16 @@
         <v>44337</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="H76" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6467,16 +6739,16 @@
         <v>44337</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="H77" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6492,16 +6764,16 @@
         <v>44337</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6526,7 +6798,7 @@
         <v>138</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6545,13 +6817,13 @@
         <v>139</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="H80" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6567,16 +6839,16 @@
         <v>44357</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="H81" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6592,13 +6864,13 @@
         <v>44357</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6614,13 +6886,13 @@
         <v>44357</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6636,16 +6908,16 @@
         <v>44357</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H84" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6661,16 +6933,16 @@
         <v>44357</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H85" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,16 +6958,16 @@
         <v>44357</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="H86" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6711,16 +6983,16 @@
         <v>44357</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6736,16 +7008,16 @@
         <v>44357</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="H88" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6761,13 +7033,13 @@
         <v>44357</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6782,16 +7054,16 @@
         <v>44362</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="H90" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6806,16 +7078,16 @@
         <v>44362</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6839,7 +7111,7 @@
         <v>7</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6911,7 +7183,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6932,7 +7204,7 @@
         <v>12</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6956,7 +7228,7 @@
         <v>31</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7052,7 +7324,7 @@
         <v>25</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7097,7 +7369,7 @@
         <v>41</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7118,7 +7390,7 @@
         <v>22</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7166,7 +7438,7 @@
         <v>48</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7211,7 +7483,7 @@
         <v>102</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,7 +7507,7 @@
         <v>83</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7343,7 +7615,7 @@
         <v>89</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7367,7 +7639,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7382,13 +7654,13 @@
         <v>44396</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>35</v>
@@ -7406,13 +7678,13 @@
         <v>44396</v>
       </c>
       <c r="E117" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>35</v>
@@ -7430,13 +7702,13 @@
         <v>44396</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>35</v>
@@ -7454,13 +7726,13 @@
         <v>44396</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="G119" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>93</v>
@@ -7478,16 +7750,16 @@
         <v>44396</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="G120" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7502,16 +7774,16 @@
         <v>44396</v>
       </c>
       <c r="E121" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="H121" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7526,13 +7798,13 @@
         <v>44396</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>35</v>
@@ -7550,16 +7822,16 @@
         <v>44396</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7574,16 +7846,16 @@
         <v>44396</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="H124" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7598,16 +7870,16 @@
         <v>44396</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="H125" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7622,16 +7894,16 @@
         <v>44396</v>
       </c>
       <c r="E126" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="H126" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7646,13 +7918,13 @@
         <v>44396</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>35</v>
@@ -7670,13 +7942,13 @@
         <v>44397</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>35</v>
@@ -7694,16 +7966,16 @@
         <v>44397</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="H129" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7718,16 +7990,16 @@
         <v>44397</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="H130" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7742,16 +8014,16 @@
         <v>44397</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="H131" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,13 +8038,13 @@
         <v>44399</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>39</v>
@@ -7790,13 +8062,13 @@
         <v>44399</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>60</v>
@@ -7814,10 +8086,10 @@
         <v>44399</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>366</v>
+        <v>824</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>35</v>
@@ -7835,13 +8107,13 @@
         <v>44399</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>39</v>
@@ -7859,10 +8131,10 @@
         <v>44399</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>39</v>
@@ -7880,16 +8152,16 @@
         <v>44399</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7904,13 +8176,13 @@
         <v>44399</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7925,16 +8197,16 @@
         <v>44399</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="H139" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7949,16 +8221,16 @@
         <v>44399</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7973,13 +8245,13 @@
         <v>44399</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7994,16 +8266,16 @@
         <v>44399</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="G142" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G142" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="H142" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8018,10 +8290,10 @@
         <v>44400</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8036,16 +8308,16 @@
         <v>44406</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8060,16 +8332,16 @@
         <v>44406</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="H145" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8084,13 +8356,13 @@
         <v>44406</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8105,16 +8377,16 @@
         <v>44406</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8129,13 +8401,13 @@
         <v>44406</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8150,13 +8422,13 @@
         <v>44406</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="G149" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>39</v>
@@ -8174,13 +8446,13 @@
         <v>44406</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8195,16 +8467,16 @@
         <v>44406</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="H151" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8219,16 +8491,16 @@
         <v>44406</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="H152" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8243,10 +8515,10 @@
         <v>44406</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8261,16 +8533,16 @@
         <v>44406</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="H154" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8285,16 +8557,16 @@
         <v>44406</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="H155" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8309,16 +8581,16 @@
         <v>44418</v>
       </c>
       <c r="E156" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="H156" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8333,13 +8605,13 @@
         <v>44418</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8354,13 +8626,13 @@
         <v>44418</v>
       </c>
       <c r="E158" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>39</v>
@@ -8369,19 +8641,22 @@
     <row r="159" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B159" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" s="4">
         <v>44418</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>442</v>
+      <c r="E159" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8396,16 +8671,16 @@
         <v>44418</v>
       </c>
       <c r="E160" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="H160" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8420,13 +8695,13 @@
         <v>44418</v>
       </c>
       <c r="E161" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H161" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8441,13 +8716,13 @@
         <v>44418</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8462,16 +8737,16 @@
         <v>44418</v>
       </c>
       <c r="E163" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H163" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8486,13 +8761,13 @@
         <v>44418</v>
       </c>
       <c r="E164" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>35</v>
@@ -8510,13 +8785,13 @@
         <v>44418</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8531,16 +8806,16 @@
         <v>44418</v>
       </c>
       <c r="E166" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="H166" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8555,16 +8830,16 @@
         <v>44418</v>
       </c>
       <c r="E167" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="H167" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8579,13 +8854,13 @@
         <v>44418</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8600,13 +8875,13 @@
         <v>44418</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>16</v>
@@ -8624,16 +8899,16 @@
         <v>44418</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="G170" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8648,16 +8923,16 @@
         <v>44418</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="H171" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8672,10 +8947,10 @@
         <v>44418</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>35</v>
@@ -8693,16 +8968,16 @@
         <v>44418</v>
       </c>
       <c r="E173" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="H173" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,13 +8992,13 @@
         <v>44418</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8738,13 +9013,13 @@
         <v>44418</v>
       </c>
       <c r="E175" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H175" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8759,16 +9034,16 @@
         <v>44420</v>
       </c>
       <c r="E176" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="H176" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8783,16 +9058,16 @@
         <v>44420</v>
       </c>
       <c r="E177" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="H177" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8807,16 +9082,16 @@
         <v>44420</v>
       </c>
       <c r="E178" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="H178" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,16 +9106,16 @@
         <v>44420</v>
       </c>
       <c r="E179" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="G179" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8855,16 +9130,16 @@
         <v>44420</v>
       </c>
       <c r="E180" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="G180" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8879,13 +9154,13 @@
         <v>44420</v>
       </c>
       <c r="E181" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H181" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8900,16 +9175,16 @@
         <v>44420</v>
       </c>
       <c r="E182" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="H182" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8924,13 +9199,13 @@
         <v>44424</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>39</v>
@@ -8948,10 +9223,10 @@
         <v>44424</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8966,13 +9241,13 @@
         <v>44424</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8987,13 +9262,13 @@
         <v>44425</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9008,13 +9283,13 @@
         <v>44427</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9029,16 +9304,16 @@
         <v>44427</v>
       </c>
       <c r="E188" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="H188" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9053,16 +9328,16 @@
         <v>44427</v>
       </c>
       <c r="E189" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="H189" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9077,13 +9352,13 @@
         <v>44427</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9098,16 +9373,16 @@
         <v>44427</v>
       </c>
       <c r="E191" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H191" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,13 +9397,13 @@
         <v>44427</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9143,10 +9418,10 @@
         <v>44427</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>16</v>
@@ -9164,13 +9439,13 @@
         <v>44428</v>
       </c>
       <c r="E194" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H194" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9185,10 +9460,10 @@
         <v>44428</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>16</v>
@@ -9206,13 +9481,13 @@
         <v>44428</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9227,13 +9502,13 @@
         <v>44428</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9248,13 +9523,13 @@
         <v>44428</v>
       </c>
       <c r="E198" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H198" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9269,13 +9544,13 @@
         <v>44428</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9290,13 +9565,13 @@
         <v>44428</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H200" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9311,16 +9586,16 @@
         <v>44432</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G201" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="H201" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9335,16 +9610,16 @@
         <v>44432</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="H202" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9359,16 +9634,16 @@
         <v>44432</v>
       </c>
       <c r="E203" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H203" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9383,16 +9658,16 @@
         <v>44432</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>616</v>
-      </c>
       <c r="H204" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9407,13 +9682,13 @@
         <v>44432</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H205" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9428,13 +9703,13 @@
         <v>44432</v>
       </c>
       <c r="E206" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H206" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9449,13 +9724,13 @@
         <v>44432</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9470,16 +9745,16 @@
         <v>44432</v>
       </c>
       <c r="E208" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G208" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F208" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="H208" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9494,13 +9769,13 @@
         <v>44432</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9515,13 +9790,13 @@
         <v>44432</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9539,13 +9814,13 @@
         <v>44432</v>
       </c>
       <c r="E211" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F211" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="H211" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9560,16 +9835,16 @@
         <v>44433</v>
       </c>
       <c r="E212" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G212" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F212" s="3" t="s">
+      <c r="H212" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9584,16 +9859,16 @@
         <v>44433</v>
       </c>
       <c r="E213" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G213" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="H213" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9608,13 +9883,13 @@
         <v>44433</v>
       </c>
       <c r="E214" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H214" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9629,13 +9904,13 @@
         <v>44433</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H215" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9650,10 +9925,10 @@
         <v>44434</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9668,16 +9943,16 @@
         <v>44434</v>
       </c>
       <c r="E217" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G217" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F217" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="H217" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9692,16 +9967,16 @@
         <v>44434</v>
       </c>
       <c r="E218" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G218" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F218" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="H218" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9716,13 +9991,13 @@
         <v>44434</v>
       </c>
       <c r="E219" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="H219" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9737,16 +10012,16 @@
         <v>44434</v>
       </c>
       <c r="E220" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="H220" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="H220" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9761,10 +10036,10 @@
         <v>44434</v>
       </c>
       <c r="E221" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="H221" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9779,13 +10054,13 @@
         <v>44434</v>
       </c>
       <c r="E222" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H222" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9800,16 +10075,16 @@
         <v>44434</v>
       </c>
       <c r="E223" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G223" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>676</v>
-      </c>
       <c r="H223" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9824,13 +10099,13 @@
         <v>44434</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9845,13 +10120,13 @@
         <v>44434</v>
       </c>
       <c r="E225" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H225" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9866,16 +10141,16 @@
         <v>44434</v>
       </c>
       <c r="E226" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="H226" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="H226" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9890,13 +10165,13 @@
         <v>44434</v>
       </c>
       <c r="E227" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F227" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>667</v>
-      </c>
       <c r="H227" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9911,13 +10186,13 @@
         <v>44440</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9932,13 +10207,13 @@
         <v>44442</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9953,13 +10228,13 @@
         <v>44442</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9974,13 +10249,13 @@
         <v>44442</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9995,16 +10270,16 @@
         <v>44442</v>
       </c>
       <c r="E232" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="G232" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>691</v>
-      </c>
       <c r="H232" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10019,13 +10294,13 @@
         <v>44442</v>
       </c>
       <c r="E233" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H233" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10040,13 +10315,13 @@
         <v>44442</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10061,13 +10336,13 @@
         <v>44442</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10082,13 +10357,13 @@
         <v>44442</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10103,13 +10378,13 @@
         <v>44442</v>
       </c>
       <c r="E237" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H237" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="H237" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10124,13 +10399,13 @@
         <v>44442</v>
       </c>
       <c r="E238" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F238" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="F238" s="13" t="s">
-        <v>708</v>
-      </c>
       <c r="H238" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10145,13 +10420,13 @@
         <v>44442</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10166,13 +10441,13 @@
         <v>44442</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10187,13 +10462,13 @@
         <v>44442</v>
       </c>
       <c r="E241" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="H241" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="H241" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10208,13 +10483,13 @@
         <v>44442</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10229,13 +10504,13 @@
         <v>44442</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10250,13 +10525,13 @@
         <v>44442</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10271,13 +10546,13 @@
         <v>44442</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10292,13 +10567,13 @@
         <v>44442</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10313,13 +10588,13 @@
         <v>44442</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10334,13 +10609,13 @@
         <v>44442</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10355,13 +10630,13 @@
         <v>44442</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10376,13 +10651,13 @@
         <v>44442</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10397,13 +10672,13 @@
         <v>44445</v>
       </c>
       <c r="E251" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="H251" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10418,13 +10693,13 @@
         <v>44452</v>
       </c>
       <c r="E252" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H252" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="H252" s="3" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10439,13 +10714,13 @@
         <v>44452</v>
       </c>
       <c r="E253" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="F253" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F253" s="3" t="s">
-        <v>746</v>
-      </c>
       <c r="H253" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10460,13 +10735,13 @@
         <v>44452</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10481,13 +10756,13 @@
         <v>44452</v>
       </c>
       <c r="E255" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H255" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10502,13 +10777,13 @@
         <v>44452</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F256" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H256" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10523,13 +10798,13 @@
         <v>44452</v>
       </c>
       <c r="E257" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F257" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="F257" s="3" t="s">
-        <v>758</v>
-      </c>
       <c r="H257" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10544,13 +10819,13 @@
         <v>44452</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10565,13 +10840,13 @@
         <v>44452</v>
       </c>
       <c r="E259" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F259" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F259" s="3" t="s">
-        <v>763</v>
-      </c>
       <c r="H259" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10586,10 +10861,10 @@
         <v>44452</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10604,13 +10879,13 @@
         <v>44452</v>
       </c>
       <c r="E261" s="14" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10625,13 +10900,13 @@
         <v>44452</v>
       </c>
       <c r="E262" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H262" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10646,13 +10921,13 @@
         <v>44452</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10667,13 +10942,13 @@
         <v>44452</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10688,16 +10963,16 @@
         <v>44452</v>
       </c>
       <c r="E265" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G265" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="F265" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>776</v>
-      </c>
       <c r="H265" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10712,13 +10987,13 @@
         <v>44452</v>
       </c>
       <c r="E266" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F266" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="F266" s="3" t="s">
-        <v>779</v>
-      </c>
       <c r="H266" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10736,13 +11011,13 @@
         <v>44452</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F267" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H267" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="H267" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10757,13 +11032,13 @@
         <v>44452</v>
       </c>
       <c r="E268" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F268" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F268" s="3" t="s">
-        <v>786</v>
-      </c>
       <c r="H268" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10778,16 +11053,16 @@
         <v>44452</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10802,13 +11077,13 @@
         <v>44452</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10823,16 +11098,16 @@
         <v>44452</v>
       </c>
       <c r="E271" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="F271" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="F271" s="3" t="s">
-        <v>794</v>
-      </c>
       <c r="H271" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10847,16 +11122,16 @@
         <v>44452</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10868,16 +11143,16 @@
         <v>44452</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10889,193 +11164,577 @@
         <v>44452</v>
       </c>
       <c r="E274" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="F274" s="3" t="s">
-        <v>801</v>
-      </c>
       <c r="H274" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B275" s="3">
+        <v>7</v>
       </c>
       <c r="D275" s="4">
-        <v>44452</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44453</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B276" s="3">
+        <v>6</v>
+      </c>
+      <c r="D276" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B277" s="3">
+        <v>7</v>
+      </c>
+      <c r="D277" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B278" s="3">
+        <v>8</v>
+      </c>
+      <c r="D278" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B279" s="3">
+        <v>10</v>
+      </c>
+      <c r="D279" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B280" s="3">
+        <v>4</v>
+      </c>
+      <c r="D280" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B281" s="3">
+        <v>10</v>
+      </c>
+      <c r="D281" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B282" s="3">
+        <v>6</v>
+      </c>
+      <c r="D282" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B283" s="3">
+        <v>6</v>
+      </c>
+      <c r="D283" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B284" s="3">
+        <v>8</v>
+      </c>
+      <c r="D284" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B285" s="3">
+        <v>8</v>
+      </c>
+      <c r="D285" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B286" s="3">
+        <v>10</v>
+      </c>
+      <c r="D286" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B287" s="3">
+        <v>8</v>
+      </c>
+      <c r="D287" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B288" s="3">
+        <v>10</v>
+      </c>
+      <c r="D288" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B289" s="3">
+        <v>6</v>
+      </c>
+      <c r="D289" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B290" s="3">
+        <v>6</v>
+      </c>
+      <c r="D290" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B291" s="3">
+        <v>8</v>
+      </c>
+      <c r="D291" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B292" s="3">
+        <v>8</v>
+      </c>
+      <c r="D292" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B293" s="3">
+        <v>6</v>
+      </c>
+      <c r="D293" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B294" s="3">
+        <v>8</v>
+      </c>
+      <c r="D294" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B295" s="3">
+        <v>8</v>
+      </c>
+      <c r="D295" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B296" s="3">
+        <v>5</v>
+      </c>
+      <c r="D296" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B297" s="3">
+        <v>5</v>
+      </c>
+      <c r="D297" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B298" s="3">
+        <v>7</v>
+      </c>
+      <c r="D298" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B299" s="3">
+        <v>5</v>
+      </c>
+      <c r="D299" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12286,11 +12945,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE44AF1-E9EF-434A-BFBF-13A6CD5A8721}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12300,13 +12959,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -12315,20 +12974,20 @@
       </c>
       <c r="B2">
         <f ca="1">SUMIF(logs!H:I,汇总表!A2,logs!A:A)</f>
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="C2">
         <f ca="1">SUM(B:B)</f>
-        <v>1894</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B3">
         <f ca="1">SUMIF(logs!H:I,汇总表!A3,logs!A:A)</f>
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12355,12 +13014,12 @@
       </c>
       <c r="B6">
         <f ca="1">SUMIF(logs!H:I,汇总表!A6,logs!A:A)</f>
-        <v>181</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7">
         <f ca="1">SUMIF(logs!H:I,汇总表!A7,logs!A:A)</f>
@@ -12369,7 +13028,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B8">
         <f ca="1">SUMIF(logs!H:I,汇总表!A8,logs!A:A)</f>
@@ -12378,16 +13037,16 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B9">
         <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B10">
         <f ca="1">SUMIF(logs!H:I,汇总表!A10,logs!A:A)</f>
@@ -12396,7 +13055,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B11">
         <f ca="1">SUMIF(logs!H:I,汇总表!A11,logs!A:A)</f>
@@ -12405,7 +13064,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B12">
         <f ca="1">SUMIF(logs!H:I,汇总表!A12,logs!A:A)</f>
@@ -12414,7 +13073,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B13">
         <f ca="1">SUMIF(logs!H:I,汇总表!A13,logs!A:A)</f>
@@ -12423,7 +13082,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B14">
         <f ca="1">SUMIF(logs!H:I,汇总表!A14,logs!A:A)</f>
@@ -12441,7 +13100,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16">
         <f ca="1">SUMIF(logs!H:I,汇总表!A16,logs!A:A)</f>
@@ -12450,7 +13109,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B17">
         <f ca="1">SUMIF(logs!H:I,汇总表!A17,logs!A:A)</f>
@@ -12459,7 +13118,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B18">
         <f ca="1">SUMIF(logs!H:I,汇总表!A18,logs!A:A)</f>
@@ -12477,7 +13136,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B20">
         <f ca="1">SUMIF(logs!H:I,汇总表!A20,logs!A:A)</f>
@@ -12495,16 +13154,16 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B22">
         <f ca="1">SUMIF(logs!H:I,汇总表!A22,logs!A:A)</f>
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B23">
         <f ca="1">SUMIF(logs!H:I,汇总表!A23,logs!A:A)</f>
@@ -12513,7 +13172,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B24">
         <f ca="1">SUMIF(logs!H:I,汇总表!A24,logs!A:A)</f>
@@ -12522,7 +13181,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B25">
         <f ca="1">SUMIF(logs!H:I,汇总表!A25,logs!A:A)</f>
@@ -12531,11 +13190,11 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B26">
         <f ca="1">SUMIF(logs!H:I,汇总表!A26,logs!A:A)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -12549,7 +13208,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B28">
         <f ca="1">SUMIF(logs!H:I,汇总表!A28,logs!A:A)</f>
@@ -12558,7 +13217,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B29">
         <f ca="1">SUMIF(logs!H:I,汇总表!A29,logs!A:A)</f>
@@ -12567,16 +13226,16 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B30">
         <f ca="1">SUMIF(logs!H:I,汇总表!A30,logs!A:A)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B31">
         <f ca="1">SUMIF(logs!H:I,汇总表!A31,logs!A:A)</f>
@@ -12585,7 +13244,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B32">
         <f ca="1">SUMIF(logs!H:I,汇总表!A32,logs!A:A)</f>
@@ -12594,16 +13253,16 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B33">
         <f ca="1">SUMIF(logs!H:I,汇总表!A33,logs!A:A)</f>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B34">
         <f ca="1">SUMIF(logs!H:I,汇总表!A34,logs!A:A)</f>
@@ -12612,7 +13271,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B35">
         <f ca="1">SUMIF(logs!H:I,汇总表!A35,logs!A:A)</f>
@@ -12621,7 +13280,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B36">
         <f ca="1">SUMIF(logs!H:I,汇总表!A36,logs!A:A)</f>
@@ -12630,16 +13289,16 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B37">
         <f ca="1">SUMIF(logs!H:I,汇总表!A37,logs!A:A)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B38">
         <f ca="1">SUMIF(logs!H:I,汇总表!A38,logs!A:A)</f>
@@ -12648,11 +13307,20 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B39">
         <f ca="1">SUMIF(logs!H:I,汇总表!A39,logs!A:A)</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>805</v>
+      </c>
+      <c r="B40">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A40,logs!A:A)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15227FCE-D242-44DA-B16F-576C7FA7A87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20000" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$A$1:$H$501</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表!$A$1:$C$40</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">汇总表!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">汇总表!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">汇总表!$B$2:$B$33</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="831">
   <si>
     <t>权重</t>
   </si>
@@ -2914,18 +2917,200 @@
   <si>
     <t>java日志体系</t>
   </si>
+  <si>
+    <t>sonarlint做代码规范审查啥的，怎么用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考：https://www.cnblogs.com/cjsblog/p/10735800.html
+https://www.sonarlint.org/
+反正查出来什么东西的话，不懂含义的直接在官网查意思吧https://rules.sonarsource.com/java</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求使用java去抓取html的数据内容，怎么搞？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是DDOS攻击，怎么防范？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class.cast()是干啥的？Class方法都有哪些常用的功能？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已知的是：https://blog.csdn.net/axzsd/article/details/79206172；要看下源码
+Class的，是不是系统学习一下反射</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式是啥？怎么用？搞一下</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以参考https://segmentfault.com/a/1190000039287384</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的force index和ignore index怎么用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL的执行计划怎么看，细致看下</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream转set转的是Set&lt;&gt;,怎么转成HashSet？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Collector层面可以转HashSet::new，也可以在转出来之后，通过hashSet强转（从源码来看，是HashSet的实现）https://blog.csdn.net/qq_39629277/article/details/83108585</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解@RequestParam的使用方法、场景？不使用注解的话，是怎么接受http请求参数的？？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>java的compareTo方法，结果的0和1是怎么规定的？Comparator怎么写？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string参考https://www.runoob.com/java/java-string-compareto.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP报文是啥样的？通过这个怎么理解http请求?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考https://time.geekbang.org/column/article/100513</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring的事务和数据库事务的关系？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上是一个东西，使用注解只是会自动生成相关的代码，还需要继续看下https://www.zhihu.com/question/315000395/answer/619078257</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用github pages搭建博客</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考谐哥给的：https://hexo.io/zh-cn/docs/github-pages</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http的调用，显示cors，是啥？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨域了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、第一反应是找个第三方包来
+2、找到jsoup，https://jsoup.org/cookbook/extracting-data/attributes-text-html；https://github.com/jhy/jsoup/
+3、搭配fastjson，能完成业务所需了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>git的fetch每次拉其他分支好麻烦，有没有简单的做法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前的操作是git fetch origin fenzhi:fenzhi,git checkout fenzhi;git branch --set-upstream-to=origin/fenzhi fenzhi;
+似乎可以等同于git pull origin fenzhi:fenzhi
+https://www.cnblogs.com/runnerjack/p/9342362.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cron彻底学习下，见到就能翻译出来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件概念</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis链接问题，报错ERR Client sent AUTH, but no password is set</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有密码，但是链接中的password写的是有值的，导致这个报错
+https://blog.csdn.net/quanaianzj/article/details/84621743</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>slf4j的getLogger的学习</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2969,150 +3154,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3121,7 +3191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3143,194 +3213,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3338,251 +3222,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3625,60 +3270,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3695,12 +3298,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3714,9 +3320,15 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3725,58 +3337,6 @@
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2701290" y="1149985"/>
-          <a:ext cx="4297680" cy="2343150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:prstClr val="white"/>
-        </a:solidFill>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:prstClr val="green"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>此图表在您的 Excel 版本中不可用。
-编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4035,32 +3595,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D317" sqref="D317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="70.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="40.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="40.625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" hidden="1" customHeight="1" spans="1:8">
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A65" si="0">B2-C2</f>
         <v>9</v>
@@ -4114,7 +3674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" hidden="1" customHeight="1" spans="1:8">
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4139,7 +3699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" hidden="1" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4167,7 +3727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:8">
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4188,7 +3748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4212,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:8">
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4236,7 +3796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:8">
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4260,7 +3820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:8">
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4284,7 +3844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:8">
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4308,7 +3868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:8">
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4332,7 +3892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:8">
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4356,7 +3916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:8">
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4380,7 +3940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:8">
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4404,7 +3964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:8">
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4425,7 +3985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:8">
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4446,7 +4006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4467,7 +4027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4489,7 +4049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4511,7 +4071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4533,7 +4093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4555,7 +4115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4573,7 +4133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4594,7 +4154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4615,7 +4175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4642,7 +4202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4666,7 +4226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4693,7 +4253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4714,7 +4274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4735,7 +4295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4756,7 +4316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4777,7 +4337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4801,7 +4361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4822,7 +4382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4843,7 +4403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4861,7 +4421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4885,7 +4445,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4909,7 +4469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4933,7 +4493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4957,7 +4517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4981,7 +4541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5005,7 +4565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5029,7 +4589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5050,7 +4610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5074,7 +4634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5095,7 +4655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5114,7 +4674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5133,7 +4693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5155,7 +4715,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5174,7 +4734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5199,7 +4759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5224,7 +4784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5246,7 +4806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5268,7 +4828,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5293,7 +4853,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5318,7 +4878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5343,7 +4903,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5368,7 +4928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5393,7 +4953,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5418,7 +4978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5443,7 +5003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5468,7 +5028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5493,7 +5053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5518,7 +5078,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5543,7 +5103,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5568,7 +5128,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <f t="shared" ref="A66:A129" si="1">B66-C66</f>
         <v>9</v>
@@ -5590,7 +5150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5617,7 +5177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5642,7 +5202,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5667,7 +5227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5692,7 +5252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5717,7 +5277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5742,7 +5302,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:8">
+    <row r="73" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5767,7 +5327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:8">
+    <row r="74" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5792,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:8">
+    <row r="75" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5817,7 +5377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:8">
+    <row r="76" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5842,7 +5402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:8">
+    <row r="77" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5867,7 +5427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:8">
+    <row r="78" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5892,7 +5452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:8">
+    <row r="79" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5917,7 +5477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:8">
+    <row r="80" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5942,7 +5502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:8">
+    <row r="81" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5967,7 +5527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:8">
+    <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5989,7 +5549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:8">
+    <row r="83" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6011,7 +5571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:8">
+    <row r="84" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6036,7 +5596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:8">
+    <row r="85" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6061,7 +5621,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:8">
+    <row r="86" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6086,7 +5646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:8">
+    <row r="87" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6111,7 +5671,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:8">
+    <row r="88" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6136,7 +5696,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:8">
+    <row r="89" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6158,7 +5718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:8">
+    <row r="90" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6182,7 +5742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:8">
+    <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6206,7 +5766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:8">
+    <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6230,7 +5790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:8">
+    <row r="93" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6254,7 +5814,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:8">
+    <row r="94" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6278,7 +5838,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:8">
+    <row r="95" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6302,7 +5862,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:8">
+    <row r="96" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6323,7 +5883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:8">
+    <row r="97" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6347,7 +5907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:8">
+    <row r="98" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6371,7 +5931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:8">
+    <row r="99" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6395,7 +5955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:8">
+    <row r="100" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6419,7 +5979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:8">
+    <row r="101" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6443,7 +6003,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:8">
+    <row r="102" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6467,7 +6027,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:8">
+    <row r="103" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6488,7 +6048,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:8">
+    <row r="104" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6509,7 +6069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:8">
+    <row r="105" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6533,7 +6093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:8">
+    <row r="106" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6557,7 +6117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:8">
+    <row r="107" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6581,7 +6141,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:8">
+    <row r="108" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6602,7 +6162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:8">
+    <row r="109" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6626,7 +6186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" hidden="1" customHeight="1" spans="1:8">
+    <row r="110" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6650,7 +6210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:8">
+    <row r="111" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6668,7 +6228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:8">
+    <row r="112" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6689,7 +6249,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:8">
+    <row r="113" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6710,7 +6270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:8">
+    <row r="114" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6734,7 +6294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:8">
+    <row r="115" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6758,7 +6318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:8">
+    <row r="116" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6782,7 +6342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:8">
+    <row r="117" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6809,7 +6369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" hidden="1" customHeight="1" spans="1:8">
+    <row r="118" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6833,7 +6393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" hidden="1" customHeight="1" spans="1:8">
+    <row r="119" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6857,7 +6417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:8">
+    <row r="120" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6881,7 +6441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:8">
+    <row r="121" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6905,7 +6465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:8">
+    <row r="122" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6929,7 +6489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:8">
+    <row r="123" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6953,7 +6513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:8">
+    <row r="124" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6977,7 +6537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:8">
+    <row r="125" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7001,7 +6561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:8">
+    <row r="126" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7025,7 +6585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:8">
+    <row r="127" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7049,7 +6609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:8">
+    <row r="128" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7073,7 +6633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:8">
+    <row r="129" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7097,7 +6657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:8">
+    <row r="130" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <f t="shared" ref="A130:A193" si="2">B130-C130</f>
         <v>10</v>
@@ -7121,7 +6681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:8">
+    <row r="131" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7145,7 +6705,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:8">
+    <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7169,7 +6729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:8">
+    <row r="133" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7193,7 +6753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:8">
+    <row r="134" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7214,7 +6774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:8">
+    <row r="135" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7238,7 +6798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:8">
+    <row r="136" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7259,7 +6819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:8">
+    <row r="137" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7283,7 +6843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:8">
+    <row r="138" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7304,7 +6864,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:8">
+    <row r="139" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7328,7 +6888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:8">
+    <row r="140" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -7352,7 +6912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:8">
+    <row r="141" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -7373,7 +6933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:8">
+    <row r="142" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7397,7 +6957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:8">
+    <row r="143" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7415,7 +6975,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:8">
+    <row r="144" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7439,7 +6999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:8">
+    <row r="145" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7463,7 +7023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:8">
+    <row r="146" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7484,7 +7044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" hidden="1" customHeight="1" spans="1:8">
+    <row r="147" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7508,7 +7068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:8">
+    <row r="148" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7529,7 +7089,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:8">
+    <row r="149" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7553,7 +7113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:8">
+    <row r="150" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7574,7 +7134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:8">
+    <row r="151" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7598,7 +7158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:8">
+    <row r="152" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7622,7 +7182,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:8">
+    <row r="153" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -7640,7 +7200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:8">
+    <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -7664,7 +7224,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" hidden="1" customHeight="1" spans="1:8">
+    <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -7688,7 +7248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:8">
+    <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7712,7 +7272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:8">
+    <row r="157" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7733,7 +7293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:8">
+    <row r="158" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7757,7 +7317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:8">
+    <row r="159" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7778,7 +7338,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:8">
+    <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7802,7 +7362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:8">
+    <row r="161" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7823,7 +7383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:8">
+    <row r="162" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7844,7 +7404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:8">
+    <row r="163" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7868,7 +7428,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:8">
+    <row r="164" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7892,7 +7452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" hidden="1" customHeight="1" spans="1:8">
+    <row r="165" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7913,7 +7473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" hidden="1" customHeight="1" spans="1:8">
+    <row r="166" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7937,7 +7497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" hidden="1" customHeight="1" spans="1:8">
+    <row r="167" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7961,7 +7521,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="168" hidden="1" customHeight="1" spans="1:8">
+    <row r="168" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7982,7 +7542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" hidden="1" customHeight="1" spans="1:8">
+    <row r="169" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8006,7 +7566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="170" hidden="1" customHeight="1" spans="1:8">
+    <row r="170" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8030,7 +7590,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" hidden="1" customHeight="1" spans="1:8">
+    <row r="171" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8054,7 +7614,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" hidden="1" customHeight="1" spans="1:8">
+    <row r="172" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8075,7 +7635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" hidden="1" customHeight="1" spans="1:8">
+    <row r="173" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8099,7 +7659,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="174" hidden="1" customHeight="1" spans="1:8">
+    <row r="174" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8120,7 +7680,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" hidden="1" customHeight="1" spans="1:8">
+    <row r="175" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8141,7 +7701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:8">
+    <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8165,7 +7725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:8">
+    <row r="177" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8189,7 +7749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" hidden="1" customHeight="1" spans="1:8">
+    <row r="178" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8213,7 +7773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" hidden="1" customHeight="1" spans="1:8">
+    <row r="179" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8237,7 +7797,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" hidden="1" customHeight="1" spans="1:8">
+    <row r="180" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8261,7 +7821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" hidden="1" customHeight="1" spans="1:8">
+    <row r="181" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8282,7 +7842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" hidden="1" customHeight="1" spans="1:8">
+    <row r="182" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8306,7 +7866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:8">
+    <row r="183" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8330,7 +7890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" hidden="1" customHeight="1" spans="1:8">
+    <row r="184" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8348,7 +7908,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" hidden="1" customHeight="1" spans="1:8">
+    <row r="185" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -8369,7 +7929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" hidden="1" customHeight="1" spans="1:8">
+    <row r="186" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8390,7 +7950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:8">
+    <row r="187" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8411,7 +7971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" hidden="1" customHeight="1" spans="1:8">
+    <row r="188" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8435,7 +7995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" hidden="1" customHeight="1" spans="1:8">
+    <row r="189" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8459,7 +8019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" hidden="1" customHeight="1" spans="1:8">
+    <row r="190" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8480,7 +8040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" hidden="1" customHeight="1" spans="1:8">
+    <row r="191" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8504,7 +8064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" hidden="1" customHeight="1" spans="1:8">
+    <row r="192" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8525,7 +8085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" hidden="1" customHeight="1" spans="1:8">
+    <row r="193" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8546,7 +8106,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="194" hidden="1" customHeight="1" spans="1:8">
+    <row r="194" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <f t="shared" ref="A194:A257" si="3">B194-C194</f>
         <v>8</v>
@@ -8567,7 +8127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" hidden="1" customHeight="1" spans="1:8">
+    <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8588,7 +8148,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" hidden="1" customHeight="1" spans="1:8">
+    <row r="196" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8609,7 +8169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" hidden="1" customHeight="1" spans="1:8">
+    <row r="197" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -8630,7 +8190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" hidden="1" customHeight="1" spans="1:8">
+    <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8651,7 +8211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" hidden="1" customHeight="1" spans="1:8">
+    <row r="199" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8672,7 +8232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="200" hidden="1" customHeight="1" spans="1:8">
+    <row r="200" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -8693,7 +8253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:8">
+    <row r="201" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8717,7 +8277,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="202" hidden="1" customHeight="1" spans="1:8">
+    <row r="202" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8741,7 +8301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:8">
+    <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8765,7 +8325,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="204" hidden="1" customHeight="1" spans="1:8">
+    <row r="204" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8789,7 +8349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" hidden="1" customHeight="1" spans="1:8">
+    <row r="205" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8810,7 +8370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" hidden="1" customHeight="1" spans="1:8">
+    <row r="206" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8831,7 +8391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="207" hidden="1" customHeight="1" spans="1:8">
+    <row r="207" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8852,7 +8412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" hidden="1" customHeight="1" spans="1:8">
+    <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8876,7 +8436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="209" hidden="1" customHeight="1" spans="1:8">
+    <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8897,7 +8457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" hidden="1" customHeight="1" spans="1:8">
+    <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -8918,7 +8478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" hidden="1" customHeight="1" spans="1:8">
+    <row r="211" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8942,7 +8502,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" hidden="1" customHeight="1" spans="1:8">
+    <row r="212" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8966,7 +8526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="213" hidden="1" customHeight="1" spans="1:8">
+    <row r="213" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8990,7 +8550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" hidden="1" customHeight="1" spans="1:8">
+    <row r="214" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9011,7 +8571,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" hidden="1" customHeight="1" spans="1:8">
+    <row r="215" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9032,7 +8592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:8">
+    <row r="216" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9050,7 +8610,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:8">
+    <row r="217" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9074,7 +8634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" hidden="1" customHeight="1" spans="1:8">
+    <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9098,7 +8658,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" hidden="1" customHeight="1" spans="1:8">
+    <row r="219" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9119,7 +8679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="220" hidden="1" customHeight="1" spans="1:8">
+    <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9143,7 +8703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="221" hidden="1" customHeight="1" spans="1:8">
+    <row r="221" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9161,7 +8721,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="222" hidden="1" customHeight="1" spans="1:8">
+    <row r="222" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9182,7 +8742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" hidden="1" customHeight="1" spans="1:8">
+    <row r="223" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9206,7 +8766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" hidden="1" customHeight="1" spans="1:8">
+    <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9227,7 +8787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" hidden="1" customHeight="1" spans="1:8">
+    <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9248,7 +8808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" hidden="1" customHeight="1" spans="1:8">
+    <row r="226" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9272,7 +8832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" hidden="1" customHeight="1" spans="1:8">
+    <row r="227" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9293,7 +8853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" hidden="1" customHeight="1" spans="1:8">
+    <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9314,7 +8874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" hidden="1" customHeight="1" spans="1:8">
+    <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9335,7 +8895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" hidden="1" customHeight="1" spans="1:8">
+    <row r="230" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9356,7 +8916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" hidden="1" customHeight="1" spans="1:8">
+    <row r="231" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9377,7 +8937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:8">
+    <row r="232" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9401,7 +8961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" hidden="1" customHeight="1" spans="1:8">
+    <row r="233" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -9422,7 +8982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:8">
+    <row r="234" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9443,7 +9003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:8">
+    <row r="235" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9464,7 +9024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" hidden="1" customHeight="1" spans="1:8">
+    <row r="236" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9485,7 +9045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" hidden="1" customHeight="1" spans="1:8">
+    <row r="237" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9506,7 +9066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="238" hidden="1" customHeight="1" spans="1:8">
+    <row r="238" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9527,7 +9087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" hidden="1" customHeight="1" spans="1:8">
+    <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9548,7 +9108,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="240" hidden="1" customHeight="1" spans="1:8">
+    <row r="240" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9569,7 +9129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" hidden="1" customHeight="1" spans="1:8">
+    <row r="241" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9590,7 +9150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" hidden="1" customHeight="1" spans="1:8">
+    <row r="242" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9611,7 +9171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" hidden="1" customHeight="1" spans="1:8">
+    <row r="243" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9632,7 +9192,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="244" hidden="1" customHeight="1" spans="1:8">
+    <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9653,7 +9213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" hidden="1" customHeight="1" spans="1:8">
+    <row r="245" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9674,7 +9234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" hidden="1" customHeight="1" spans="1:8">
+    <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9695,7 +9255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:8">
+    <row r="247" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9716,7 +9276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" hidden="1" customHeight="1" spans="1:8">
+    <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9737,7 +9297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" hidden="1" customHeight="1" spans="1:8">
+    <row r="249" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9758,7 +9318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" hidden="1" customHeight="1" spans="1:8">
+    <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9779,7 +9339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="251" hidden="1" customHeight="1" spans="1:8">
+    <row r="251" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9800,7 +9360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" hidden="1" customHeight="1" spans="1:8">
+    <row r="252" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9821,7 +9381,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:8">
+    <row r="253" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9842,7 +9402,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="254" hidden="1" customHeight="1" spans="1:8">
+    <row r="254" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9863,7 +9423,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="255" hidden="1" customHeight="1" spans="1:8">
+    <row r="255" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -9884,7 +9444,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="256" hidden="1" customHeight="1" spans="1:8">
+    <row r="256" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9905,7 +9465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" hidden="1" customHeight="1" spans="1:8">
+    <row r="257" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9926,7 +9486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" hidden="1" customHeight="1" spans="1:8">
+    <row r="258" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <f t="shared" ref="A258:A321" si="4">B258-C258</f>
         <v>6</v>
@@ -9947,7 +9507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" hidden="1" customHeight="1" spans="1:8">
+    <row r="259" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9968,7 +9528,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="260" hidden="1" customHeight="1" spans="1:8">
+    <row r="260" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9986,7 +9546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:8">
+    <row r="261" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10007,7 +9567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" hidden="1" customHeight="1" spans="1:8">
+    <row r="262" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -10028,7 +9588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" hidden="1" customHeight="1" spans="1:8">
+    <row r="263" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10049,7 +9609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="264" hidden="1" customHeight="1" spans="1:8">
+    <row r="264" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10070,7 +9630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="265" hidden="1" customHeight="1" spans="1:8">
+    <row r="265" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10094,7 +9654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" hidden="1" customHeight="1" spans="1:8">
+    <row r="266" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10115,7 +9675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" hidden="1" customHeight="1" spans="1:8">
+    <row r="267" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10139,7 +9699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:8">
+    <row r="268" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10160,7 +9720,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:9">
+    <row r="269" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10184,7 +9744,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="270" hidden="1" customHeight="1" spans="1:8">
+    <row r="270" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10205,7 +9765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" hidden="1" customHeight="1" spans="1:9">
+    <row r="271" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10229,7 +9789,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="272" hidden="1" customHeight="1" spans="1:8">
+    <row r="272" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -10250,7 +9810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" hidden="1" customHeight="1" spans="1:8">
+    <row r="273" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10271,7 +9831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" hidden="1" customHeight="1" spans="1:8">
+    <row r="274" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10292,7 +9852,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" hidden="1" customHeight="1" spans="1:9">
+    <row r="275" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10319,7 +9879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" hidden="1" customHeight="1" spans="1:9">
+    <row r="276" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10343,7 +9903,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="277" hidden="1" customHeight="1" spans="1:8">
+    <row r="277" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10364,7 +9924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" hidden="1" customHeight="1" spans="1:8">
+    <row r="278" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10385,7 +9945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:9">
+    <row r="279" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10412,7 +9972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" hidden="1" customHeight="1" spans="1:8">
+    <row r="280" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -10430,7 +9990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:9">
+    <row r="281" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10454,7 +10014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" hidden="1" customHeight="1" spans="1:8">
+    <row r="282" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10475,7 +10035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" hidden="1" customHeight="1" spans="1:8">
+    <row r="283" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10496,7 +10056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" hidden="1" customHeight="1" spans="1:8">
+    <row r="284" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10517,7 +10077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" hidden="1" customHeight="1" spans="1:8">
+    <row r="285" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10538,7 +10098,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:8">
+    <row r="286" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10559,7 +10119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="287" hidden="1" customHeight="1" spans="1:8">
+    <row r="287" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10580,7 +10140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:8">
+    <row r="288" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10601,7 +10161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" hidden="1" customHeight="1" spans="1:8">
+    <row r="289" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10622,7 +10182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="290" hidden="1" customHeight="1" spans="1:8">
+    <row r="290" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10643,7 +10203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" hidden="1" customHeight="1" spans="1:8">
+    <row r="291" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10664,7 +10224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="292" hidden="1" customHeight="1" spans="1:8">
+    <row r="292" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10685,7 +10245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" hidden="1" customHeight="1" spans="1:8">
+    <row r="293" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10706,7 +10266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" hidden="1" customHeight="1" spans="1:8">
+    <row r="294" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10727,7 +10287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" hidden="1" customHeight="1" spans="1:9">
+    <row r="295" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10748,7 +10308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="296" hidden="1" customHeight="1" spans="1:8">
+    <row r="296" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10769,7 +10329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="297" hidden="1" customHeight="1" spans="1:8">
+    <row r="297" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10787,7 +10347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="298" hidden="1" customHeight="1" spans="1:8">
+    <row r="298" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10808,7 +10368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" hidden="1" customHeight="1" spans="1:8">
+    <row r="299" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10829,1225 +10389,1486 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" hidden="1" customHeight="1" spans="1:1">
+    <row r="300" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" hidden="1" customHeight="1" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B300" s="4">
+        <v>6</v>
+      </c>
+      <c r="D300" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E300" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="F300" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="H300" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="I300" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" hidden="1" customHeight="1" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B301" s="4">
+        <v>6</v>
+      </c>
+      <c r="D301" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E301" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="F301" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" hidden="1" customHeight="1" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B302" s="4">
+        <v>5</v>
+      </c>
+      <c r="D302" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E302" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="H302" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="I302" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" hidden="1" customHeight="1" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B303" s="4">
+        <v>8</v>
+      </c>
+      <c r="D303" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E303" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="F303" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="H303" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" hidden="1" customHeight="1" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B304" s="4">
+        <v>7</v>
+      </c>
+      <c r="D304" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E304" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="F304" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="H304" s="17" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" hidden="1" customHeight="1" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B305" s="4">
+        <v>6</v>
+      </c>
+      <c r="D305" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E305" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="H305" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" hidden="1" customHeight="1" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B306" s="4">
+        <v>9</v>
+      </c>
+      <c r="D306" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E306" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" hidden="1" customHeight="1" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B307" s="4">
+        <v>8</v>
+      </c>
+      <c r="D307" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E307" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F307" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="H307" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" hidden="1" customHeight="1" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B308" s="4">
+        <v>10</v>
+      </c>
+      <c r="D308" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E308" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="H308" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="I308" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" hidden="1" customHeight="1" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B309" s="4">
+        <v>10</v>
+      </c>
+      <c r="D309" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E309" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="F309" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="H309" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" hidden="1" customHeight="1" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B310" s="4">
+        <v>9</v>
+      </c>
+      <c r="D310" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E310" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="F310" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" hidden="1" customHeight="1" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B311" s="4">
+        <v>10</v>
+      </c>
+      <c r="D311" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E311" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="F311" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="H311" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="I311" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" hidden="1" customHeight="1" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B312" s="4">
+        <v>7</v>
+      </c>
+      <c r="D312" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E312" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="F312" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="H312" s="17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" hidden="1" customHeight="1" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B313" s="4">
+        <v>6</v>
+      </c>
+      <c r="D313" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E313" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="F313" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="I313" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" hidden="1" customHeight="1" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B314" s="4">
+        <v>7</v>
+      </c>
+      <c r="D314" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E314" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="F314" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="I314" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" hidden="1" customHeight="1" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B315" s="4">
+        <v>10</v>
+      </c>
+      <c r="D315" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E315" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="H315" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="I315" s="17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" hidden="1" customHeight="1" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B316" s="4">
+        <v>6</v>
+      </c>
+      <c r="D316" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E316" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="F316" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I316" s="17" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" hidden="1" customHeight="1" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B317" s="4">
+        <v>7</v>
+      </c>
+      <c r="D317" s="11">
+        <v>44494</v>
+      </c>
+      <c r="E317" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="H317" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="I317" s="17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" hidden="1" customHeight="1" spans="1:1">
+    <row r="319" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" hidden="1" customHeight="1" spans="1:1">
+    <row r="320" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" hidden="1" customHeight="1" spans="1:1">
+    <row r="321" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" hidden="1" customHeight="1" spans="1:1">
+    <row r="322" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <f t="shared" ref="A322:A385" si="5">B322-C322</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" hidden="1" customHeight="1" spans="1:1">
+    <row r="323" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" hidden="1" customHeight="1" spans="1:1">
+    <row r="324" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" hidden="1" customHeight="1" spans="1:1">
+    <row r="325" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" hidden="1" customHeight="1" spans="1:1">
+    <row r="326" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" hidden="1" customHeight="1" spans="1:1">
+    <row r="327" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" hidden="1" customHeight="1" spans="1:1">
+    <row r="328" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" hidden="1" customHeight="1" spans="1:1">
+    <row r="329" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" hidden="1" customHeight="1" spans="1:1">
+    <row r="330" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" hidden="1" customHeight="1" spans="1:1">
+    <row r="331" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" hidden="1" customHeight="1" spans="1:1">
+    <row r="332" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" hidden="1" customHeight="1" spans="1:1">
+    <row r="333" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" hidden="1" customHeight="1" spans="1:1">
+    <row r="334" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" hidden="1" customHeight="1" spans="1:1">
+    <row r="335" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" hidden="1" customHeight="1" spans="1:1">
+    <row r="336" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" hidden="1" customHeight="1" spans="1:1">
+    <row r="337" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" hidden="1" customHeight="1" spans="1:1">
+    <row r="338" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" hidden="1" customHeight="1" spans="1:1">
+    <row r="339" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" hidden="1" customHeight="1" spans="1:1">
+    <row r="340" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" hidden="1" customHeight="1" spans="1:1">
+    <row r="341" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" hidden="1" customHeight="1" spans="1:1">
+    <row r="342" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" hidden="1" customHeight="1" spans="1:1">
+    <row r="343" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" hidden="1" customHeight="1" spans="1:1">
+    <row r="344" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" hidden="1" customHeight="1" spans="1:1">
+    <row r="345" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" hidden="1" customHeight="1" spans="1:1">
+    <row r="346" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" hidden="1" customHeight="1" spans="1:1">
+    <row r="347" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" hidden="1" customHeight="1" spans="1:1">
+    <row r="348" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" hidden="1" customHeight="1" spans="1:1">
+    <row r="349" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" hidden="1" customHeight="1" spans="1:1">
+    <row r="350" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" hidden="1" customHeight="1" spans="1:1">
+    <row r="351" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" hidden="1" customHeight="1" spans="1:1">
+    <row r="352" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" hidden="1" customHeight="1" spans="1:1">
+    <row r="353" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" hidden="1" customHeight="1" spans="1:1">
+    <row r="354" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" hidden="1" customHeight="1" spans="1:1">
+    <row r="355" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" hidden="1" customHeight="1" spans="1:1">
+    <row r="356" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" hidden="1" customHeight="1" spans="1:1">
+    <row r="357" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" hidden="1" customHeight="1" spans="1:1">
+    <row r="358" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" hidden="1" customHeight="1" spans="1:1">
+    <row r="359" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" hidden="1" customHeight="1" spans="1:1">
+    <row r="360" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" hidden="1" customHeight="1" spans="1:1">
+    <row r="361" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" hidden="1" customHeight="1" spans="1:1">
+    <row r="362" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" hidden="1" customHeight="1" spans="1:1">
+    <row r="363" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" hidden="1" customHeight="1" spans="1:1">
+    <row r="364" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" hidden="1" customHeight="1" spans="1:1">
+    <row r="365" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" hidden="1" customHeight="1" spans="1:1">
+    <row r="366" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" hidden="1" customHeight="1" spans="1:1">
+    <row r="367" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" hidden="1" customHeight="1" spans="1:1">
+    <row r="368" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" hidden="1" customHeight="1" spans="1:1">
+    <row r="369" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" hidden="1" customHeight="1" spans="1:1">
+    <row r="370" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" hidden="1" customHeight="1" spans="1:1">
+    <row r="371" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" hidden="1" customHeight="1" spans="1:1">
+    <row r="372" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" hidden="1" customHeight="1" spans="1:1">
+    <row r="373" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" hidden="1" customHeight="1" spans="1:1">
+    <row r="374" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" hidden="1" customHeight="1" spans="1:1">
+    <row r="375" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" hidden="1" customHeight="1" spans="1:1">
+    <row r="376" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" hidden="1" customHeight="1" spans="1:1">
+    <row r="377" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" hidden="1" customHeight="1" spans="1:1">
+    <row r="378" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" hidden="1" customHeight="1" spans="1:1">
+    <row r="379" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" hidden="1" customHeight="1" spans="1:1">
+    <row r="380" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" hidden="1" customHeight="1" spans="1:1">
+    <row r="381" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" hidden="1" customHeight="1" spans="1:1">
+    <row r="382" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" hidden="1" customHeight="1" spans="1:1">
+    <row r="383" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" hidden="1" customHeight="1" spans="1:1">
+    <row r="384" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" hidden="1" customHeight="1" spans="1:1">
+    <row r="385" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" hidden="1" customHeight="1" spans="1:1">
+    <row r="386" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <f t="shared" ref="A386:A449" si="6">B386-C386</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" hidden="1" customHeight="1" spans="1:1">
+    <row r="387" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" hidden="1" customHeight="1" spans="1:1">
+    <row r="388" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" hidden="1" customHeight="1" spans="1:1">
+    <row r="389" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" hidden="1" customHeight="1" spans="1:1">
+    <row r="390" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" hidden="1" customHeight="1" spans="1:1">
+    <row r="391" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" hidden="1" customHeight="1" spans="1:1">
+    <row r="392" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" hidden="1" customHeight="1" spans="1:1">
+    <row r="393" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" hidden="1" customHeight="1" spans="1:1">
+    <row r="394" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" hidden="1" customHeight="1" spans="1:1">
+    <row r="395" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" hidden="1" customHeight="1" spans="1:1">
+    <row r="396" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" hidden="1" customHeight="1" spans="1:1">
+    <row r="397" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" hidden="1" customHeight="1" spans="1:1">
+    <row r="398" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" hidden="1" customHeight="1" spans="1:1">
+    <row r="399" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" hidden="1" customHeight="1" spans="1:1">
+    <row r="400" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" hidden="1" customHeight="1" spans="1:1">
+    <row r="401" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" hidden="1" customHeight="1" spans="1:1">
+    <row r="402" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" hidden="1" customHeight="1" spans="1:1">
+    <row r="403" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" hidden="1" customHeight="1" spans="1:1">
+    <row r="404" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" hidden="1" customHeight="1" spans="1:1">
+    <row r="405" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" hidden="1" customHeight="1" spans="1:1">
+    <row r="406" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" hidden="1" customHeight="1" spans="1:1">
+    <row r="407" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" hidden="1" customHeight="1" spans="1:1">
+    <row r="408" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" hidden="1" customHeight="1" spans="1:1">
+    <row r="409" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" hidden="1" customHeight="1" spans="1:1">
+    <row r="410" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" hidden="1" customHeight="1" spans="1:1">
+    <row r="411" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" hidden="1" customHeight="1" spans="1:1">
+    <row r="412" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" hidden="1" customHeight="1" spans="1:1">
+    <row r="413" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" hidden="1" customHeight="1" spans="1:1">
+    <row r="414" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" hidden="1" customHeight="1" spans="1:1">
+    <row r="415" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" hidden="1" customHeight="1" spans="1:1">
+    <row r="416" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" hidden="1" customHeight="1" spans="1:1">
+    <row r="417" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" hidden="1" customHeight="1" spans="1:1">
+    <row r="418" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" hidden="1" customHeight="1" spans="1:1">
+    <row r="419" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" hidden="1" customHeight="1" spans="1:1">
+    <row r="420" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" hidden="1" customHeight="1" spans="1:1">
+    <row r="421" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" hidden="1" customHeight="1" spans="1:1">
+    <row r="422" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" hidden="1" customHeight="1" spans="1:1">
+    <row r="423" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" hidden="1" customHeight="1" spans="1:1">
+    <row r="424" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" hidden="1" customHeight="1" spans="1:1">
+    <row r="425" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" hidden="1" customHeight="1" spans="1:1">
+    <row r="426" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" hidden="1" customHeight="1" spans="1:1">
+    <row r="427" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" hidden="1" customHeight="1" spans="1:1">
+    <row r="428" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" hidden="1" customHeight="1" spans="1:1">
+    <row r="429" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" hidden="1" customHeight="1" spans="1:1">
+    <row r="430" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" hidden="1" customHeight="1" spans="1:1">
+    <row r="431" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" hidden="1" customHeight="1" spans="1:1">
+    <row r="432" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" hidden="1" customHeight="1" spans="1:1">
+    <row r="433" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" hidden="1" customHeight="1" spans="1:1">
+    <row r="434" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" hidden="1" customHeight="1" spans="1:1">
+    <row r="435" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" hidden="1" customHeight="1" spans="1:1">
+    <row r="436" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" hidden="1" customHeight="1" spans="1:1">
+    <row r="437" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" hidden="1" customHeight="1" spans="1:1">
+    <row r="438" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" hidden="1" customHeight="1" spans="1:1">
+    <row r="439" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" hidden="1" customHeight="1" spans="1:1">
+    <row r="440" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" hidden="1" customHeight="1" spans="1:1">
+    <row r="441" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" hidden="1" customHeight="1" spans="1:1">
+    <row r="442" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" hidden="1" customHeight="1" spans="1:1">
+    <row r="443" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" hidden="1" customHeight="1" spans="1:1">
+    <row r="444" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" hidden="1" customHeight="1" spans="1:1">
+    <row r="445" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" hidden="1" customHeight="1" spans="1:1">
+    <row r="446" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" hidden="1" customHeight="1" spans="1:1">
+    <row r="447" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" hidden="1" customHeight="1" spans="1:1">
+    <row r="448" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" hidden="1" customHeight="1" spans="1:1">
+    <row r="449" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" hidden="1" customHeight="1" spans="1:1">
+    <row r="450" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4">
         <f t="shared" ref="A450:A500" si="7">B450-C450</f>
         <v>0</v>
       </c>
     </row>
-    <row r="451" hidden="1" customHeight="1" spans="1:1">
+    <row r="451" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" hidden="1" customHeight="1" spans="1:1">
+    <row r="452" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" hidden="1" customHeight="1" spans="1:1">
+    <row r="453" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" hidden="1" customHeight="1" spans="1:1">
+    <row r="454" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" hidden="1" customHeight="1" spans="1:1">
+    <row r="455" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" hidden="1" customHeight="1" spans="1:1">
+    <row r="456" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" hidden="1" customHeight="1" spans="1:1">
+    <row r="457" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" hidden="1" customHeight="1" spans="1:1">
+    <row r="458" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" hidden="1" customHeight="1" spans="1:1">
+    <row r="459" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" hidden="1" customHeight="1" spans="1:1">
+    <row r="460" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" hidden="1" customHeight="1" spans="1:1">
+    <row r="461" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" hidden="1" customHeight="1" spans="1:1">
+    <row r="462" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" hidden="1" customHeight="1" spans="1:1">
+    <row r="463" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" hidden="1" customHeight="1" spans="1:1">
+    <row r="464" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" hidden="1" customHeight="1" spans="1:1">
+    <row r="465" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" hidden="1" customHeight="1" spans="1:1">
+    <row r="466" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" hidden="1" customHeight="1" spans="1:1">
+    <row r="467" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" hidden="1" customHeight="1" spans="1:1">
+    <row r="468" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" hidden="1" customHeight="1" spans="1:1">
+    <row r="469" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" hidden="1" customHeight="1" spans="1:1">
+    <row r="470" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" hidden="1" customHeight="1" spans="1:1">
+    <row r="471" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" hidden="1" customHeight="1" spans="1:1">
+    <row r="472" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" hidden="1" customHeight="1" spans="1:1">
+    <row r="473" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" hidden="1" customHeight="1" spans="1:1">
+    <row r="474" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" hidden="1" customHeight="1" spans="1:1">
+    <row r="475" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" hidden="1" customHeight="1" spans="1:1">
+    <row r="476" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" hidden="1" customHeight="1" spans="1:1">
+    <row r="477" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" hidden="1" customHeight="1" spans="1:1">
+    <row r="478" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" hidden="1" customHeight="1" spans="1:1">
+    <row r="479" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" hidden="1" customHeight="1" spans="1:1">
+    <row r="480" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" hidden="1" customHeight="1" spans="1:1">
+    <row r="481" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" hidden="1" customHeight="1" spans="1:1">
+    <row r="482" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" hidden="1" customHeight="1" spans="1:1">
+    <row r="483" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" hidden="1" customHeight="1" spans="1:1">
+    <row r="484" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" hidden="1" customHeight="1" spans="1:1">
+    <row r="485" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" hidden="1" customHeight="1" spans="1:1">
+    <row r="486" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" hidden="1" customHeight="1" spans="1:1">
+    <row r="487" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" hidden="1" customHeight="1" spans="1:1">
+    <row r="488" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" hidden="1" customHeight="1" spans="1:1">
+    <row r="489" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" hidden="1" customHeight="1" spans="1:1">
+    <row r="490" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" hidden="1" customHeight="1" spans="1:1">
+    <row r="491" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" hidden="1" customHeight="1" spans="1:1">
+    <row r="492" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" hidden="1" customHeight="1" spans="1:1">
+    <row r="493" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" hidden="1" customHeight="1" spans="1:1">
+    <row r="494" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" hidden="1" customHeight="1" spans="1:1">
+    <row r="495" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" hidden="1" customHeight="1" spans="1:1">
+    <row r="496" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" hidden="1" customHeight="1" spans="1:1">
+    <row r="497" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" hidden="1" customHeight="1" spans="1:1">
+    <row r="498" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" hidden="1" customHeight="1" spans="1:1">
+    <row r="499" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" hidden="1" customHeight="1" spans="1:1">
+    <row r="500" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H501">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="10"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A1:H501">
-      <sortCondition ref="E1:E501" sortBy="cellColor" dxfId="0"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <autoFilter ref="A1:H501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12060,31 +11881,28 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F238" r:id="rId1" display="https://spring.io/projects/spring-security"/>
+    <hyperlink ref="F238" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>776</v>
       </c>
@@ -12095,38 +11913,38 @@
         <v>778</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
         <f ca="1">SUMIF(logs!H:I,汇总表!A2,logs!A:A)</f>
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="C2">
         <f ca="1">SUM(B:B)</f>
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3">
         <f ca="1">SUMIF(logs!H:I,汇总表!A3,logs!A:A)</f>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4">
         <f ca="1">SUMIF(logs!H:I,汇总表!A4,logs!A:A)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -12135,25 +11953,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
         <f ca="1">SUMIF(logs!H:I,汇总表!A6,logs!A:A)</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
       <c r="B7">
         <f ca="1">SUMIF(logs!H:I,汇总表!A7,logs!A:A)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -12162,25 +11980,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9">
         <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
       <c r="B10">
         <f ca="1">SUMIF(logs!H:I,汇总表!A10,logs!A:A)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -12189,7 +12007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12198,7 +12016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -12207,7 +12025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -12216,34 +12034,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15">
         <f ca="1">SUMIF(logs!H:I,汇总表!A15,logs!A:A)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
       <c r="B16">
         <f ca="1">SUMIF(logs!H:I,汇总表!A16,logs!A:A)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
       <c r="B17">
         <f ca="1">SUMIF(logs!H:I,汇总表!A17,logs!A:A)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -12252,7 +12070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -12261,7 +12079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -12270,7 +12088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -12279,16 +12097,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>173</v>
       </c>
       <c r="B22">
         <f ca="1">SUMIF(logs!H:I,汇总表!A22,logs!A:A)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -12297,7 +12115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -12306,16 +12124,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>186</v>
       </c>
       <c r="B25">
         <f ca="1">SUMIF(logs!H:I,汇总表!A25,logs!A:A)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -12324,7 +12142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>264</v>
       </c>
@@ -12333,7 +12151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -12342,7 +12160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -12351,7 +12169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -12360,7 +12178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -12369,7 +12187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>495</v>
       </c>
@@ -12378,7 +12196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -12387,7 +12205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" ht="29" spans="1:2">
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>598</v>
       </c>
@@ -12396,7 +12214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>650</v>
       </c>
@@ -12405,16 +12223,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>659</v>
       </c>
       <c r="B36">
         <f ca="1">SUMIF(logs!H:I,汇总表!A36,logs!A:A)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>685</v>
       </c>
@@ -12423,7 +12241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -12432,7 +12250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>712</v>
       </c>
@@ -12441,7 +12259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>729</v>
       </c>
@@ -12450,9 +12268,19 @@
         <v>17</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="B41">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A41,logs!A:A)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C40"/>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <autoFilter ref="A1:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12464,33 +12292,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.4553571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="2"/>
-    <col min="3" max="3" width="24.2142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.6785714285714" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="37.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2"/>
+    <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>779</v>
       </c>
@@ -12504,7 +12330,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>783</v>
       </c>
@@ -12512,13 +12338,13 @@
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>785</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15227FCE-D242-44DA-B16F-576C7FA7A87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BCCC3C-FA9C-4018-A6E4-1286C3A399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BCCC3C-FA9C-4018-A6E4-1286C3A399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19920"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -19,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$A$1:$H$501</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表!$A$1:$C$41</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817">
   <si>
     <t>权重</t>
   </si>
@@ -2888,229 +2882,148 @@
     <t>几个思路：https://blog.csdn.net/wangshuminjava/article/details/80907129</t>
   </si>
   <si>
-    <t>类目</t>
-  </si>
-  <si>
-    <t>权重汇总</t>
-  </si>
-  <si>
-    <t>总量</t>
-  </si>
-  <si>
-    <t>话题</t>
-  </si>
-  <si>
-    <t>行数</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>归属</t>
-  </si>
-  <si>
-    <t>linux安装数据库，并链接</t>
-  </si>
-  <si>
-    <t>实验室</t>
-  </si>
-  <si>
-    <t>java日志体系</t>
-  </si>
-  <si>
     <t>sonarlint做代码规范审查啥的，怎么用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>参考：https://www.cnblogs.com/cjsblog/p/10735800.html
 https://www.sonarlint.org/
 反正查出来什么东西的话，不懂含义的直接在官网查意思吧https://rules.sonarsource.com/java</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>idea</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>要求使用java去抓取html的数据内容，怎么搞？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是DDOS攻击，怎么防范？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class.cast()是干啥的？Class方法都有哪些常用的功能？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已知的是：https://blog.csdn.net/axzsd/article/details/79206172；要看下源码
-Class的，是不是系统学习一下反射</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略模式是啥？怎么用？搞一下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以参考https://segmentfault.com/a/1190000039287384</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql的force index和ignore index怎么用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL的执行计划怎么看，细致看下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>stream转set转的是Set&lt;&gt;,怎么转成HashSet？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Collector层面可以转HashSet::new，也可以在转出来之后，通过hashSet强转（从源码来看，是HashSet的实现）https://blog.csdn.net/qq_39629277/article/details/83108585</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>注解@RequestParam的使用方法、场景？不使用注解的话，是怎么接受http请求参数的？？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>java的compareTo方法，结果的0和1是怎么规定的？Comparator怎么写？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string参考https://www.runoob.com/java/java-string-compareto.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP报文是啥样的？通过这个怎么理解http请求?</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考https://time.geekbang.org/column/article/100513</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring的事务和数据库事务的关系？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论上是一个东西，使用注解只是会自动生成相关的代码，还需要继续看下https://www.zhihu.com/question/315000395/answer/619078257</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用github pages搭建博客</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考谐哥给的：https://hexo.io/zh-cn/docs/github-pages</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http的调用，显示cors，是啥？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨域了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1、第一反应是找个第三方包来
 2、找到jsoup，https://jsoup.org/cookbook/extracting-data/attributes-text-html；https://github.com/jhy/jsoup/
 3、搭配fastjson，能完成业务所需了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是DDOS攻击，怎么防范？</t>
+  </si>
+  <si>
+    <t>Class.cast()是干啥的？Class方法都有哪些常用的功能？</t>
+  </si>
+  <si>
+    <t>已知的是：https://blog.csdn.net/axzsd/article/details/79206172；要看下源码
+Class的，是不是系统学习一下反射</t>
+  </si>
+  <si>
+    <t>策略模式是啥？怎么用？搞一下</t>
+  </si>
+  <si>
+    <t>可以参考https://segmentfault.com/a/1190000039287384</t>
+  </si>
+  <si>
+    <t>mysql的force index和ignore index怎么用</t>
+  </si>
+  <si>
+    <t>MySQL的执行计划怎么看，细致看下</t>
+  </si>
+  <si>
+    <t>stream转set转的是Set&lt;&gt;,怎么转成HashSet？</t>
+  </si>
+  <si>
+    <t>在Collector层面可以转HashSet::new，也可以在转出来之后，通过hashSet强转（从源码来看，是HashSet的实现）https://blog.csdn.net/qq_39629277/article/details/83108585</t>
+  </si>
+  <si>
+    <t>注解@RequestParam的使用方法、场景？不使用注解的话，是怎么接受http请求参数的？？</t>
+  </si>
+  <si>
+    <t>java的compareTo方法，结果的0和1是怎么规定的？Comparator怎么写？</t>
+  </si>
+  <si>
+    <t>string参考https://www.runoob.com/java/java-string-compareto.html</t>
+  </si>
+  <si>
+    <t>HTTP报文是啥样的？通过这个怎么理解http请求?</t>
+  </si>
+  <si>
+    <t>参考https://time.geekbang.org/column/article/100513</t>
+  </si>
+  <si>
+    <t>spring的事务和数据库事务的关系？</t>
+  </si>
+  <si>
+    <t>理论上是一个东西，使用注解只是会自动生成相关的代码，还需要继续看下https://www.zhihu.com/question/315000395/answer/619078257</t>
+  </si>
+  <si>
+    <t>使用github pages搭建博客</t>
+  </si>
+  <si>
+    <t>参考谐哥给的：https://hexo.io/zh-cn/docs/github-pages</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>http的调用，显示cors，是啥？</t>
+  </si>
+  <si>
+    <t>跨域了</t>
   </si>
   <si>
     <t>git的fetch每次拉其他分支好麻烦，有没有简单的做法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>之前的操作是git fetch origin fenzhi:fenzhi,git checkout fenzhi;git branch --set-upstream-to=origin/fenzhi fenzhi;
 似乎可以等同于git pull origin fenzhi:fenzhi
 https://www.cnblogs.com/runnerjack/p/9342362.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>git</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cron彻底学习下，见到就能翻译出来</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件概念</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>redis链接问题，报错ERR Client sent AUTH, but no password is set</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>没有密码，但是链接中的password写的是有值的，导致这个报错
 https://blog.csdn.net/quanaianzj/article/details/84621743</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>slf4j的getLogger的学习</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目</t>
+  </si>
+  <si>
+    <t>权重汇总</t>
+  </si>
+  <si>
+    <t>总量</t>
+  </si>
+  <si>
+    <t>话题</t>
+  </si>
+  <si>
+    <t>行数</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>归属</t>
+  </si>
+  <si>
+    <t>linux安装数据库，并链接</t>
+  </si>
+  <si>
+    <t>实验室</t>
+  </si>
+  <si>
+    <t>java日志体系</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3141,6 +3054,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3154,35 +3074,156 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3191,7 +3232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3213,8 +3254,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3222,10 +3449,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3237,6 +3703,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3249,7 +3716,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3261,7 +3728,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3270,43 +3737,76 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3320,15 +3820,9 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3595,23 +4089,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D317" sqref="D317"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="70.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
@@ -3620,125 +4115,125 @@
     <col min="10" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="6" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="8">
         <f t="shared" ref="A2:A65" si="0">B2-C2</f>
         <v>9</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
         <v>44327</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
         <v>44327</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
         <v>44327</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
         <v>44379</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -3748,18 +4243,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>44392</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -3772,18 +4267,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>44392</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -3796,18 +4291,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>9</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>44392</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -3820,18 +4315,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>44392</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3844,18 +4339,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>44392</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3868,18 +4363,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>44392</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3892,18 +4387,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>44392</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -3916,18 +4411,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="7">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10">
         <v>44392</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3940,18 +4435,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="7">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
         <v>44392</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -3964,18 +4459,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>44392</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -3985,18 +4480,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>44362</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -4006,7 +4501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4014,10 +4509,10 @@
       <c r="B17" s="4">
         <v>9</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>44439</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -4027,16 +4522,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="7">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10">
+      <c r="B18" s="8">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11">
         <v>44293</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -4049,16 +4544,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10">
+      <c r="C19" s="8"/>
+      <c r="D19" s="11">
         <v>44293</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -4071,16 +4566,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>5</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10">
+      <c r="C20" s="8"/>
+      <c r="D20" s="11">
         <v>44293</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4093,16 +4588,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10">
+      <c r="C21" s="8"/>
+      <c r="D21" s="11">
         <v>44293</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -4115,15 +4610,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>7</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>44295</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -4133,15 +4628,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>7</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <v>44295</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -4154,15 +4649,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>6</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>44295</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -4175,18 +4670,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>10</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>44298</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -4202,15 +4697,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>7</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <v>44298</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -4226,18 +4721,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>9</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <v>44298</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -4253,15 +4748,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>6</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <v>44298</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -4274,15 +4769,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>7</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>44298</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -4295,15 +4790,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>5</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>44298</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4316,15 +4811,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>5</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>44298</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -4337,15 +4832,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>3</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <v>44298</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -4361,15 +4856,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>7</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <v>44302</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -4382,15 +4877,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>6</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <v>44302</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -4403,15 +4898,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>6</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <v>44302</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -4421,15 +4916,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" customHeight="1" spans="1:8">
+      <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>5</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <v>44302</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -4445,15 +4940,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>5</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <v>44302</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -4469,15 +4964,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>4</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <v>44302</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4493,15 +4988,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>3</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <v>44302</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -4517,15 +5012,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B40" s="7">
-        <v>8</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="B40" s="8">
+        <v>8</v>
+      </c>
+      <c r="D40" s="12">
         <v>44305</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -4541,15 +5036,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>6</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <v>44305</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -4565,15 +5060,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>9</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <v>44306</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -4589,15 +5084,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>7</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="12">
         <v>44306</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -4610,15 +5105,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>9</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="12">
         <v>44309</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4634,15 +5129,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>7</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="12">
         <v>44309</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -4655,16 +5150,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" customHeight="1" spans="1:8">
+      <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="8">
         <v>7</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="11">
+      <c r="C46" s="8"/>
+      <c r="D46" s="12">
         <v>44311</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -4674,16 +5169,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+    <row r="47" customHeight="1" spans="1:8">
+      <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>6</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="11">
+      <c r="C47" s="8"/>
+      <c r="D47" s="12">
         <v>44311</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -4693,16 +5188,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="8">
         <v>5</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="11">
+      <c r="C48" s="8"/>
+      <c r="D48" s="12">
         <v>44312</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -4715,16 +5210,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>9</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="11">
+      <c r="C49" s="8"/>
+      <c r="D49" s="12">
         <v>44313</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -4734,16 +5229,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="8">
         <v>9</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="11">
+      <c r="C50" s="8"/>
+      <c r="D50" s="12">
         <v>44315</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -4759,16 +5254,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>9</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="11">
+      <c r="C51" s="8"/>
+      <c r="D51" s="12">
         <v>44315</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -4784,16 +5279,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="A52" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B52" s="7">
-        <v>8</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="11">
+      <c r="B52" s="8">
+        <v>8</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="12">
         <v>44315</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -4806,16 +5301,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>7</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="11">
+      <c r="C53" s="8"/>
+      <c r="D53" s="12">
         <v>44315</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -4828,16 +5323,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="8">
         <v>5</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="11">
+      <c r="C54" s="8"/>
+      <c r="D54" s="12">
         <v>44315</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -4853,16 +5348,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="11">
+      <c r="C55" s="8"/>
+      <c r="D55" s="12">
         <v>44315</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -4878,16 +5373,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="8">
         <v>3</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="11">
+      <c r="C56" s="8"/>
+      <c r="D56" s="12">
         <v>44315</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4903,16 +5398,16 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <v>9</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="10">
+      <c r="C57" s="8"/>
+      <c r="D57" s="11">
         <v>44323</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -4928,16 +5423,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B58" s="7">
-        <v>8</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="10">
+      <c r="B58" s="8">
+        <v>8</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="11">
         <v>44323</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4953,16 +5448,16 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B59" s="7">
-        <v>8</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="10">
+      <c r="B59" s="8">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="11">
         <v>44323</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -4978,16 +5473,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B60" s="7">
-        <v>8</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="10">
+      <c r="B60" s="8">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="11">
         <v>44323</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -5003,16 +5498,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="8">
         <v>7</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="10">
+      <c r="C61" s="8"/>
+      <c r="D61" s="11">
         <v>44323</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -5028,16 +5523,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="8">
         <v>6</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="10">
+      <c r="C62" s="8"/>
+      <c r="D62" s="11">
         <v>44323</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -5053,16 +5548,16 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="10">
+      <c r="C63" s="8"/>
+      <c r="D63" s="11">
         <v>44323</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -5078,16 +5573,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="8">
         <v>4</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="10">
+      <c r="C64" s="8"/>
+      <c r="D64" s="11">
         <v>44323</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -5103,16 +5598,16 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="8">
         <v>1</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="10">
+      <c r="C65" s="8"/>
+      <c r="D65" s="11">
         <v>44323</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -5128,16 +5623,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="8">
         <f t="shared" ref="A66:A129" si="1">B66-C66</f>
         <v>9</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="8">
         <v>9</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="10">
+      <c r="C66" s="8"/>
+      <c r="D66" s="11">
         <v>44326</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -5150,18 +5645,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="8">
         <v>10</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>2</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <v>44326</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -5177,16 +5672,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B68" s="7">
-        <v>8</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="10">
+      <c r="B68" s="8">
+        <v>8</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="11">
         <v>44326</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -5202,16 +5697,16 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="8">
         <v>7</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="10">
+      <c r="C69" s="8"/>
+      <c r="D69" s="11">
         <v>44326</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -5227,16 +5722,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="8">
         <v>3</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="10">
+      <c r="C70" s="8"/>
+      <c r="D70" s="11">
         <v>44326</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -5252,16 +5747,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="8">
         <v>2</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="10">
+      <c r="C71" s="8"/>
+      <c r="D71" s="11">
         <v>44326</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -5277,16 +5772,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B72" s="7">
-        <v>8</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="10">
+      <c r="B72" s="8">
+        <v>8</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11">
         <v>44334</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -5302,16 +5797,16 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B73" s="7">
-        <v>8</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="10">
+      <c r="B73" s="8">
+        <v>8</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="11">
         <v>44337</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -5327,16 +5822,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B74" s="7">
-        <v>8</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="10">
+      <c r="B74" s="8">
+        <v>8</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="11">
         <v>44337</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -5352,16 +5847,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B75" s="7">
-        <v>8</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="10">
+      <c r="B75" s="8">
+        <v>8</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="11">
         <v>44337</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -5377,16 +5872,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="8">
         <v>6</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="10">
+      <c r="C76" s="8"/>
+      <c r="D76" s="11">
         <v>44337</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -5402,16 +5897,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="8">
         <v>6</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="10">
+      <c r="C77" s="8"/>
+      <c r="D77" s="11">
         <v>44337</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -5427,16 +5922,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="8">
         <v>4</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="10">
+      <c r="C78" s="8"/>
+      <c r="D78" s="11">
         <v>44337</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -5452,16 +5947,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="8">
         <v>9</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="10">
+      <c r="C79" s="8"/>
+      <c r="D79" s="11">
         <v>44357</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -5477,16 +5972,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+    <row r="80" customHeight="1" spans="1:8">
+      <c r="A80" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="8">
         <v>9</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="10">
+      <c r="C80" s="8"/>
+      <c r="D80" s="11">
         <v>44357</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -5502,16 +5997,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+    <row r="81" customHeight="1" spans="1:8">
+      <c r="A81" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="8">
         <v>9</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="10">
+      <c r="C81" s="8"/>
+      <c r="D81" s="11">
         <v>44357</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -5527,16 +6022,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="8">
         <v>9</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="10">
+      <c r="C82" s="8"/>
+      <c r="D82" s="11">
         <v>44357</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -5549,16 +6044,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="8">
         <v>9</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="10">
+      <c r="C83" s="8"/>
+      <c r="D83" s="11">
         <v>44357</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -5571,16 +6066,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="8">
         <v>9</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="10">
+      <c r="C84" s="8"/>
+      <c r="D84" s="11">
         <v>44357</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -5596,16 +6091,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B85" s="7">
-        <v>8</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="10">
+      <c r="B85" s="8">
+        <v>8</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="11">
         <v>44357</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -5621,16 +6116,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B86" s="7">
-        <v>8</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="10">
+      <c r="B86" s="8">
+        <v>8</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="11">
         <v>44357</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -5646,16 +6141,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B87" s="7">
-        <v>8</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="10">
+      <c r="B87" s="8">
+        <v>8</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="11">
         <v>44357</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -5671,16 +6166,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="8">
         <v>7</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="10">
+      <c r="C88" s="8"/>
+      <c r="D88" s="11">
         <v>44357</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -5696,16 +6191,16 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="8">
         <v>10</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="10">
+      <c r="C89" s="8"/>
+      <c r="D89" s="11">
         <v>44357</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -5718,15 +6213,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B90" s="7">
-        <v>8</v>
-      </c>
-      <c r="D90" s="10">
+      <c r="B90" s="8">
+        <v>8</v>
+      </c>
+      <c r="D90" s="11">
         <v>44362</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -5742,15 +6237,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="8">
         <v>7</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="11">
         <v>44362</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5766,15 +6261,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="8">
         <v>9</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="12">
         <v>44364</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -5790,15 +6285,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
+    <row r="93" customHeight="1" spans="1:8">
+      <c r="A93" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="8">
         <v>9</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="12">
         <v>44364</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -5814,15 +6309,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
+    <row r="94" customHeight="1" spans="1:8">
+      <c r="A94" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B94" s="7">
-        <v>8</v>
-      </c>
-      <c r="D94" s="11">
+      <c r="B94" s="8">
+        <v>8</v>
+      </c>
+      <c r="D94" s="12">
         <v>44364</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -5838,15 +6333,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
+    <row r="95" customHeight="1" spans="1:8">
+      <c r="A95" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="8">
         <v>7</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="12">
         <v>44364</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -5862,15 +6357,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="8">
         <v>5</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="12">
         <v>44364</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -5883,15 +6378,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="8">
         <v>9</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="12">
         <v>44378</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -5907,15 +6402,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="8">
         <v>9</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="12">
         <v>44378</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -5931,15 +6426,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="8">
         <v>9</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="12">
         <v>44378</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -5955,15 +6450,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B100" s="7">
-        <v>8</v>
-      </c>
-      <c r="D100" s="11">
+      <c r="B100" s="8">
+        <v>8</v>
+      </c>
+      <c r="D100" s="12">
         <v>44378</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -5979,15 +6474,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="8">
         <v>7</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="12">
         <v>44378</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -6003,15 +6498,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="8">
         <v>7</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="12">
         <v>44378</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -6027,15 +6522,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="8">
         <v>4</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="12">
         <v>44378</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -6048,15 +6543,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="8">
         <v>1</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="12">
         <v>44378</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -6069,15 +6564,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="8">
         <v>9</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="10">
         <v>44379</v>
       </c>
       <c r="E105" s="4" t="s">
@@ -6093,15 +6588,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B106" s="7">
-        <v>8</v>
-      </c>
-      <c r="D106" s="11">
+      <c r="B106" s="8">
+        <v>8</v>
+      </c>
+      <c r="D106" s="12">
         <v>44379</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -6117,15 +6612,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="8">
         <v>10</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="12">
         <v>44392</v>
       </c>
       <c r="E107" s="4" t="s">
@@ -6141,15 +6636,15 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="8">
         <v>10</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="12">
         <v>44392</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -6162,15 +6657,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="8">
         <v>9</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="12">
         <v>44392</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -6186,15 +6681,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="8">
         <v>9</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="12">
         <v>44392</v>
       </c>
       <c r="E110" s="4" t="s">
@@ -6210,15 +6705,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="8">
         <v>9</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="12">
         <v>44392</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -6228,15 +6723,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B112" s="7">
-        <v>8</v>
-      </c>
-      <c r="D112" s="11">
+      <c r="B112" s="8">
+        <v>8</v>
+      </c>
+      <c r="D112" s="12">
         <v>44392</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -6249,15 +6744,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B113" s="7">
-        <v>8</v>
-      </c>
-      <c r="D113" s="11">
+      <c r="B113" s="8">
+        <v>8</v>
+      </c>
+      <c r="D113" s="12">
         <v>44392</v>
       </c>
       <c r="E113" s="4" t="s">
@@ -6270,15 +6765,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="8">
         <v>7</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="12">
         <v>44392</v>
       </c>
       <c r="E114" s="4" t="s">
@@ -6294,15 +6789,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="8">
         <v>6</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="12">
         <v>44392</v>
       </c>
       <c r="E115" s="4" t="s">
@@ -6318,15 +6813,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="8">
         <v>10</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="12">
         <v>44396</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -6342,21 +6837,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="8">
         <v>10</v>
       </c>
       <c r="C117" s="4">
         <v>9</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="12">
         <v>44396</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="15" t="s">
         <v>343</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -6369,15 +6864,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="8">
         <v>9</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="12">
         <v>44396</v>
       </c>
       <c r="E118" s="4" t="s">
@@ -6393,15 +6888,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="8">
         <v>9</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="12">
         <v>44396</v>
       </c>
       <c r="E119" s="4" t="s">
@@ -6417,15 +6912,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="8">
         <v>9</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="12">
         <v>44396</v>
       </c>
       <c r="E120" s="4" t="s">
@@ -6441,15 +6936,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="8">
         <v>9</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="12">
         <v>44396</v>
       </c>
       <c r="E121" s="4" t="s">
@@ -6465,15 +6960,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+    <row r="122" customHeight="1" spans="1:8">
+      <c r="A122" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="8">
         <v>9</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="12">
         <v>44396</v>
       </c>
       <c r="E122" s="4" t="s">
@@ -6489,15 +6984,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B123" s="7">
-        <v>8</v>
-      </c>
-      <c r="D123" s="11">
+      <c r="B123" s="8">
+        <v>8</v>
+      </c>
+      <c r="D123" s="12">
         <v>44396</v>
       </c>
       <c r="E123" s="4" t="s">
@@ -6513,15 +7008,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B124" s="7">
-        <v>8</v>
-      </c>
-      <c r="D124" s="11">
+      <c r="B124" s="8">
+        <v>8</v>
+      </c>
+      <c r="D124" s="12">
         <v>44396</v>
       </c>
       <c r="E124" s="4" t="s">
@@ -6537,15 +7032,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="8">
         <v>7</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="12">
         <v>44396</v>
       </c>
       <c r="E125" s="4" t="s">
@@ -6561,15 +7056,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="8">
         <v>6</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="12">
         <v>44396</v>
       </c>
       <c r="E126" s="4" t="s">
@@ -6585,15 +7080,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="8">
         <v>5</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="12">
         <v>44396</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -6609,15 +7104,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="8">
         <v>10</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="12">
         <v>44397</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -6633,15 +7128,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="8">
         <v>10</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="12">
         <v>44397</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -6657,15 +7152,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="8">
         <f t="shared" ref="A130:A193" si="2">B130-C130</f>
         <v>10</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="8">
         <v>10</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="12">
         <v>44397</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -6681,15 +7176,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B131" s="7">
-        <v>8</v>
-      </c>
-      <c r="D131" s="11">
+      <c r="B131" s="8">
+        <v>8</v>
+      </c>
+      <c r="D131" s="12">
         <v>44397</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -6705,15 +7200,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="8">
         <v>10</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="12">
         <v>44399</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -6729,15 +7224,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="8">
         <v>10</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="12">
         <v>44399</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -6753,15 +7248,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="8">
         <v>10</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="12">
         <v>44399</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -6774,15 +7269,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="8">
         <v>10</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D135" s="12">
         <v>44399</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -6798,15 +7293,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7">
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="8">
         <v>9</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="12">
         <v>44399</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -6819,15 +7314,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B137" s="7">
-        <v>8</v>
-      </c>
-      <c r="D137" s="11">
+      <c r="B137" s="8">
+        <v>8</v>
+      </c>
+      <c r="D137" s="12">
         <v>44399</v>
       </c>
       <c r="E137" s="4" t="s">
@@ -6843,15 +7338,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7">
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="8">
         <v>7</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="12">
         <v>44399</v>
       </c>
       <c r="E138" s="4" t="s">
@@ -6864,15 +7359,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="8">
         <v>7</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D139" s="12">
         <v>44399</v>
       </c>
       <c r="E139" s="4" t="s">
@@ -6888,15 +7383,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7">
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="8">
         <v>6</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="12">
         <v>44399</v>
       </c>
       <c r="E140" s="4" t="s">
@@ -6912,15 +7407,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="8">
         <v>5</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="12">
         <v>44399</v>
       </c>
       <c r="E141" s="4" t="s">
@@ -6933,15 +7428,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7">
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="8">
         <v>2</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="12">
         <v>44399</v>
       </c>
       <c r="E142" s="4" t="s">
@@ -6957,15 +7452,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="8">
         <v>10</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="12">
         <v>44400</v>
       </c>
       <c r="E143" s="4" t="s">
@@ -6975,15 +7470,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="8">
         <v>9</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="12">
         <v>44406</v>
       </c>
       <c r="E144" s="4" t="s">
@@ -6999,15 +7494,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="8">
         <v>9</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="12">
         <v>44406</v>
       </c>
       <c r="E145" s="4" t="s">
@@ -7023,15 +7518,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7">
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="8">
         <v>9</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="12">
         <v>44406</v>
       </c>
       <c r="E146" s="4" t="s">
@@ -7044,15 +7539,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B147" s="7">
-        <v>8</v>
-      </c>
-      <c r="D147" s="11">
+      <c r="B147" s="8">
+        <v>8</v>
+      </c>
+      <c r="D147" s="12">
         <v>44406</v>
       </c>
       <c r="E147" s="4" t="s">
@@ -7068,15 +7563,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B148" s="7">
-        <v>8</v>
-      </c>
-      <c r="D148" s="11">
+      <c r="B148" s="8">
+        <v>8</v>
+      </c>
+      <c r="D148" s="12">
         <v>44406</v>
       </c>
       <c r="E148" s="4" t="s">
@@ -7089,15 +7584,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B149" s="7">
-        <v>8</v>
-      </c>
-      <c r="D149" s="11">
+      <c r="B149" s="8">
+        <v>8</v>
+      </c>
+      <c r="D149" s="12">
         <v>44406</v>
       </c>
       <c r="E149" s="4" t="s">
@@ -7113,15 +7608,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B150" s="7">
-        <v>8</v>
-      </c>
-      <c r="D150" s="11">
+      <c r="B150" s="8">
+        <v>8</v>
+      </c>
+      <c r="D150" s="12">
         <v>44406</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -7134,15 +7629,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="8">
         <v>7</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="12">
         <v>44406</v>
       </c>
       <c r="E151" s="4" t="s">
@@ -7158,15 +7653,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="8">
         <v>7</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="12">
         <v>44406</v>
       </c>
       <c r="E152" s="4" t="s">
@@ -7182,15 +7677,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
+    <row r="153" customHeight="1" spans="1:8">
+      <c r="A153" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="8">
         <v>6</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="12">
         <v>44406</v>
       </c>
       <c r="E153" s="4" t="s">
@@ -7200,15 +7695,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="8">
         <v>6</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="12">
         <v>44406</v>
       </c>
       <c r="E154" s="4" t="s">
@@ -7224,15 +7719,15 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
+    <row r="155" customHeight="1" spans="1:8">
+      <c r="A155" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="8">
         <v>6</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="12">
         <v>44406</v>
       </c>
       <c r="E155" s="4" t="s">
@@ -7248,15 +7743,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7">
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="8">
         <v>10</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="12">
         <v>44418</v>
       </c>
       <c r="E156" s="4" t="s">
@@ -7272,15 +7767,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
+    <row r="157" customHeight="1" spans="1:8">
+      <c r="A157" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="8">
         <v>10</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="12">
         <v>44418</v>
       </c>
       <c r="E157" s="4" t="s">
@@ -7293,15 +7788,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="8">
         <v>9</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="12">
         <v>44418</v>
       </c>
       <c r="E158" s="4" t="s">
@@ -7317,18 +7812,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
+    <row r="159" customHeight="1" spans="1:8">
+      <c r="A159" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="8">
         <v>10</v>
       </c>
-      <c r="D159" s="11">
+      <c r="D159" s="12">
         <v>44418</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F159" s="4" t="s">
@@ -7338,15 +7833,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7">
+    <row r="160" customHeight="1" spans="1:8">
+      <c r="A160" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="8">
         <v>9</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="12">
         <v>44418</v>
       </c>
       <c r="E160" s="4" t="s">
@@ -7362,15 +7857,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
+    <row r="161" customHeight="1" spans="1:8">
+      <c r="A161" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="8">
         <v>9</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="12">
         <v>44418</v>
       </c>
       <c r="E161" s="4" t="s">
@@ -7383,15 +7878,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
+    <row r="162" customHeight="1" spans="1:8">
+      <c r="A162" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B162" s="7">
-        <v>8</v>
-      </c>
-      <c r="D162" s="11">
+      <c r="B162" s="8">
+        <v>8</v>
+      </c>
+      <c r="D162" s="12">
         <v>44418</v>
       </c>
       <c r="E162" s="4" t="s">
@@ -7404,15 +7899,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7">
+    <row r="163" customHeight="1" spans="1:8">
+      <c r="A163" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B163" s="7">
-        <v>8</v>
-      </c>
-      <c r="D163" s="11">
+      <c r="B163" s="8">
+        <v>8</v>
+      </c>
+      <c r="D163" s="12">
         <v>44418</v>
       </c>
       <c r="E163" s="4" t="s">
@@ -7428,15 +7923,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
+    <row r="164" customHeight="1" spans="1:8">
+      <c r="A164" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B164" s="7">
-        <v>8</v>
-      </c>
-      <c r="D164" s="11">
+      <c r="B164" s="8">
+        <v>8</v>
+      </c>
+      <c r="D164" s="12">
         <v>44418</v>
       </c>
       <c r="E164" s="4" t="s">
@@ -7452,15 +7947,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7">
+    <row r="165" customHeight="1" spans="1:8">
+      <c r="A165" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B165" s="7">
-        <v>8</v>
-      </c>
-      <c r="D165" s="11">
+      <c r="B165" s="8">
+        <v>8</v>
+      </c>
+      <c r="D165" s="12">
         <v>44418</v>
       </c>
       <c r="E165" s="4" t="s">
@@ -7473,15 +7968,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7">
+    <row r="166" customHeight="1" spans="1:8">
+      <c r="A166" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B166" s="7">
-        <v>8</v>
-      </c>
-      <c r="D166" s="11">
+      <c r="B166" s="8">
+        <v>8</v>
+      </c>
+      <c r="D166" s="12">
         <v>44418</v>
       </c>
       <c r="E166" s="4" t="s">
@@ -7497,15 +7992,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7">
+    <row r="167" customHeight="1" spans="1:8">
+      <c r="A167" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="8">
         <v>7</v>
       </c>
-      <c r="D167" s="11">
+      <c r="D167" s="12">
         <v>44418</v>
       </c>
       <c r="E167" s="4" t="s">
@@ -7521,15 +8016,15 @@
         <v>478</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
+    <row r="168" customHeight="1" spans="1:8">
+      <c r="A168" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="8">
         <v>7</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="12">
         <v>44418</v>
       </c>
       <c r="E168" s="4" t="s">
@@ -7542,15 +8037,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
+    <row r="169" customHeight="1" spans="1:8">
+      <c r="A169" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="8">
         <v>7</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="12">
         <v>44418</v>
       </c>
       <c r="E169" s="4" t="s">
@@ -7566,15 +8061,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
+    <row r="170" customHeight="1" spans="1:8">
+      <c r="A170" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="8">
         <v>6</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="12">
         <v>44418</v>
       </c>
       <c r="E170" s="4" t="s">
@@ -7590,15 +8085,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
+    <row r="171" customHeight="1" spans="1:8">
+      <c r="A171" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="8">
         <v>6</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="12">
         <v>44418</v>
       </c>
       <c r="E171" s="4" t="s">
@@ -7614,15 +8109,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
+    <row r="172" customHeight="1" spans="1:8">
+      <c r="A172" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="8">
         <v>6</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="12">
         <v>44418</v>
       </c>
       <c r="E172" s="4" t="s">
@@ -7635,15 +8130,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
+    <row r="173" customHeight="1" spans="1:8">
+      <c r="A173" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="8">
         <v>5</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="12">
         <v>44418</v>
       </c>
       <c r="E173" s="4" t="s">
@@ -7659,15 +8154,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
+    <row r="174" customHeight="1" spans="1:8">
+      <c r="A174" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="8">
         <v>2</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="12">
         <v>44418</v>
       </c>
       <c r="E174" s="4" t="s">
@@ -7680,15 +8175,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
+    <row r="175" customHeight="1" spans="1:8">
+      <c r="A175" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="8">
         <v>2</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="12">
         <v>44418</v>
       </c>
       <c r="E175" s="4" t="s">
@@ -7701,15 +8196,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
+    <row r="176" customHeight="1" spans="1:8">
+      <c r="A176" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="8">
         <v>10</v>
       </c>
-      <c r="D176" s="11">
+      <c r="D176" s="12">
         <v>44420</v>
       </c>
       <c r="E176" s="4" t="s">
@@ -7725,15 +8220,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
+    <row r="177" customHeight="1" spans="1:8">
+      <c r="A177" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="8">
         <v>10</v>
       </c>
-      <c r="D177" s="11">
+      <c r="D177" s="12">
         <v>44420</v>
       </c>
       <c r="E177" s="4" t="s">
@@ -7749,15 +8244,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
+    <row r="178" customHeight="1" spans="1:8">
+      <c r="A178" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="8">
         <v>9</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="12">
         <v>44420</v>
       </c>
       <c r="E178" s="4" t="s">
@@ -7773,15 +8268,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
+    <row r="179" customHeight="1" spans="1:8">
+      <c r="A179" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="8">
         <v>9</v>
       </c>
-      <c r="D179" s="11">
+      <c r="D179" s="12">
         <v>44420</v>
       </c>
       <c r="E179" s="4" t="s">
@@ -7797,15 +8292,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7">
+    <row r="180" customHeight="1" spans="1:8">
+      <c r="A180" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B180" s="7">
-        <v>8</v>
-      </c>
-      <c r="D180" s="11">
+      <c r="B180" s="8">
+        <v>8</v>
+      </c>
+      <c r="D180" s="12">
         <v>44420</v>
       </c>
       <c r="E180" s="4" t="s">
@@ -7821,15 +8316,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
+    <row r="181" customHeight="1" spans="1:8">
+      <c r="A181" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="8">
         <v>7</v>
       </c>
-      <c r="D181" s="11">
+      <c r="D181" s="12">
         <v>44420</v>
       </c>
       <c r="E181" s="4" t="s">
@@ -7842,15 +8337,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7">
+    <row r="182" customHeight="1" spans="1:8">
+      <c r="A182" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="8">
         <v>7</v>
       </c>
-      <c r="D182" s="11">
+      <c r="D182" s="12">
         <v>44420</v>
       </c>
       <c r="E182" s="4" t="s">
@@ -7866,15 +8361,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7">
+    <row r="183" customHeight="1" spans="1:8">
+      <c r="A183" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="8">
         <v>10</v>
       </c>
-      <c r="D183" s="11">
+      <c r="D183" s="12">
         <v>44424</v>
       </c>
       <c r="E183" s="4" t="s">
@@ -7890,15 +8385,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7">
+    <row r="184" customHeight="1" spans="1:8">
+      <c r="A184" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B184" s="4">
         <v>5</v>
       </c>
-      <c r="D184" s="11">
+      <c r="D184" s="12">
         <v>44424</v>
       </c>
       <c r="E184" s="4" t="s">
@@ -7908,15 +8403,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
+    <row r="185" customHeight="1" spans="1:8">
+      <c r="A185" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B185" s="4">
         <v>3</v>
       </c>
-      <c r="D185" s="11">
+      <c r="D185" s="12">
         <v>44424</v>
       </c>
       <c r="E185" s="4" t="s">
@@ -7929,15 +8424,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
+    <row r="186" customHeight="1" spans="1:8">
+      <c r="A186" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B186" s="4">
         <v>4</v>
       </c>
-      <c r="D186" s="11">
+      <c r="D186" s="12">
         <v>44425</v>
       </c>
       <c r="E186" s="4" t="s">
@@ -7950,15 +8445,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7">
+    <row r="187" customHeight="1" spans="1:8">
+      <c r="A187" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B187" s="4">
         <v>10</v>
       </c>
-      <c r="D187" s="11">
+      <c r="D187" s="12">
         <v>44427</v>
       </c>
       <c r="E187" s="4" t="s">
@@ -7971,15 +8466,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7">
+    <row r="188" customHeight="1" spans="1:8">
+      <c r="A188" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B188" s="4">
         <v>9</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D188" s="12">
         <v>44427</v>
       </c>
       <c r="E188" s="4" t="s">
@@ -7995,15 +8490,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
+    <row r="189" customHeight="1" spans="1:8">
+      <c r="A189" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B189" s="4">
         <v>9</v>
       </c>
-      <c r="D189" s="11">
+      <c r="D189" s="12">
         <v>44427</v>
       </c>
       <c r="E189" s="4" t="s">
@@ -8019,15 +8514,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7">
+    <row r="190" customHeight="1" spans="1:8">
+      <c r="A190" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B190" s="4">
         <v>8</v>
       </c>
-      <c r="D190" s="11">
+      <c r="D190" s="12">
         <v>44427</v>
       </c>
       <c r="E190" s="4" t="s">
@@ -8040,15 +8535,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
+    <row r="191" customHeight="1" spans="1:8">
+      <c r="A191" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B191" s="4">
         <v>7</v>
       </c>
-      <c r="D191" s="11">
+      <c r="D191" s="12">
         <v>44427</v>
       </c>
       <c r="E191" s="4" t="s">
@@ -8064,15 +8559,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="7">
+    <row r="192" customHeight="1" spans="1:8">
+      <c r="A192" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B192" s="4">
         <v>5</v>
       </c>
-      <c r="D192" s="11">
+      <c r="D192" s="12">
         <v>44427</v>
       </c>
       <c r="E192" s="4" t="s">
@@ -8085,15 +8580,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7">
+    <row r="193" customHeight="1" spans="1:8">
+      <c r="A193" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B193" s="4">
         <v>4</v>
       </c>
-      <c r="D193" s="11">
+      <c r="D193" s="12">
         <v>44427</v>
       </c>
       <c r="E193" s="4" t="s">
@@ -8106,15 +8601,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7">
+    <row r="194" customHeight="1" spans="1:8">
+      <c r="A194" s="8">
         <f t="shared" ref="A194:A257" si="3">B194-C194</f>
         <v>8</v>
       </c>
       <c r="B194" s="4">
         <v>8</v>
       </c>
-      <c r="D194" s="11">
+      <c r="D194" s="12">
         <v>44428</v>
       </c>
       <c r="E194" s="4" t="s">
@@ -8127,15 +8622,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7">
+    <row r="195" customHeight="1" spans="1:8">
+      <c r="A195" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B195" s="4">
         <v>5</v>
       </c>
-      <c r="D195" s="11">
+      <c r="D195" s="12">
         <v>44428</v>
       </c>
       <c r="E195" s="4" t="s">
@@ -8148,15 +8643,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="7">
+    <row r="196" customHeight="1" spans="1:8">
+      <c r="A196" s="8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B196" s="4">
         <v>4</v>
       </c>
-      <c r="D196" s="11">
+      <c r="D196" s="12">
         <v>44428</v>
       </c>
       <c r="E196" s="4" t="s">
@@ -8169,15 +8664,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7">
+    <row r="197" customHeight="1" spans="1:8">
+      <c r="A197" s="8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B197" s="4">
         <v>3</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="12">
         <v>44428</v>
       </c>
       <c r="E197" s="4" t="s">
@@ -8190,15 +8685,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7">
+    <row r="198" customHeight="1" spans="1:8">
+      <c r="A198" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B198" s="4">
         <v>2</v>
       </c>
-      <c r="D198" s="11">
+      <c r="D198" s="12">
         <v>44428</v>
       </c>
       <c r="E198" s="4" t="s">
@@ -8211,15 +8706,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7">
+    <row r="199" customHeight="1" spans="1:8">
+      <c r="A199" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B199" s="4">
         <v>2</v>
       </c>
-      <c r="D199" s="11">
+      <c r="D199" s="12">
         <v>44428</v>
       </c>
       <c r="E199" s="4" t="s">
@@ -8232,15 +8727,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7">
+    <row r="200" customHeight="1" spans="1:8">
+      <c r="A200" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B200" s="4">
         <v>1</v>
       </c>
-      <c r="D200" s="11">
+      <c r="D200" s="12">
         <v>44428</v>
       </c>
       <c r="E200" s="4" t="s">
@@ -8253,7 +8748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" customHeight="1" spans="1:8">
       <c r="A201" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8261,7 +8756,7 @@
       <c r="B201" s="4">
         <v>10</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="12">
         <v>44432</v>
       </c>
       <c r="E201" s="4" t="s">
@@ -8277,7 +8772,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" customHeight="1" spans="1:8">
       <c r="A202" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8285,7 +8780,7 @@
       <c r="B202" s="4">
         <v>8</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="12">
         <v>44432</v>
       </c>
       <c r="E202" s="4" t="s">
@@ -8301,7 +8796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" customHeight="1" spans="1:8">
       <c r="A203" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8309,10 +8804,10 @@
       <c r="B203" s="4">
         <v>10</v>
       </c>
-      <c r="D203" s="11">
+      <c r="D203" s="12">
         <v>44432</v>
       </c>
-      <c r="E203" s="14" t="s">
+      <c r="E203" s="15" t="s">
         <v>566</v>
       </c>
       <c r="F203" s="4" t="s">
@@ -8325,7 +8820,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" customHeight="1" spans="1:8">
       <c r="A204" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8333,7 +8828,7 @@
       <c r="B204" s="4">
         <v>7</v>
       </c>
-      <c r="D204" s="11">
+      <c r="D204" s="12">
         <v>44432</v>
       </c>
       <c r="E204" s="4" t="s">
@@ -8349,7 +8844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" customHeight="1" spans="1:8">
       <c r="A205" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8357,7 +8852,7 @@
       <c r="B205" s="4">
         <v>6</v>
       </c>
-      <c r="D205" s="11">
+      <c r="D205" s="12">
         <v>44432</v>
       </c>
       <c r="E205" s="4" t="s">
@@ -8370,7 +8865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" customHeight="1" spans="1:8">
       <c r="A206" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8378,7 +8873,7 @@
       <c r="B206" s="4">
         <v>6</v>
       </c>
-      <c r="D206" s="11">
+      <c r="D206" s="12">
         <v>44432</v>
       </c>
       <c r="E206" s="4" t="s">
@@ -8391,7 +8886,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" customHeight="1" spans="1:8">
       <c r="A207" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8399,7 +8894,7 @@
       <c r="B207" s="4">
         <v>5</v>
       </c>
-      <c r="D207" s="11">
+      <c r="D207" s="12">
         <v>44432</v>
       </c>
       <c r="E207" s="4" t="s">
@@ -8412,7 +8907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" customHeight="1" spans="1:8">
       <c r="A208" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8420,7 +8915,7 @@
       <c r="B208" s="4">
         <v>4</v>
       </c>
-      <c r="D208" s="11">
+      <c r="D208" s="12">
         <v>44432</v>
       </c>
       <c r="E208" s="4" t="s">
@@ -8436,7 +8931,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" customHeight="1" spans="1:8">
       <c r="A209" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8444,7 +8939,7 @@
       <c r="B209" s="4">
         <v>2</v>
       </c>
-      <c r="D209" s="11">
+      <c r="D209" s="12">
         <v>44432</v>
       </c>
       <c r="E209" s="4" t="s">
@@ -8457,15 +8952,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="7">
+    <row r="210" customHeight="1" spans="1:8">
+      <c r="A210" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B210" s="4">
         <v>1</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="12">
         <v>44432</v>
       </c>
       <c r="E210" s="4" t="s">
@@ -8478,8 +8973,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7">
+    <row r="211" customHeight="1" spans="1:8">
+      <c r="A211" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8489,7 +8984,7 @@
       <c r="C211" s="4">
         <v>1</v>
       </c>
-      <c r="D211" s="11">
+      <c r="D211" s="12">
         <v>44432</v>
       </c>
       <c r="E211" s="4" t="s">
@@ -8502,7 +8997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" customHeight="1" spans="1:8">
       <c r="A212" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8510,7 +9005,7 @@
       <c r="B212" s="4">
         <v>8</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="12">
         <v>44433</v>
       </c>
       <c r="E212" s="4" t="s">
@@ -8526,7 +9021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" customHeight="1" spans="1:8">
       <c r="A213" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8534,7 +9029,7 @@
       <c r="B213" s="4">
         <v>7</v>
       </c>
-      <c r="D213" s="11">
+      <c r="D213" s="12">
         <v>44433</v>
       </c>
       <c r="E213" s="4" t="s">
@@ -8550,7 +9045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" customHeight="1" spans="1:8">
       <c r="A214" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8558,7 +9053,7 @@
       <c r="B214" s="4">
         <v>6</v>
       </c>
-      <c r="D214" s="11">
+      <c r="D214" s="12">
         <v>44433</v>
       </c>
       <c r="E214" s="4" t="s">
@@ -8571,7 +9066,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" customHeight="1" spans="1:8">
       <c r="A215" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8579,7 +9074,7 @@
       <c r="B215" s="4">
         <v>5</v>
       </c>
-      <c r="D215" s="11">
+      <c r="D215" s="12">
         <v>44433</v>
       </c>
       <c r="E215" s="4" t="s">
@@ -8592,7 +9087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" customHeight="1" spans="1:8">
       <c r="A216" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8600,7 +9095,7 @@
       <c r="B216" s="4">
         <v>10</v>
       </c>
-      <c r="D216" s="11">
+      <c r="D216" s="12">
         <v>44434</v>
       </c>
       <c r="E216" s="4" t="s">
@@ -8610,7 +9105,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" customHeight="1" spans="1:8">
       <c r="A217" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8618,7 +9113,7 @@
       <c r="B217" s="4">
         <v>10</v>
       </c>
-      <c r="D217" s="11">
+      <c r="D217" s="12">
         <v>44434</v>
       </c>
       <c r="E217" s="4" t="s">
@@ -8634,7 +9129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" customHeight="1" spans="1:8">
       <c r="A218" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8642,7 +9137,7 @@
       <c r="B218" s="4">
         <v>9</v>
       </c>
-      <c r="D218" s="11">
+      <c r="D218" s="12">
         <v>44434</v>
       </c>
       <c r="E218" s="4" t="s">
@@ -8658,7 +9153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" customHeight="1" spans="1:8">
       <c r="A219" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8666,7 +9161,7 @@
       <c r="B219" s="4">
         <v>8</v>
       </c>
-      <c r="D219" s="11">
+      <c r="D219" s="12">
         <v>44434</v>
       </c>
       <c r="E219" s="4" t="s">
@@ -8679,7 +9174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" customHeight="1" spans="1:8">
       <c r="A220" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8687,7 +9182,7 @@
       <c r="B220" s="4">
         <v>8</v>
       </c>
-      <c r="D220" s="11">
+      <c r="D220" s="12">
         <v>44434</v>
       </c>
       <c r="E220" s="4" t="s">
@@ -8703,7 +9198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" customHeight="1" spans="1:8">
       <c r="A221" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8711,7 +9206,7 @@
       <c r="B221" s="4">
         <v>8</v>
       </c>
-      <c r="D221" s="11">
+      <c r="D221" s="12">
         <v>44434</v>
       </c>
       <c r="E221" s="4" t="s">
@@ -8721,7 +9216,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" customHeight="1" spans="1:8">
       <c r="A222" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8729,7 +9224,7 @@
       <c r="B222" s="4">
         <v>8</v>
       </c>
-      <c r="D222" s="11">
+      <c r="D222" s="12">
         <v>44434</v>
       </c>
       <c r="E222" s="4" t="s">
@@ -8742,7 +9237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" customHeight="1" spans="1:8">
       <c r="A223" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8750,7 +9245,7 @@
       <c r="B223" s="4">
         <v>7</v>
       </c>
-      <c r="D223" s="11">
+      <c r="D223" s="12">
         <v>44434</v>
       </c>
       <c r="E223" s="4" t="s">
@@ -8766,7 +9261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" customHeight="1" spans="1:8">
       <c r="A224" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8774,7 +9269,7 @@
       <c r="B224" s="4">
         <v>6</v>
       </c>
-      <c r="D224" s="11">
+      <c r="D224" s="12">
         <v>44434</v>
       </c>
       <c r="E224" s="4" t="s">
@@ -8787,7 +9282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" customHeight="1" spans="1:8">
       <c r="A225" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8795,7 +9290,7 @@
       <c r="B225" s="4">
         <v>5</v>
       </c>
-      <c r="D225" s="11">
+      <c r="D225" s="12">
         <v>44434</v>
       </c>
       <c r="E225" s="4" t="s">
@@ -8808,7 +9303,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" customHeight="1" spans="1:8">
       <c r="A226" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8816,7 +9311,7 @@
       <c r="B226" s="4">
         <v>4</v>
       </c>
-      <c r="D226" s="11">
+      <c r="D226" s="12">
         <v>44434</v>
       </c>
       <c r="E226" s="4" t="s">
@@ -8832,7 +9327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" customHeight="1" spans="1:8">
       <c r="A227" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8840,7 +9335,7 @@
       <c r="B227" s="4">
         <v>4</v>
       </c>
-      <c r="D227" s="11">
+      <c r="D227" s="12">
         <v>44434</v>
       </c>
       <c r="E227" s="4" t="s">
@@ -8853,7 +9348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" customHeight="1" spans="1:8">
       <c r="A228" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8861,7 +9356,7 @@
       <c r="B228" s="4">
         <v>7</v>
       </c>
-      <c r="D228" s="11">
+      <c r="D228" s="12">
         <v>44440</v>
       </c>
       <c r="E228" s="4" t="s">
@@ -8874,7 +9369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" customHeight="1" spans="1:8">
       <c r="A229" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8882,7 +9377,7 @@
       <c r="B229" s="4">
         <v>5</v>
       </c>
-      <c r="D229" s="11">
+      <c r="D229" s="12">
         <v>44442</v>
       </c>
       <c r="E229" s="4" t="s">
@@ -8895,7 +9390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" customHeight="1" spans="1:8">
       <c r="A230" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8903,7 +9398,7 @@
       <c r="B230" s="4">
         <v>4</v>
       </c>
-      <c r="D230" s="11">
+      <c r="D230" s="12">
         <v>44442</v>
       </c>
       <c r="E230" s="4" t="s">
@@ -8916,7 +9411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" customHeight="1" spans="1:8">
       <c r="A231" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8924,7 +9419,7 @@
       <c r="B231" s="4">
         <v>8</v>
       </c>
-      <c r="D231" s="11">
+      <c r="D231" s="12">
         <v>44442</v>
       </c>
       <c r="E231" s="4" t="s">
@@ -8937,7 +9432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" customHeight="1" spans="1:8">
       <c r="A232" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8945,10 +9440,10 @@
       <c r="B232" s="4">
         <v>10</v>
       </c>
-      <c r="D232" s="11">
+      <c r="D232" s="12">
         <v>44442</v>
       </c>
-      <c r="E232" s="14" t="s">
+      <c r="E232" s="15" t="s">
         <v>633</v>
       </c>
       <c r="F232" s="4" t="s">
@@ -8961,7 +9456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" customHeight="1" spans="1:8">
       <c r="A233" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -8969,7 +9464,7 @@
       <c r="B233" s="4">
         <v>3</v>
       </c>
-      <c r="D233" s="11">
+      <c r="D233" s="12">
         <v>44442</v>
       </c>
       <c r="E233" s="4" t="s">
@@ -8982,7 +9477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" customHeight="1" spans="1:8">
       <c r="A234" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8990,10 +9485,10 @@
       <c r="B234" s="4">
         <v>10</v>
       </c>
-      <c r="D234" s="11">
+      <c r="D234" s="12">
         <v>44442</v>
       </c>
-      <c r="E234" s="14" t="s">
+      <c r="E234" s="15" t="s">
         <v>638</v>
       </c>
       <c r="F234" s="4" t="s">
@@ -9003,7 +9498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" customHeight="1" spans="1:8">
       <c r="A235" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9011,10 +9506,10 @@
       <c r="B235" s="4">
         <v>10</v>
       </c>
-      <c r="D235" s="11">
+      <c r="D235" s="12">
         <v>44442</v>
       </c>
-      <c r="E235" s="14" t="s">
+      <c r="E235" s="15" t="s">
         <v>640</v>
       </c>
       <c r="F235" s="4" t="s">
@@ -9024,7 +9519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" customHeight="1" spans="1:8">
       <c r="A236" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9032,7 +9527,7 @@
       <c r="B236" s="4">
         <v>5</v>
       </c>
-      <c r="D236" s="11">
+      <c r="D236" s="12">
         <v>44442</v>
       </c>
       <c r="E236" s="4" t="s">
@@ -9045,7 +9540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" customHeight="1" spans="1:8">
       <c r="A237" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9053,7 +9548,7 @@
       <c r="B237" s="4">
         <v>2</v>
       </c>
-      <c r="D237" s="11">
+      <c r="D237" s="12">
         <v>44442</v>
       </c>
       <c r="E237" s="4" t="s">
@@ -9066,7 +9561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" customHeight="1" spans="1:8">
       <c r="A238" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9074,20 +9569,20 @@
       <c r="B238" s="4">
         <v>7</v>
       </c>
-      <c r="D238" s="11">
+      <c r="D238" s="12">
         <v>44442</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="F238" s="16" t="s">
+      <c r="F238" s="17" t="s">
         <v>647</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" customHeight="1" spans="1:8">
       <c r="A239" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9095,7 +9590,7 @@
       <c r="B239" s="4">
         <v>4</v>
       </c>
-      <c r="D239" s="11">
+      <c r="D239" s="12">
         <v>44442</v>
       </c>
       <c r="E239" s="4" t="s">
@@ -9108,7 +9603,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" customHeight="1" spans="1:8">
       <c r="A240" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9116,7 +9611,7 @@
       <c r="B240" s="4">
         <v>8</v>
       </c>
-      <c r="D240" s="11">
+      <c r="D240" s="12">
         <v>44442</v>
       </c>
       <c r="E240" s="4" t="s">
@@ -9129,7 +9624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" customHeight="1" spans="1:8">
       <c r="A241" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9137,7 +9632,7 @@
       <c r="B241" s="4">
         <v>9</v>
       </c>
-      <c r="D241" s="11">
+      <c r="D241" s="12">
         <v>44442</v>
       </c>
       <c r="E241" s="4" t="s">
@@ -9150,7 +9645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" customHeight="1" spans="1:8">
       <c r="A242" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9158,7 +9653,7 @@
       <c r="B242" s="4">
         <v>8</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="12">
         <v>44442</v>
       </c>
       <c r="E242" s="4" t="s">
@@ -9171,7 +9666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" customHeight="1" spans="1:8">
       <c r="A243" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9179,7 +9674,7 @@
       <c r="B243" s="4">
         <v>4</v>
       </c>
-      <c r="D243" s="11">
+      <c r="D243" s="12">
         <v>44442</v>
       </c>
       <c r="E243" s="4" t="s">
@@ -9192,7 +9687,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" customHeight="1" spans="1:8">
       <c r="A244" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9200,7 +9695,7 @@
       <c r="B244" s="4">
         <v>6</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="12">
         <v>44442</v>
       </c>
       <c r="E244" s="4" t="s">
@@ -9213,7 +9708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" customHeight="1" spans="1:8">
       <c r="A245" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9221,7 +9716,7 @@
       <c r="B245" s="4">
         <v>6</v>
       </c>
-      <c r="D245" s="11">
+      <c r="D245" s="12">
         <v>44442</v>
       </c>
       <c r="E245" s="4" t="s">
@@ -9234,7 +9729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" customHeight="1" spans="1:8">
       <c r="A246" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9242,7 +9737,7 @@
       <c r="B246" s="4">
         <v>8</v>
       </c>
-      <c r="D246" s="11">
+      <c r="D246" s="12">
         <v>44442</v>
       </c>
       <c r="E246" s="4" t="s">
@@ -9255,7 +9750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" customHeight="1" spans="1:8">
       <c r="A247" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9263,10 +9758,10 @@
       <c r="B247" s="4">
         <v>10</v>
       </c>
-      <c r="D247" s="11">
+      <c r="D247" s="12">
         <v>44442</v>
       </c>
-      <c r="E247" s="14" t="s">
+      <c r="E247" s="15" t="s">
         <v>666</v>
       </c>
       <c r="F247" s="4" t="s">
@@ -9276,7 +9771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" customHeight="1" spans="1:8">
       <c r="A248" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9284,10 +9779,10 @@
       <c r="B248" s="4">
         <v>8</v>
       </c>
-      <c r="D248" s="11">
+      <c r="D248" s="12">
         <v>44442</v>
       </c>
-      <c r="E248" s="14" t="s">
+      <c r="E248" s="15" t="s">
         <v>668</v>
       </c>
       <c r="F248" s="4" t="s">
@@ -9297,7 +9792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" customHeight="1" spans="1:8">
       <c r="A249" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9305,7 +9800,7 @@
       <c r="B249" s="4">
         <v>6</v>
       </c>
-      <c r="D249" s="11">
+      <c r="D249" s="12">
         <v>44442</v>
       </c>
       <c r="E249" s="4" t="s">
@@ -9318,7 +9813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" customHeight="1" spans="1:8">
       <c r="A250" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9326,7 +9821,7 @@
       <c r="B250" s="4">
         <v>6</v>
       </c>
-      <c r="D250" s="11">
+      <c r="D250" s="12">
         <v>44442</v>
       </c>
       <c r="E250" s="4" t="s">
@@ -9339,7 +9834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" customHeight="1" spans="1:8">
       <c r="A251" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9347,7 +9842,7 @@
       <c r="B251" s="4">
         <v>8</v>
       </c>
-      <c r="D251" s="11">
+      <c r="D251" s="12">
         <v>44445</v>
       </c>
       <c r="E251" s="4" t="s">
@@ -9360,7 +9855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" customHeight="1" spans="1:8">
       <c r="A252" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9368,7 +9863,7 @@
       <c r="B252" s="4">
         <v>7</v>
       </c>
-      <c r="D252" s="11">
+      <c r="D252" s="12">
         <v>44452</v>
       </c>
       <c r="E252" s="4" t="s">
@@ -9381,7 +9876,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" customHeight="1" spans="1:8">
       <c r="A253" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9389,10 +9884,10 @@
       <c r="B253" s="4">
         <v>10</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="12">
         <v>44452</v>
       </c>
-      <c r="E253" s="15" t="s">
+      <c r="E253" s="16" t="s">
         <v>678</v>
       </c>
       <c r="F253" s="4" t="s">
@@ -9402,7 +9897,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" customHeight="1" spans="1:8">
       <c r="A254" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9410,7 +9905,7 @@
       <c r="B254" s="4">
         <v>4</v>
       </c>
-      <c r="D254" s="11">
+      <c r="D254" s="12">
         <v>44452</v>
       </c>
       <c r="E254" s="4" t="s">
@@ -9423,7 +9918,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" customHeight="1" spans="1:8">
       <c r="A255" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -9431,7 +9926,7 @@
       <c r="B255" s="4">
         <v>3</v>
       </c>
-      <c r="D255" s="11">
+      <c r="D255" s="12">
         <v>44452</v>
       </c>
       <c r="E255" s="4" t="s">
@@ -9444,7 +9939,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" customHeight="1" spans="1:8">
       <c r="A256" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -9452,7 +9947,7 @@
       <c r="B256" s="4">
         <v>2</v>
       </c>
-      <c r="D256" s="11">
+      <c r="D256" s="12">
         <v>44452</v>
       </c>
       <c r="E256" s="4" t="s">
@@ -9465,7 +9960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" customHeight="1" spans="1:8">
       <c r="A257" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9473,7 +9968,7 @@
       <c r="B257" s="4">
         <v>8</v>
       </c>
-      <c r="D257" s="11">
+      <c r="D257" s="12">
         <v>44452</v>
       </c>
       <c r="E257" s="4" t="s">
@@ -9486,7 +9981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" customHeight="1" spans="1:8">
       <c r="A258" s="4">
         <f t="shared" ref="A258:A321" si="4">B258-C258</f>
         <v>6</v>
@@ -9494,7 +9989,7 @@
       <c r="B258" s="4">
         <v>6</v>
       </c>
-      <c r="D258" s="11">
+      <c r="D258" s="12">
         <v>44452</v>
       </c>
       <c r="E258" s="4" t="s">
@@ -9507,7 +10002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" customHeight="1" spans="1:8">
       <c r="A259" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9515,7 +10010,7 @@
       <c r="B259" s="4">
         <v>8</v>
       </c>
-      <c r="D259" s="11">
+      <c r="D259" s="12">
         <v>44452</v>
       </c>
       <c r="E259" s="4" t="s">
@@ -9528,7 +10023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" customHeight="1" spans="1:8">
       <c r="A260" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9536,7 +10031,7 @@
       <c r="B260" s="4">
         <v>4</v>
       </c>
-      <c r="D260" s="11">
+      <c r="D260" s="12">
         <v>44452</v>
       </c>
       <c r="E260" s="4" t="s">
@@ -9546,7 +10041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" customHeight="1" spans="1:8">
       <c r="A261" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -9554,10 +10049,10 @@
       <c r="B261" s="4">
         <v>10</v>
       </c>
-      <c r="D261" s="11">
+      <c r="D261" s="12">
         <v>44452</v>
       </c>
-      <c r="E261" s="15" t="s">
+      <c r="E261" s="16" t="s">
         <v>695</v>
       </c>
       <c r="F261" s="4" t="s">
@@ -9567,7 +10062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" customHeight="1" spans="1:8">
       <c r="A262" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -9575,7 +10070,7 @@
       <c r="B262" s="4">
         <v>2</v>
       </c>
-      <c r="D262" s="11">
+      <c r="D262" s="12">
         <v>44452</v>
       </c>
       <c r="E262" s="4" t="s">
@@ -9588,7 +10083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" customHeight="1" spans="1:8">
       <c r="A263" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9596,7 +10091,7 @@
       <c r="B263" s="4">
         <v>6</v>
       </c>
-      <c r="D263" s="11">
+      <c r="D263" s="12">
         <v>44452</v>
       </c>
       <c r="E263" s="4" t="s">
@@ -9609,7 +10104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" customHeight="1" spans="1:8">
       <c r="A264" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9617,7 +10112,7 @@
       <c r="B264" s="4">
         <v>8</v>
       </c>
-      <c r="D264" s="11">
+      <c r="D264" s="12">
         <v>44452</v>
       </c>
       <c r="E264" s="4" t="s">
@@ -9630,7 +10125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" customHeight="1" spans="1:8">
       <c r="A265" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9638,7 +10133,7 @@
       <c r="B265" s="4">
         <v>8</v>
       </c>
-      <c r="D265" s="11">
+      <c r="D265" s="12">
         <v>44452</v>
       </c>
       <c r="E265" s="4" t="s">
@@ -9654,7 +10149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" customHeight="1" spans="1:8">
       <c r="A266" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9662,7 +10157,7 @@
       <c r="B266" s="4">
         <v>6</v>
       </c>
-      <c r="D266" s="11">
+      <c r="D266" s="12">
         <v>44452</v>
       </c>
       <c r="E266" s="4" t="s">
@@ -9675,7 +10170,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" customHeight="1" spans="1:8">
       <c r="A267" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9686,7 +10181,7 @@
       <c r="C267" s="4">
         <v>5</v>
       </c>
-      <c r="D267" s="11">
+      <c r="D267" s="12">
         <v>44452</v>
       </c>
       <c r="E267" s="4" t="s">
@@ -9699,7 +10194,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" customHeight="1" spans="1:8">
       <c r="A268" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -9707,7 +10202,7 @@
       <c r="B268" s="4">
         <v>10</v>
       </c>
-      <c r="D268" s="11">
+      <c r="D268" s="12">
         <v>44452</v>
       </c>
       <c r="E268" s="4" t="s">
@@ -9720,7 +10215,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" customHeight="1" spans="1:9">
       <c r="A269" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -9728,7 +10223,7 @@
       <c r="B269" s="4">
         <v>10</v>
       </c>
-      <c r="D269" s="11">
+      <c r="D269" s="12">
         <v>44452</v>
       </c>
       <c r="E269" s="4" t="s">
@@ -9744,7 +10239,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" customHeight="1" spans="1:8">
       <c r="A270" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9752,7 +10247,7 @@
       <c r="B270" s="4">
         <v>7</v>
       </c>
-      <c r="D270" s="11">
+      <c r="D270" s="12">
         <v>44452</v>
       </c>
       <c r="E270" s="4" t="s">
@@ -9765,7 +10260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" customHeight="1" spans="1:9">
       <c r="A271" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9773,7 +10268,7 @@
       <c r="B271" s="4">
         <v>8</v>
       </c>
-      <c r="D271" s="11">
+      <c r="D271" s="12">
         <v>44452</v>
       </c>
       <c r="E271" s="4" t="s">
@@ -9789,7 +10284,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" customHeight="1" spans="1:8">
       <c r="A272" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9797,7 +10292,7 @@
       <c r="B272" s="4">
         <v>4</v>
       </c>
-      <c r="D272" s="11">
+      <c r="D272" s="12">
         <v>44452</v>
       </c>
       <c r="E272" s="4" t="s">
@@ -9810,7 +10305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" customHeight="1" spans="1:8">
       <c r="A273" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9818,7 +10313,7 @@
       <c r="B273" s="4">
         <v>8</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="12">
         <v>44452</v>
       </c>
       <c r="E273" s="4" t="s">
@@ -9831,7 +10326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" customHeight="1" spans="1:8">
       <c r="A274" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9839,7 +10334,7 @@
       <c r="B274" s="4">
         <v>8</v>
       </c>
-      <c r="D274" s="11">
+      <c r="D274" s="12">
         <v>44452</v>
       </c>
       <c r="E274" s="4" t="s">
@@ -9852,7 +10347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" customHeight="1" spans="1:9">
       <c r="A275" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9860,7 +10355,7 @@
       <c r="B275" s="4">
         <v>7</v>
       </c>
-      <c r="D275" s="11">
+      <c r="D275" s="12">
         <v>44453</v>
       </c>
       <c r="E275" s="4" t="s">
@@ -9879,7 +10374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" customHeight="1" spans="1:9">
       <c r="A276" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9887,7 +10382,7 @@
       <c r="B276" s="4">
         <v>6</v>
       </c>
-      <c r="D276" s="11">
+      <c r="D276" s="12">
         <v>44453</v>
       </c>
       <c r="E276" s="4" t="s">
@@ -9903,7 +10398,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" customHeight="1" spans="1:8">
       <c r="A277" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9911,7 +10406,7 @@
       <c r="B277" s="4">
         <v>7</v>
       </c>
-      <c r="D277" s="11">
+      <c r="D277" s="12">
         <v>44453</v>
       </c>
       <c r="E277" s="4" t="s">
@@ -9924,7 +10419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" customHeight="1" spans="1:8">
       <c r="A278" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9932,7 +10427,7 @@
       <c r="B278" s="4">
         <v>8</v>
       </c>
-      <c r="D278" s="11">
+      <c r="D278" s="12">
         <v>44453</v>
       </c>
       <c r="E278" s="4" t="s">
@@ -9945,7 +10440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" customHeight="1" spans="1:9">
       <c r="A279" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -9953,7 +10448,7 @@
       <c r="B279" s="4">
         <v>10</v>
       </c>
-      <c r="D279" s="11">
+      <c r="D279" s="12">
         <v>44453</v>
       </c>
       <c r="E279" s="4" t="s">
@@ -9972,7 +10467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" customHeight="1" spans="1:8">
       <c r="A280" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9980,7 +10475,7 @@
       <c r="B280" s="4">
         <v>4</v>
       </c>
-      <c r="D280" s="11">
+      <c r="D280" s="12">
         <v>44453</v>
       </c>
       <c r="E280" s="4" t="s">
@@ -9990,7 +10485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" customHeight="1" spans="1:9">
       <c r="A281" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -9998,7 +10493,7 @@
       <c r="B281" s="4">
         <v>10</v>
       </c>
-      <c r="D281" s="11">
+      <c r="D281" s="12">
         <v>44453</v>
       </c>
       <c r="E281" s="4" t="s">
@@ -10014,7 +10509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" customHeight="1" spans="1:8">
       <c r="A282" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10022,7 +10517,7 @@
       <c r="B282" s="4">
         <v>6</v>
       </c>
-      <c r="D282" s="11">
+      <c r="D282" s="12">
         <v>44453</v>
       </c>
       <c r="E282" s="4" t="s">
@@ -10035,7 +10530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" customHeight="1" spans="1:8">
       <c r="A283" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10043,7 +10538,7 @@
       <c r="B283" s="4">
         <v>6</v>
       </c>
-      <c r="D283" s="11">
+      <c r="D283" s="12">
         <v>44457</v>
       </c>
       <c r="E283" s="4" t="s">
@@ -10056,7 +10551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" customHeight="1" spans="1:8">
       <c r="A284" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10064,7 +10559,7 @@
       <c r="B284" s="4">
         <v>8</v>
       </c>
-      <c r="D284" s="11">
+      <c r="D284" s="12">
         <v>44457</v>
       </c>
       <c r="E284" s="4" t="s">
@@ -10077,7 +10572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" customHeight="1" spans="1:8">
       <c r="A285" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10085,7 +10580,7 @@
       <c r="B285" s="4">
         <v>8</v>
       </c>
-      <c r="D285" s="11">
+      <c r="D285" s="12">
         <v>44457</v>
       </c>
       <c r="E285" s="4" t="s">
@@ -10098,7 +10593,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" customHeight="1" spans="1:8">
       <c r="A286" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10106,7 +10601,7 @@
       <c r="B286" s="4">
         <v>10</v>
       </c>
-      <c r="D286" s="11">
+      <c r="D286" s="12">
         <v>44457</v>
       </c>
       <c r="E286" s="4" t="s">
@@ -10119,7 +10614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" customHeight="1" spans="1:8">
       <c r="A287" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10127,7 +10622,7 @@
       <c r="B287" s="4">
         <v>8</v>
       </c>
-      <c r="D287" s="11">
+      <c r="D287" s="12">
         <v>44457</v>
       </c>
       <c r="E287" s="4" t="s">
@@ -10140,7 +10635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" customHeight="1" spans="1:8">
       <c r="A288" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10148,7 +10643,7 @@
       <c r="B288" s="4">
         <v>10</v>
       </c>
-      <c r="D288" s="11">
+      <c r="D288" s="12">
         <v>44457</v>
       </c>
       <c r="E288" s="4" t="s">
@@ -10161,7 +10656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" customHeight="1" spans="1:8">
       <c r="A289" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10169,7 +10664,7 @@
       <c r="B289" s="4">
         <v>6</v>
       </c>
-      <c r="D289" s="11">
+      <c r="D289" s="12">
         <v>44457</v>
       </c>
       <c r="E289" s="4" t="s">
@@ -10182,7 +10677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" customHeight="1" spans="1:8">
       <c r="A290" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10190,7 +10685,7 @@
       <c r="B290" s="4">
         <v>6</v>
       </c>
-      <c r="D290" s="11">
+      <c r="D290" s="12">
         <v>44457</v>
       </c>
       <c r="E290" s="4" t="s">
@@ -10203,7 +10698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" customHeight="1" spans="1:8">
       <c r="A291" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10211,7 +10706,7 @@
       <c r="B291" s="4">
         <v>8</v>
       </c>
-      <c r="D291" s="11">
+      <c r="D291" s="12">
         <v>44457</v>
       </c>
       <c r="E291" s="4" t="s">
@@ -10224,7 +10719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" customHeight="1" spans="1:8">
       <c r="A292" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10232,7 +10727,7 @@
       <c r="B292" s="4">
         <v>8</v>
       </c>
-      <c r="D292" s="11">
+      <c r="D292" s="12">
         <v>44457</v>
       </c>
       <c r="E292" s="4" t="s">
@@ -10245,7 +10740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" customHeight="1" spans="1:8">
       <c r="A293" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10253,7 +10748,7 @@
       <c r="B293" s="4">
         <v>6</v>
       </c>
-      <c r="D293" s="11">
+      <c r="D293" s="12">
         <v>44457</v>
       </c>
       <c r="E293" s="4" t="s">
@@ -10266,7 +10761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" customHeight="1" spans="1:8">
       <c r="A294" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10274,7 +10769,7 @@
       <c r="B294" s="4">
         <v>8</v>
       </c>
-      <c r="D294" s="11">
+      <c r="D294" s="12">
         <v>44457</v>
       </c>
       <c r="E294" s="4" t="s">
@@ -10287,7 +10782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" customHeight="1" spans="1:9">
       <c r="A295" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10295,7 +10790,7 @@
       <c r="B295" s="4">
         <v>8</v>
       </c>
-      <c r="D295" s="11">
+      <c r="D295" s="12">
         <v>44457</v>
       </c>
       <c r="E295" s="4" t="s">
@@ -10308,7 +10803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" customHeight="1" spans="1:8">
       <c r="A296" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10316,7 +10811,7 @@
       <c r="B296" s="4">
         <v>5</v>
       </c>
-      <c r="D296" s="11">
+      <c r="D296" s="12">
         <v>44457</v>
       </c>
       <c r="E296" s="4" t="s">
@@ -10329,7 +10824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" customHeight="1" spans="1:8">
       <c r="A297" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10337,7 +10832,7 @@
       <c r="B297" s="4">
         <v>5</v>
       </c>
-      <c r="D297" s="11">
+      <c r="D297" s="12">
         <v>44457</v>
       </c>
       <c r="E297" s="4" t="s">
@@ -10347,7 +10842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" customHeight="1" spans="1:8">
       <c r="A298" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10355,7 +10850,7 @@
       <c r="B298" s="4">
         <v>7</v>
       </c>
-      <c r="D298" s="11">
+      <c r="D298" s="12">
         <v>44457</v>
       </c>
       <c r="E298" s="4" t="s">
@@ -10368,7 +10863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" customHeight="1" spans="1:8">
       <c r="A299" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10376,7 +10871,7 @@
       <c r="B299" s="4">
         <v>5</v>
       </c>
-      <c r="D299" s="11">
+      <c r="D299" s="12">
         <v>44457</v>
       </c>
       <c r="E299" s="4" t="s">
@@ -10389,7 +10884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" customHeight="1" spans="1:9">
       <c r="A300" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10397,23 +10892,23 @@
       <c r="B300" s="4">
         <v>6</v>
       </c>
-      <c r="D300" s="11">
+      <c r="D300" s="12">
         <v>44494</v>
       </c>
-      <c r="E300" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="F300" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="H300" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="I300" s="17" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E300" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="F300" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="H300" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I300" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="1:8">
       <c r="A301" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10421,20 +10916,20 @@
       <c r="B301" s="4">
         <v>6</v>
       </c>
-      <c r="D301" s="11">
+      <c r="D301" s="12">
         <v>44494</v>
       </c>
-      <c r="E301" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="F301" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="H301" s="17" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E301" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="H301" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="1:9">
       <c r="A302" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10442,20 +10937,20 @@
       <c r="B302" s="4">
         <v>5</v>
       </c>
-      <c r="D302" s="11">
+      <c r="D302" s="12">
         <v>44494</v>
       </c>
-      <c r="E302" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="H302" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="I302" s="17" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E302" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="H302" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I302" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="1:8">
       <c r="A303" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10463,20 +10958,20 @@
       <c r="B303" s="4">
         <v>8</v>
       </c>
-      <c r="D303" s="11">
+      <c r="D303" s="12">
         <v>44494</v>
       </c>
-      <c r="E303" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="F303" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="H303" s="17" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E303" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="H303" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="1:8">
       <c r="A304" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10484,20 +10979,20 @@
       <c r="B304" s="4">
         <v>7</v>
       </c>
-      <c r="D304" s="11">
+      <c r="D304" s="12">
         <v>44494</v>
       </c>
-      <c r="E304" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="F304" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="H304" s="17" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="H304" s="18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="305" customHeight="1" spans="1:8">
       <c r="A305" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10505,17 +11000,17 @@
       <c r="B305" s="4">
         <v>6</v>
       </c>
-      <c r="D305" s="11">
+      <c r="D305" s="12">
         <v>44494</v>
       </c>
-      <c r="E305" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="H305" s="17" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="H305" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="1:8">
       <c r="A306" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -10523,17 +11018,17 @@
       <c r="B306" s="4">
         <v>9</v>
       </c>
-      <c r="D306" s="11">
+      <c r="D306" s="12">
         <v>44494</v>
       </c>
-      <c r="E306" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="H306" s="17" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E306" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="H306" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="1:8">
       <c r="A307" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -10541,20 +11036,20 @@
       <c r="B307" s="4">
         <v>8</v>
       </c>
-      <c r="D307" s="11">
+      <c r="D307" s="12">
         <v>44494</v>
       </c>
-      <c r="E307" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="F307" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="H307" s="17" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E307" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="H307" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="1:9">
       <c r="A308" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10562,20 +11057,20 @@
       <c r="B308" s="4">
         <v>10</v>
       </c>
-      <c r="D308" s="11">
+      <c r="D308" s="12">
         <v>44494</v>
       </c>
-      <c r="E308" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="H308" s="17" t="s">
-        <v>791</v>
-      </c>
-      <c r="I308" s="17" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E308" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="H308" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="1:8">
       <c r="A309" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10583,20 +11078,20 @@
       <c r="B309" s="4">
         <v>10</v>
       </c>
-      <c r="D309" s="11">
+      <c r="D309" s="12">
         <v>44494</v>
       </c>
-      <c r="E309" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="F309" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="H309" s="17" t="s">
+      <c r="E309" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="F309" s="18" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H309" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="1:8">
       <c r="A310" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -10604,20 +11099,20 @@
       <c r="B310" s="4">
         <v>9</v>
       </c>
-      <c r="D310" s="11">
+      <c r="D310" s="12">
         <v>44494</v>
       </c>
-      <c r="E310" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="F310" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="H310" s="17" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E310" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="H310" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:9">
       <c r="A311" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10625,23 +11120,23 @@
       <c r="B311" s="4">
         <v>10</v>
       </c>
-      <c r="D311" s="11">
+      <c r="D311" s="12">
         <v>44494</v>
       </c>
-      <c r="E311" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="F311" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="H311" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="I311" s="17" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="F311" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="H311" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:8">
       <c r="A312" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10649,20 +11144,20 @@
       <c r="B312" s="4">
         <v>7</v>
       </c>
-      <c r="D312" s="11">
+      <c r="D312" s="12">
         <v>44494</v>
       </c>
-      <c r="E312" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="F312" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="H312" s="17" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="H312" s="18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:9">
       <c r="A313" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10670,20 +11165,20 @@
       <c r="B313" s="4">
         <v>6</v>
       </c>
-      <c r="D313" s="11">
+      <c r="D313" s="12">
         <v>44494</v>
       </c>
-      <c r="E313" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="F313" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="I313" s="17" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="F313" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="I313" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:9">
       <c r="A314" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10691,41 +11186,44 @@
       <c r="B314" s="4">
         <v>7</v>
       </c>
-      <c r="D314" s="11">
+      <c r="D314" s="12">
         <v>44494</v>
       </c>
-      <c r="E314" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="F314" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="I314" s="17" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E314" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="F314" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="I314" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:9">
       <c r="A315" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B315" s="4">
         <v>10</v>
       </c>
-      <c r="D315" s="11">
+      <c r="C315" s="4">
+        <v>9</v>
+      </c>
+      <c r="D315" s="12">
         <v>44494</v>
       </c>
-      <c r="E315" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="H315" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="I315" s="17" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E315" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="H315" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I315" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:9">
       <c r="A316" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -10733,20 +11231,20 @@
       <c r="B316" s="4">
         <v>6</v>
       </c>
-      <c r="D316" s="11">
+      <c r="D316" s="12">
         <v>44494</v>
       </c>
-      <c r="E316" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="F316" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="I316" s="17" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E316" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="F316" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="I316" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:9">
       <c r="A317" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -10754,1121 +11252,1120 @@
       <c r="B317" s="4">
         <v>7</v>
       </c>
-      <c r="D317" s="11">
+      <c r="D317" s="12">
         <v>44494</v>
       </c>
-      <c r="E317" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="H317" s="17" t="s">
-        <v>791</v>
-      </c>
-      <c r="I317" s="17" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E317" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="H317" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I317" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="1:1">
       <c r="A318" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" customHeight="1" spans="1:1">
       <c r="A319" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" customHeight="1" spans="1:1">
       <c r="A320" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" customHeight="1" spans="1:1">
       <c r="A321" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" customHeight="1" spans="1:1">
       <c r="A322" s="4">
         <f t="shared" ref="A322:A385" si="5">B322-C322</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" customHeight="1" spans="1:1">
       <c r="A323" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" customHeight="1" spans="1:1">
       <c r="A324" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" customHeight="1" spans="1:1">
       <c r="A325" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" customHeight="1" spans="1:1">
       <c r="A326" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" customHeight="1" spans="1:1">
       <c r="A327" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" customHeight="1" spans="1:1">
       <c r="A328" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" customHeight="1" spans="1:1">
       <c r="A329" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" customHeight="1" spans="1:1">
       <c r="A330" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" customHeight="1" spans="1:1">
       <c r="A331" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" customHeight="1" spans="1:1">
       <c r="A332" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" customHeight="1" spans="1:1">
       <c r="A333" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" customHeight="1" spans="1:1">
       <c r="A334" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" customHeight="1" spans="1:1">
       <c r="A335" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" customHeight="1" spans="1:1">
       <c r="A336" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" customHeight="1" spans="1:1">
       <c r="A337" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" customHeight="1" spans="1:1">
       <c r="A338" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" customHeight="1" spans="1:1">
       <c r="A339" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" customHeight="1" spans="1:1">
       <c r="A340" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" customHeight="1" spans="1:1">
       <c r="A341" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" customHeight="1" spans="1:1">
       <c r="A342" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" customHeight="1" spans="1:1">
       <c r="A343" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" customHeight="1" spans="1:1">
       <c r="A344" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" customHeight="1" spans="1:1">
       <c r="A345" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" customHeight="1" spans="1:1">
       <c r="A346" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" customHeight="1" spans="1:1">
       <c r="A347" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" customHeight="1" spans="1:1">
       <c r="A348" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" customHeight="1" spans="1:1">
       <c r="A349" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" customHeight="1" spans="1:1">
       <c r="A350" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" customHeight="1" spans="1:1">
       <c r="A351" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" customHeight="1" spans="1:1">
       <c r="A352" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" customHeight="1" spans="1:1">
       <c r="A353" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" customHeight="1" spans="1:1">
       <c r="A354" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" customHeight="1" spans="1:1">
       <c r="A355" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" customHeight="1" spans="1:1">
       <c r="A356" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" customHeight="1" spans="1:1">
       <c r="A357" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" customHeight="1" spans="1:1">
       <c r="A358" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" customHeight="1" spans="1:1">
       <c r="A359" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" customHeight="1" spans="1:1">
       <c r="A360" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" customHeight="1" spans="1:1">
       <c r="A361" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" customHeight="1" spans="1:1">
       <c r="A362" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" customHeight="1" spans="1:1">
       <c r="A363" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" customHeight="1" spans="1:1">
       <c r="A364" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" customHeight="1" spans="1:1">
       <c r="A365" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" customHeight="1" spans="1:1">
       <c r="A366" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" customHeight="1" spans="1:1">
       <c r="A367" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" customHeight="1" spans="1:1">
       <c r="A368" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" customHeight="1" spans="1:1">
       <c r="A369" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" customHeight="1" spans="1:1">
       <c r="A370" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" customHeight="1" spans="1:1">
       <c r="A371" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" customHeight="1" spans="1:1">
       <c r="A372" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" customHeight="1" spans="1:1">
       <c r="A373" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" customHeight="1" spans="1:1">
       <c r="A374" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" customHeight="1" spans="1:1">
       <c r="A375" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" customHeight="1" spans="1:1">
       <c r="A376" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" customHeight="1" spans="1:1">
       <c r="A377" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" customHeight="1" spans="1:1">
       <c r="A378" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" customHeight="1" spans="1:1">
       <c r="A379" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" customHeight="1" spans="1:1">
       <c r="A380" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" customHeight="1" spans="1:1">
       <c r="A381" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" customHeight="1" spans="1:1">
       <c r="A382" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" customHeight="1" spans="1:1">
       <c r="A383" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" customHeight="1" spans="1:1">
       <c r="A384" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" customHeight="1" spans="1:1">
       <c r="A385" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" customHeight="1" spans="1:1">
       <c r="A386" s="4">
         <f t="shared" ref="A386:A449" si="6">B386-C386</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" customHeight="1" spans="1:1">
       <c r="A387" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" customHeight="1" spans="1:1">
       <c r="A388" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" customHeight="1" spans="1:1">
       <c r="A389" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" customHeight="1" spans="1:1">
       <c r="A390" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" customHeight="1" spans="1:1">
       <c r="A391" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" customHeight="1" spans="1:1">
       <c r="A392" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" customHeight="1" spans="1:1">
       <c r="A393" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" customHeight="1" spans="1:1">
       <c r="A394" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" customHeight="1" spans="1:1">
       <c r="A395" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" customHeight="1" spans="1:1">
       <c r="A396" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" customHeight="1" spans="1:1">
       <c r="A397" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" customHeight="1" spans="1:1">
       <c r="A398" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" customHeight="1" spans="1:1">
       <c r="A399" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" customHeight="1" spans="1:1">
       <c r="A400" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" customHeight="1" spans="1:1">
       <c r="A401" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" customHeight="1" spans="1:1">
       <c r="A402" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" customHeight="1" spans="1:1">
       <c r="A403" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" customHeight="1" spans="1:1">
       <c r="A404" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" customHeight="1" spans="1:1">
       <c r="A405" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" customHeight="1" spans="1:1">
       <c r="A406" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" customHeight="1" spans="1:1">
       <c r="A407" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" customHeight="1" spans="1:1">
       <c r="A408" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" customHeight="1" spans="1:1">
       <c r="A409" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" customHeight="1" spans="1:1">
       <c r="A410" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" customHeight="1" spans="1:1">
       <c r="A411" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" customHeight="1" spans="1:1">
       <c r="A412" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" customHeight="1" spans="1:1">
       <c r="A413" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" customHeight="1" spans="1:1">
       <c r="A414" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" customHeight="1" spans="1:1">
       <c r="A415" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" customHeight="1" spans="1:1">
       <c r="A416" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" customHeight="1" spans="1:1">
       <c r="A417" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" customHeight="1" spans="1:1">
       <c r="A418" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" customHeight="1" spans="1:1">
       <c r="A419" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" customHeight="1" spans="1:1">
       <c r="A420" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" customHeight="1" spans="1:1">
       <c r="A421" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" customHeight="1" spans="1:1">
       <c r="A422" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" customHeight="1" spans="1:1">
       <c r="A423" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" customHeight="1" spans="1:1">
       <c r="A424" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" customHeight="1" spans="1:1">
       <c r="A425" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" customHeight="1" spans="1:1">
       <c r="A426" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" customHeight="1" spans="1:1">
       <c r="A427" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" customHeight="1" spans="1:1">
       <c r="A428" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" customHeight="1" spans="1:1">
       <c r="A429" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" customHeight="1" spans="1:1">
       <c r="A430" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" customHeight="1" spans="1:1">
       <c r="A431" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" customHeight="1" spans="1:1">
       <c r="A432" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" customHeight="1" spans="1:1">
       <c r="A433" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" customHeight="1" spans="1:1">
       <c r="A434" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" customHeight="1" spans="1:1">
       <c r="A435" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" customHeight="1" spans="1:1">
       <c r="A436" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" customHeight="1" spans="1:1">
       <c r="A437" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" customHeight="1" spans="1:1">
       <c r="A438" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" customHeight="1" spans="1:1">
       <c r="A439" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" customHeight="1" spans="1:1">
       <c r="A440" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" customHeight="1" spans="1:1">
       <c r="A441" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" customHeight="1" spans="1:1">
       <c r="A442" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" customHeight="1" spans="1:1">
       <c r="A443" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" customHeight="1" spans="1:1">
       <c r="A444" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" customHeight="1" spans="1:1">
       <c r="A445" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" customHeight="1" spans="1:1">
       <c r="A446" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" customHeight="1" spans="1:1">
       <c r="A447" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" customHeight="1" spans="1:1">
       <c r="A448" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" customHeight="1" spans="1:1">
       <c r="A449" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" customHeight="1" spans="1:1">
       <c r="A450" s="4">
         <f t="shared" ref="A450:A500" si="7">B450-C450</f>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" customHeight="1" spans="1:1">
       <c r="A451" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" customHeight="1" spans="1:1">
       <c r="A452" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" customHeight="1" spans="1:1">
       <c r="A453" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" customHeight="1" spans="1:1">
       <c r="A454" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" customHeight="1" spans="1:1">
       <c r="A455" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" customHeight="1" spans="1:1">
       <c r="A456" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" customHeight="1" spans="1:1">
       <c r="A457" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" customHeight="1" spans="1:1">
       <c r="A458" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" customHeight="1" spans="1:1">
       <c r="A459" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" customHeight="1" spans="1:1">
       <c r="A460" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" customHeight="1" spans="1:1">
       <c r="A461" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" customHeight="1" spans="1:1">
       <c r="A462" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" customHeight="1" spans="1:1">
       <c r="A463" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" customHeight="1" spans="1:1">
       <c r="A464" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" customHeight="1" spans="1:1">
       <c r="A465" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" customHeight="1" spans="1:1">
       <c r="A466" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" customHeight="1" spans="1:1">
       <c r="A467" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" customHeight="1" spans="1:1">
       <c r="A468" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" customHeight="1" spans="1:1">
       <c r="A469" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" customHeight="1" spans="1:1">
       <c r="A470" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" customHeight="1" spans="1:1">
       <c r="A471" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" customHeight="1" spans="1:1">
       <c r="A472" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" customHeight="1" spans="1:1">
       <c r="A473" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" customHeight="1" spans="1:1">
       <c r="A474" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" customHeight="1" spans="1:1">
       <c r="A475" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" customHeight="1" spans="1:1">
       <c r="A476" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" customHeight="1" spans="1:1">
       <c r="A477" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" customHeight="1" spans="1:1">
       <c r="A478" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" customHeight="1" spans="1:1">
       <c r="A479" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" customHeight="1" spans="1:1">
       <c r="A480" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" customHeight="1" spans="1:1">
       <c r="A481" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" customHeight="1" spans="1:1">
       <c r="A482" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" customHeight="1" spans="1:1">
       <c r="A483" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" customHeight="1" spans="1:1">
       <c r="A484" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" customHeight="1" spans="1:1">
       <c r="A485" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" customHeight="1" spans="1:1">
       <c r="A486" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" customHeight="1" spans="1:1">
       <c r="A487" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" customHeight="1" spans="1:1">
       <c r="A488" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" customHeight="1" spans="1:1">
       <c r="A489" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" customHeight="1" spans="1:1">
       <c r="A490" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" customHeight="1" spans="1:1">
       <c r="A491" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" customHeight="1" spans="1:1">
       <c r="A492" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" customHeight="1" spans="1:1">
       <c r="A493" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" customHeight="1" spans="1:1">
       <c r="A494" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" customHeight="1" spans="1:1">
       <c r="A495" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" customHeight="1" spans="1:1">
       <c r="A496" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" customHeight="1" spans="1:1">
       <c r="A497" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" customHeight="1" spans="1:1">
       <c r="A498" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" customHeight="1" spans="1:1">
       <c r="A499" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" customHeight="1" spans="1:1">
       <c r="A500" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <autoFilter ref="A1:H501"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11881,39 +12378,42 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F238" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F238" r:id="rId1" display="https://spring.io/projects/spring-security"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -11923,10 +12423,10 @@
       </c>
       <c r="C2">
         <f ca="1">SUM(B:B)</f>
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -11935,7 +12435,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -11944,7 +12444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -11953,7 +12453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -11962,7 +12462,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -11971,7 +12471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -11980,16 +12480,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9">
         <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -11998,7 +12498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -12007,7 +12507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12016,7 +12516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -12025,7 +12525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -12034,7 +12534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -12043,7 +12543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -12052,7 +12552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -12061,7 +12561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -12070,7 +12570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -12079,7 +12579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -12088,7 +12588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -12097,7 +12597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -12106,7 +12606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -12115,7 +12615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -12124,7 +12624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -12133,7 +12633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -12142,7 +12642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>264</v>
       </c>
@@ -12151,7 +12651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -12160,7 +12660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -12169,7 +12669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -12178,7 +12678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -12187,7 +12687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>495</v>
       </c>
@@ -12196,7 +12696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>562</v>
       </c>
@@ -12205,7 +12705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="29" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>598</v>
       </c>
@@ -12214,7 +12714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>650</v>
       </c>
@@ -12223,7 +12723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>659</v>
       </c>
@@ -12232,7 +12732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>685</v>
       </c>
@@ -12241,7 +12741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -12250,7 +12750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>712</v>
       </c>
@@ -12259,7 +12759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>729</v>
       </c>
@@ -12268,9 +12768,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>813</v>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="B41">
         <f ca="1">SUMIF(logs!H:I,汇总表!A41,logs!A:A)</f>
@@ -12278,9 +12778,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <autoFilter ref="A1:C41"/>
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12292,21 +12791,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="37.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -12316,35 +12817,35 @@
     <col min="6" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE1197-A22D-4336-A50D-5444A118D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D1AE8-72B7-468D-BE22-419DBFCC339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="818">
   <si>
     <t>权重</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>RequiredArgsConstructor加上这个之后，怎么确定哪些是被要求填入的呢？</t>
-  </si>
-  <si>
-    <t>1、使用NonNull或final标记的属性都会https://blog.csdn.net/waitu88/article/details/112474954</t>
   </si>
   <si>
     <t>实现原理？</t>
@@ -3019,6 +3016,14 @@
   </si>
   <si>
     <t>java日志体系</t>
+  </si>
+  <si>
+    <t>1、使用NonNull或final标记的属性都会https://blog.csdn.net/waitu88/article/details/112474954</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lombok</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3508,9 +3513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3562,20 +3567,20 @@
       <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
-        <v>44392</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>25</v>
+      <c r="D2" s="11">
+        <v>44362</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3586,14 +3591,15 @@
       <c r="B3" s="8">
         <v>10</v>
       </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="11">
-        <v>44362</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>57</v>
+        <v>44357</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
@@ -3607,18 +3613,20 @@
       <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11">
-        <v>44357</v>
+      <c r="D4" s="12">
+        <v>44392</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>266</v>
+        <v>316</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
@@ -3636,16 +3644,13 @@
         <v>44392</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,16 +3662,19 @@
         <v>10</v>
       </c>
       <c r="D6" s="12">
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>321</v>
+        <v>340</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,16 +3686,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="12">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
@@ -3705,16 +3713,16 @@
         <v>44397</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3729,16 +3737,16 @@
         <v>44397</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3750,19 +3758,19 @@
         <v>10</v>
       </c>
       <c r="D10" s="12">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3777,16 +3785,16 @@
         <v>44399</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3801,16 +3809,13 @@
         <v>44399</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3825,13 +3830,16 @@
         <v>44399</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3843,19 +3851,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="12">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3867,13 +3869,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="12">
-        <v>44400</v>
+        <v>44418</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>414</v>
+        <v>446</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3888,16 +3896,13 @@
         <v>44418</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3911,14 +3916,14 @@
       <c r="D17" s="12">
         <v>44418</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>451</v>
+      <c r="E17" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,16 +3935,19 @@
         <v>10</v>
       </c>
       <c r="D18" s="12">
-        <v>44418</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>455</v>
+        <v>44420</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>456</v>
+        <v>500</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,13 +3962,13 @@
         <v>44420</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>20</v>
@@ -3975,19 +3983,19 @@
         <v>10</v>
       </c>
       <c r="D20" s="12">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3995,27 +4003,24 @@
         <f>B21-C21</f>
         <v>10</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="4">
         <v>10</v>
       </c>
       <c r="D21" s="12">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <f>B22-C22</f>
         <v>10</v>
       </c>
@@ -4023,16 +4028,19 @@
         <v>10</v>
       </c>
       <c r="D22" s="12">
-        <v>44427</v>
+        <v>44432</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>529</v>
+        <v>559</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>20</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4046,17 +4054,17 @@
       <c r="D23" s="12">
         <v>44432</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>559</v>
+      <c r="E23" s="15" t="s">
+        <v>565</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>562</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4068,19 +4076,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="12">
-        <v>44432</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>568</v>
+        <v>44434</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>331</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4095,10 +4097,16 @@
         <v>44434</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>598</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4110,19 +4118,19 @@
         <v>10</v>
       </c>
       <c r="D26" s="12">
-        <v>44434</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>599</v>
+        <v>44442</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>632</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4137,16 +4145,13 @@
         <v>44442</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4161,13 +4166,13 @@
         <v>44442</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4182,13 +4187,13 @@
         <v>44442</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4200,16 +4205,16 @@
         <v>10</v>
       </c>
       <c r="D30" s="12">
-        <v>44442</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>666</v>
+        <v>44452</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>677</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>12</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,13 +4229,13 @@
         <v>44452</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>680</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4244,14 +4249,14 @@
       <c r="D32" s="12">
         <v>44452</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>695</v>
+      <c r="E32" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>20</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4266,13 +4271,13 @@
         <v>44452</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>712</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4284,16 +4289,19 @@
         <v>10</v>
       </c>
       <c r="D34" s="12">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>714</v>
+        <v>736</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,16 +4316,13 @@
         <v>44453</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>173</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4329,16 +4334,16 @@
         <v>10</v>
       </c>
       <c r="D36" s="12">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>729</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4353,13 +4358,13 @@
         <v>44457</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4371,15 +4376,12 @@
         <v>10</v>
       </c>
       <c r="D38" s="12">
-        <v>44457</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H38" s="4" t="s">
+        <v>44494</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4394,8 +4396,11 @@
       <c r="D39" s="12">
         <v>44494</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>789</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>790</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>20</v>
@@ -4413,33 +4418,37 @@
         <v>44494</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="8">
         <f>B41-C41</f>
+        <v>9</v>
+      </c>
+      <c r="B41" s="8">
+        <v>9</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9">
+        <v>44327</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="D41" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4451,21 +4460,20 @@
       <c r="B42" s="8">
         <v>9</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9">
-        <v>44327</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>12</v>
+      <c r="D42" s="10">
+        <v>44392</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4479,17 +4487,17 @@
       <c r="D43" s="10">
         <v>44392</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>28</v>
+      <c r="E43" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4503,17 +4511,17 @@
       <c r="D44" s="10">
         <v>44392</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>31</v>
+      <c r="E44" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4528,16 +4536,16 @@
         <v>44392</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,16 +4560,16 @@
         <v>44392</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,58 +4584,58 @@
         <v>44392</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="4">
         <f>B48-C48</f>
         <v>9</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="4">
         <v>9</v>
       </c>
-      <c r="D48" s="10">
-        <v>44392</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>46</v>
+      <c r="D48" s="12">
+        <v>44439</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="8">
         <f>B49-C49</f>
         <v>9</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="8">
         <v>9</v>
       </c>
       <c r="D49" s="12">
-        <v>44439</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>59</v>
+        <v>44306</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>60</v>
+        <v>127</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>20</v>
@@ -4642,16 +4650,16 @@
         <v>9</v>
       </c>
       <c r="D50" s="12">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>20</v>
@@ -4665,17 +4673,12 @@
       <c r="B51" s="8">
         <v>9</v>
       </c>
+      <c r="C51" s="8"/>
       <c r="D51" s="12">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>20</v>
@@ -4691,13 +4694,19 @@
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="12">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="F52" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H52" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4713,16 +4722,16 @@
         <v>44315</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4734,17 +4743,17 @@
         <v>9</v>
       </c>
       <c r="C54" s="8"/>
-      <c r="D54" s="12">
-        <v>44315</v>
+      <c r="D54" s="11">
+        <v>44323</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>20</v>
@@ -4760,19 +4769,16 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="11">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4785,16 +4791,19 @@
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="11">
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>197</v>
+        <v>236</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4810,13 +4819,13 @@
         <v>44357</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>20</v>
@@ -4835,16 +4844,16 @@
         <v>44357</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4860,16 +4869,13 @@
         <v>44357</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4885,13 +4891,13 @@
         <v>44357</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4907,10 +4913,13 @@
         <v>44357</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>20</v>
@@ -4924,18 +4933,17 @@
       <c r="B62" s="8">
         <v>9</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="11">
-        <v>44357</v>
+      <c r="D62" s="12">
+        <v>44364</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>20</v>
@@ -4953,16 +4961,16 @@
         <v>44364</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4974,19 +4982,19 @@
         <v>9</v>
       </c>
       <c r="D64" s="12">
-        <v>44364</v>
+        <v>44378</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5001,13 +5009,13 @@
         <v>44378</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>20</v>
@@ -5025,16 +5033,16 @@
         <v>44378</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5045,20 +5053,20 @@
       <c r="B67" s="8">
         <v>9</v>
       </c>
-      <c r="D67" s="12">
-        <v>44378</v>
+      <c r="D67" s="10">
+        <v>44379</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5069,20 +5077,20 @@
       <c r="B68" s="8">
         <v>9</v>
       </c>
-      <c r="D68" s="10">
-        <v>44379</v>
+      <c r="D68" s="12">
+        <v>44392</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5097,16 +5105,16 @@
         <v>44392</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5121,16 +5129,10 @@
         <v>44392</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" s="4" t="s">
         <v>327</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5142,13 +5144,19 @@
         <v>9</v>
       </c>
       <c r="D71" s="12">
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>328</v>
+        <v>345</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,16 +5171,16 @@
         <v>44396</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5187,16 +5195,16 @@
         <v>44396</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,16 +5219,16 @@
         <v>44396</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5235,16 +5243,16 @@
         <v>44396</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5256,19 +5264,16 @@
         <v>9</v>
       </c>
       <c r="D76" s="12">
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5280,13 +5285,16 @@
         <v>9</v>
       </c>
       <c r="D77" s="12">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>398</v>
+        <v>415</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>12</v>
@@ -5304,13 +5312,13 @@
         <v>44406</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>12</v>
@@ -5328,13 +5336,10 @@
         <v>44406</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>12</v>
@@ -5349,13 +5354,16 @@
         <v>9</v>
       </c>
       <c r="D80" s="12">
-        <v>44406</v>
+        <v>44418</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>422</v>
+        <v>452</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>12</v>
@@ -5373,16 +5381,16 @@
         <v>44418</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5397,16 +5405,13 @@
         <v>44418</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,16 +5423,19 @@
         <v>9</v>
       </c>
       <c r="D83" s="12">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>461</v>
+        <v>506</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5442,16 +5450,16 @@
         <v>44420</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5459,23 +5467,23 @@
         <f>B85-C85</f>
         <v>9</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="4">
         <v>9</v>
       </c>
       <c r="D85" s="12">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5490,20 +5498,20 @@
         <v>44427</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+      <c r="A87" s="4">
         <f>B87-C87</f>
         <v>9</v>
       </c>
@@ -5511,19 +5519,19 @@
         <v>9</v>
       </c>
       <c r="D87" s="12">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5535,19 +5543,16 @@
         <v>9</v>
       </c>
       <c r="D88" s="12">
-        <v>44434</v>
+        <v>44442</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5559,16 +5564,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="12">
-        <v>44442</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>63</v>
+        <v>44494</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5583,31 +5585,40 @@
         <v>44494</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>786</v>
+        <v>791</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>792</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91" s="8">
         <f>B91-C91</f>
-        <v>9</v>
-      </c>
-      <c r="B91" s="4">
-        <v>9</v>
-      </c>
-      <c r="D91" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>793</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>173</v>
+        <v>8</v>
+      </c>
+      <c r="B91" s="8">
+        <v>10</v>
+      </c>
+      <c r="C91" s="8">
+        <v>2</v>
+      </c>
+      <c r="D91" s="11">
+        <v>44326</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,25 +5627,19 @@
         <v>8</v>
       </c>
       <c r="B92" s="8">
-        <v>10</v>
-      </c>
-      <c r="C92" s="8">
-        <v>2</v>
-      </c>
-      <c r="D92" s="11">
-        <v>44326</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>198</v>
+        <v>8</v>
+      </c>
+      <c r="D92" s="10">
+        <v>44379</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5646,16 +5651,19 @@
         <v>8</v>
       </c>
       <c r="D93" s="10">
-        <v>44379</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>22</v>
+        <v>44392</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5669,17 +5677,17 @@
       <c r="D94" s="10">
         <v>44392</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>50</v>
+      <c r="E94" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5690,20 +5698,18 @@
       <c r="B95" s="8">
         <v>8</v>
       </c>
-      <c r="D95" s="10">
-        <v>44392</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>52</v>
+      <c r="C95" s="8"/>
+      <c r="D95" s="11">
+        <v>44293</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,18 +5720,20 @@
       <c r="B96" s="8">
         <v>8</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="11">
-        <v>44293</v>
+      <c r="D96" s="12">
+        <v>44305</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5736,20 +5744,18 @@
       <c r="B97" s="8">
         <v>8</v>
       </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="12">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5761,17 +5767,20 @@
         <v>8</v>
       </c>
       <c r="C98" s="8"/>
-      <c r="D98" s="12">
-        <v>44315</v>
+      <c r="D98" s="11">
+        <v>44323</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>152</v>
+        <v>170</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5787,16 +5796,16 @@
         <v>44323</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5812,16 +5821,16 @@
         <v>44323</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5834,19 +5843,19 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="11">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5859,19 +5868,19 @@
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="11">
-        <v>44326</v>
+        <v>44334</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5884,19 +5893,19 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="11">
-        <v>44334</v>
+        <v>44337</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,16 +5921,16 @@
         <v>44337</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5937,16 +5946,16 @@
         <v>44337</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5959,19 +5968,19 @@
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="11">
-        <v>44337</v>
+        <v>44357</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5987,16 +5996,16 @@
         <v>44357</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6012,16 +6021,16 @@
         <v>44357</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6032,21 +6041,20 @@
       <c r="B109" s="8">
         <v>8</v>
       </c>
-      <c r="C109" s="8"/>
       <c r="D109" s="11">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6057,20 +6065,20 @@
       <c r="B110" s="8">
         <v>8</v>
       </c>
-      <c r="D110" s="11">
-        <v>44362</v>
+      <c r="D110" s="12">
+        <v>44364</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6082,19 +6090,19 @@
         <v>8</v>
       </c>
       <c r="D111" s="12">
-        <v>44364</v>
+        <v>44378</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6106,19 +6114,19 @@
         <v>8</v>
       </c>
       <c r="D112" s="12">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,19 +6138,16 @@
         <v>8</v>
       </c>
       <c r="D113" s="12">
-        <v>44379</v>
+        <v>44392</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>45</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6157,13 +6162,13 @@
         <v>44392</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6175,16 +6180,19 @@
         <v>8</v>
       </c>
       <c r="D115" s="12">
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>333</v>
+        <v>359</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6199,16 +6207,16 @@
         <v>44396</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6220,19 +6228,19 @@
         <v>8</v>
       </c>
       <c r="D117" s="12">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6244,19 +6252,19 @@
         <v>8</v>
       </c>
       <c r="D118" s="12">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6268,19 +6276,19 @@
         <v>8</v>
       </c>
       <c r="D119" s="12">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6295,16 +6303,13 @@
         <v>44406</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,13 +6324,16 @@
         <v>44406</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6340,16 +6348,13 @@
         <v>44406</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6361,16 +6366,16 @@
         <v>8</v>
       </c>
       <c r="D123" s="12">
-        <v>44406</v>
+        <v>44418</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6385,13 +6390,16 @@
         <v>44418</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6406,16 +6414,16 @@
         <v>44418</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6430,16 +6438,13 @@
         <v>44418</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6454,13 +6459,16 @@
         <v>44418</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6472,19 +6480,19 @@
         <v>8</v>
       </c>
       <c r="D128" s="12">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6492,23 +6500,20 @@
         <f>B129-C129</f>
         <v>8</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="4">
         <v>8</v>
       </c>
       <c r="D129" s="12">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6520,20 +6525,20 @@
         <v>8</v>
       </c>
       <c r="D130" s="12">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
+      <c r="A131" s="4">
         <f>B131-C131</f>
         <v>8</v>
       </c>
@@ -6541,16 +6546,19 @@
         <v>8</v>
       </c>
       <c r="D131" s="12">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>546</v>
+        <v>563</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6562,19 +6570,19 @@
         <v>8</v>
       </c>
       <c r="D132" s="12">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6586,19 +6594,16 @@
         <v>8</v>
       </c>
       <c r="D133" s="12">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6613,13 +6618,16 @@
         <v>44434</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6634,16 +6642,10 @@
         <v>44434</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G135" s="4" t="s">
         <v>609</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>92</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,8 +6662,11 @@
       <c r="E136" s="4" t="s">
         <v>610</v>
       </c>
+      <c r="F136" s="4" t="s">
+        <v>611</v>
+      </c>
       <c r="H136" s="4" t="s">
-        <v>598</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6673,16 +6678,16 @@
         <v>8</v>
       </c>
       <c r="D137" s="12">
-        <v>44434</v>
+        <v>44442</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6697,13 +6702,13 @@
         <v>44442</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6718,13 +6723,13 @@
         <v>44442</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6739,13 +6744,13 @@
         <v>44442</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6759,14 +6764,14 @@
       <c r="D141" s="12">
         <v>44442</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>664</v>
+      <c r="E141" s="15" t="s">
+        <v>667</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6778,13 +6783,13 @@
         <v>8</v>
       </c>
       <c r="D142" s="12">
-        <v>44442</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>668</v>
+        <v>44445</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>673</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>20</v>
@@ -6799,16 +6804,16 @@
         <v>8</v>
       </c>
       <c r="D143" s="12">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6823,13 +6828,13 @@
         <v>44452</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6844,13 +6849,13 @@
         <v>44452</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6865,13 +6870,16 @@
         <v>44452</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6886,16 +6894,13 @@
         <v>44452</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6910,13 +6915,13 @@
         <v>44452</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6931,13 +6936,13 @@
         <v>44452</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6949,16 +6954,16 @@
         <v>8</v>
       </c>
       <c r="D150" s="12">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6970,13 +6975,13 @@
         <v>8</v>
       </c>
       <c r="D151" s="12">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>20</v>
@@ -6994,13 +6999,13 @@
         <v>44457</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>20</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7015,13 +7020,13 @@
         <v>44457</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>562</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7036,13 +7041,13 @@
         <v>44457</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7057,13 +7062,13 @@
         <v>44457</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7078,13 +7083,13 @@
         <v>44457</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7099,13 +7104,10 @@
         <v>44457</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="F157" s="4" t="s">
         <v>767</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>20</v>
+        <v>561</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7117,13 +7119,16 @@
         <v>8</v>
       </c>
       <c r="D158" s="12">
-        <v>44457</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>562</v>
+        <v>44494</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7138,33 +7143,39 @@
         <v>44494</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="H159" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="A160" s="8">
         <f>B160-C160</f>
-        <v>8</v>
-      </c>
-      <c r="B160" s="4">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B160" s="8">
+        <v>10</v>
+      </c>
+      <c r="C160" s="4">
+        <v>3</v>
       </c>
       <c r="D160" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="F160" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="H160" s="18" t="s">
+        <v>44298</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H160" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7174,25 +7185,23 @@
         <v>7</v>
       </c>
       <c r="B161" s="8">
-        <v>10</v>
-      </c>
-      <c r="C161" s="4">
-        <v>3</v>
-      </c>
-      <c r="D161" s="12">
-        <v>44298</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="9">
+        <v>44327</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7203,21 +7212,14 @@
       <c r="B162" s="8">
         <v>7</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="9">
-        <v>44327</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>16</v>
+      <c r="D162" s="12">
+        <v>44295</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7234,8 +7236,11 @@
       <c r="E163" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="F163" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H163" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7247,16 +7252,19 @@
         <v>7</v>
       </c>
       <c r="D164" s="12">
-        <v>44295</v>
+        <v>44298</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7271,16 +7279,13 @@
         <v>44298</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7292,16 +7297,16 @@
         <v>7</v>
       </c>
       <c r="D166" s="12">
-        <v>44298</v>
+        <v>44302</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7313,16 +7318,16 @@
         <v>7</v>
       </c>
       <c r="D167" s="12">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,16 +7339,16 @@
         <v>7</v>
       </c>
       <c r="D168" s="12">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7354,17 +7359,15 @@
       <c r="B169" s="8">
         <v>7</v>
       </c>
+      <c r="C169" s="8"/>
       <c r="D169" s="12">
-        <v>44309</v>
+        <v>44311</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F169" s="4" t="s">
         <v>137</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7377,13 +7380,16 @@
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="12">
-        <v>44311</v>
+        <v>44315</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7395,17 +7401,20 @@
         <v>7</v>
       </c>
       <c r="C171" s="8"/>
-      <c r="D171" s="12">
-        <v>44315</v>
+      <c r="D171" s="11">
+        <v>44323</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7418,16 +7427,16 @@
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="11">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>20</v>
@@ -7443,19 +7452,19 @@
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="11">
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7466,21 +7475,20 @@
       <c r="B174" s="8">
         <v>7</v>
       </c>
-      <c r="C174" s="8"/>
       <c r="D174" s="11">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7491,20 +7499,20 @@
       <c r="B175" s="8">
         <v>7</v>
       </c>
-      <c r="D175" s="11">
-        <v>44362</v>
+      <c r="D175" s="12">
+        <v>44364</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7516,19 +7524,19 @@
         <v>7</v>
       </c>
       <c r="D176" s="12">
-        <v>44364</v>
+        <v>44378</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7543,16 +7551,16 @@
         <v>44378</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7564,19 +7572,19 @@
         <v>7</v>
       </c>
       <c r="D178" s="12">
-        <v>44378</v>
+        <v>44392</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7588,19 +7596,19 @@
         <v>7</v>
       </c>
       <c r="D179" s="12">
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7612,19 +7620,16 @@
         <v>7</v>
       </c>
       <c r="D180" s="12">
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>49</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7639,13 +7644,16 @@
         <v>44399</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7657,19 +7665,19 @@
         <v>7</v>
       </c>
       <c r="D182" s="12">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7684,16 +7692,16 @@
         <v>44406</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7705,19 +7713,19 @@
         <v>7</v>
       </c>
       <c r="D184" s="12">
-        <v>44406</v>
+        <v>44418</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>173</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,16 +7740,13 @@
         <v>44418</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>478</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7756,13 +7761,16 @@
         <v>44418</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7774,19 +7782,16 @@
         <v>7</v>
       </c>
       <c r="D187" s="12">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7801,13 +7806,16 @@
         <v>44420</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7815,27 +7823,27 @@
         <f>B189-C189</f>
         <v>7</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189" s="4">
         <v>7</v>
       </c>
       <c r="D189" s="12">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
+      <c r="A190" s="4">
         <f>B190-C190</f>
         <v>7</v>
       </c>
@@ -7843,19 +7851,19 @@
         <v>7</v>
       </c>
       <c r="D190" s="12">
-        <v>44427</v>
+        <v>44432</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7867,19 +7875,19 @@
         <v>7</v>
       </c>
       <c r="D191" s="12">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7891,16 +7899,16 @@
         <v>7</v>
       </c>
       <c r="D192" s="12">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>20</v>
@@ -7915,19 +7923,16 @@
         <v>7</v>
       </c>
       <c r="D193" s="12">
-        <v>44434</v>
+        <v>44440</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7939,16 +7944,16 @@
         <v>7</v>
       </c>
       <c r="D194" s="12">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>626</v>
+        <v>645</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7960,16 +7965,16 @@
         <v>7</v>
       </c>
       <c r="D195" s="12">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F195" s="17" t="s">
-        <v>647</v>
+        <v>675</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>676</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -7984,13 +7989,13 @@
         <v>44452</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>677</v>
+        <v>715</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8002,16 +8007,19 @@
         <v>7</v>
       </c>
       <c r="D197" s="12">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>716</v>
+        <v>726</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>20</v>
+        <v>728</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8026,16 +8034,13 @@
         <v>44453</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>729</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8047,13 +8052,13 @@
         <v>7</v>
       </c>
       <c r="D199" s="12">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>732</v>
+        <v>771</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>733</v>
+        <v>772</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>20</v>
@@ -8068,16 +8073,16 @@
         <v>7</v>
       </c>
       <c r="D200" s="12">
-        <v>44457</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>20</v>
+        <v>44494</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8092,13 +8097,13 @@
         <v>44494</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>659</v>
+        <v>797</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8113,13 +8118,10 @@
         <v>44494</v>
       </c>
       <c r="E202" s="18" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="H202" s="18" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8134,28 +8136,37 @@
         <v>44494</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="F203" s="18" t="s">
-        <v>802</v>
+        <v>805</v>
+      </c>
+      <c r="H203" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+      <c r="A204" s="8">
         <f>B204-C204</f>
-        <v>7</v>
-      </c>
-      <c r="B204" s="4">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B204" s="8">
+        <v>9</v>
+      </c>
+      <c r="C204" s="4">
+        <v>3</v>
       </c>
       <c r="D204" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>806</v>
-      </c>
-      <c r="H204" s="18" t="s">
-        <v>20</v>
+        <v>44298</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8164,25 +8175,19 @@
         <v>6</v>
       </c>
       <c r="B205" s="8">
-        <v>9</v>
-      </c>
-      <c r="C205" s="4">
-        <v>3</v>
-      </c>
-      <c r="D205" s="12">
-        <v>44298</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="D205" s="10">
+        <v>44392</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8193,17 +8198,18 @@
       <c r="B206" s="8">
         <v>6</v>
       </c>
-      <c r="D206" s="10">
-        <v>44392</v>
-      </c>
-      <c r="E206" s="10" t="s">
-        <v>54</v>
+      <c r="C206" s="8"/>
+      <c r="D206" s="11">
+        <v>44293</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8214,18 +8220,17 @@
       <c r="B207" s="8">
         <v>6</v>
       </c>
-      <c r="C207" s="8"/>
-      <c r="D207" s="11">
-        <v>44293</v>
+      <c r="D207" s="12">
+        <v>44295</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8237,16 +8242,16 @@
         <v>6</v>
       </c>
       <c r="D208" s="12">
-        <v>44295</v>
+        <v>44298</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8258,16 +8263,16 @@
         <v>6</v>
       </c>
       <c r="D209" s="12">
-        <v>44298</v>
+        <v>44302</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8282,13 +8287,10 @@
         <v>44302</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F210" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8300,13 +8302,19 @@
         <v>6</v>
       </c>
       <c r="D211" s="12">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8317,20 +8325,15 @@
       <c r="B212" s="8">
         <v>6</v>
       </c>
+      <c r="C212" s="8"/>
       <c r="D212" s="12">
-        <v>44305</v>
+        <v>44311</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8342,14 +8345,20 @@
         <v>6</v>
       </c>
       <c r="C213" s="8"/>
-      <c r="D213" s="12">
-        <v>44311</v>
+      <c r="D213" s="11">
+        <v>44323</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8365,16 +8374,16 @@
         <v>44323</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8387,19 +8396,19 @@
       </c>
       <c r="C215" s="8"/>
       <c r="D215" s="11">
-        <v>44323</v>
+        <v>44337</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8415,16 +8424,16 @@
         <v>44337</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8435,21 +8444,20 @@
       <c r="B217" s="8">
         <v>6</v>
       </c>
-      <c r="C217" s="8"/>
-      <c r="D217" s="11">
-        <v>44337</v>
+      <c r="D217" s="12">
+        <v>44392</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8461,19 +8469,19 @@
         <v>6</v>
       </c>
       <c r="D218" s="12">
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8485,19 +8493,19 @@
         <v>6</v>
       </c>
       <c r="D219" s="12">
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8509,16 +8517,10 @@
         <v>6</v>
       </c>
       <c r="D220" s="12">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>16</v>
@@ -8538,8 +8540,14 @@
       <c r="E221" s="4" t="s">
         <v>439</v>
       </c>
+      <c r="F221" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="H221" s="4" t="s">
-        <v>16</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8554,16 +8562,16 @@
         <v>44406</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8575,19 +8583,19 @@
         <v>6</v>
       </c>
       <c r="D223" s="12">
-        <v>44406</v>
+        <v>44418</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8602,16 +8610,16 @@
         <v>44418</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8626,37 +8634,34 @@
         <v>44418</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="8">
+      <c r="A226" s="4">
         <f>B226-C226</f>
         <v>6</v>
       </c>
-      <c r="B226" s="8">
+      <c r="B226" s="4">
         <v>6</v>
       </c>
       <c r="D226" s="12">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>490</v>
+        <v>571</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8671,13 +8676,13 @@
         <v>44432</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8689,16 +8694,16 @@
         <v>6</v>
       </c>
       <c r="D228" s="12">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8710,16 +8715,16 @@
         <v>6</v>
       </c>
       <c r="D229" s="12">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8731,16 +8736,16 @@
         <v>6</v>
       </c>
       <c r="D230" s="12">
-        <v>44434</v>
+        <v>44442</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8755,13 +8760,13 @@
         <v>44442</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8776,13 +8781,13 @@
         <v>44442</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8797,13 +8802,13 @@
         <v>44442</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8815,16 +8820,16 @@
         <v>6</v>
       </c>
       <c r="D234" s="12">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8839,13 +8844,13 @@
         <v>44452</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8860,13 +8865,13 @@
         <v>44452</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8878,16 +8883,16 @@
         <v>6</v>
       </c>
       <c r="D237" s="12">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8902,13 +8907,13 @@
         <v>44453</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8920,16 +8925,16 @@
         <v>6</v>
       </c>
       <c r="D239" s="12">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,13 +8949,13 @@
         <v>44457</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8965,13 +8970,13 @@
         <v>44457</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8986,13 +8991,13 @@
         <v>44457</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9004,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="D243" s="12">
-        <v>44457</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>12</v>
+        <v>44494</v>
+      </c>
+      <c r="E243" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="F243" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="H243" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9028,13 +9033,13 @@
         <v>44494</v>
       </c>
       <c r="E244" s="18" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9049,13 +9054,10 @@
         <v>44494</v>
       </c>
       <c r="E245" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="F245" s="18" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9070,10 +9072,10 @@
         <v>44494</v>
       </c>
       <c r="E246" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="H246" s="18" t="s">
-        <v>49</v>
+        <v>798</v>
+      </c>
+      <c r="F246" s="18" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9088,28 +9090,35 @@
         <v>44494</v>
       </c>
       <c r="E247" s="18" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="A248" s="8">
         <f>B248-C248</f>
-        <v>6</v>
-      </c>
-      <c r="B248" s="4">
-        <v>6</v>
-      </c>
-      <c r="D248" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E248" s="18" t="s">
-        <v>804</v>
-      </c>
-      <c r="F248" s="18" t="s">
-        <v>805</v>
+        <v>5</v>
+      </c>
+      <c r="B248" s="8">
+        <v>5</v>
+      </c>
+      <c r="C248" s="8"/>
+      <c r="D248" s="9">
+        <v>44327</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H248" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9121,20 +9130,17 @@
         <v>5</v>
       </c>
       <c r="C249" s="8"/>
-      <c r="D249" s="9">
-        <v>44327</v>
-      </c>
-      <c r="E249" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F249" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H249" s="13" t="s">
-        <v>20</v>
+      <c r="D249" s="11">
+        <v>44293</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9145,18 +9151,17 @@
       <c r="B250" s="8">
         <v>5</v>
       </c>
-      <c r="C250" s="8"/>
-      <c r="D250" s="11">
-        <v>44293</v>
+      <c r="D250" s="12">
+        <v>44298</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9171,13 +9176,13 @@
         <v>44298</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9189,16 +9194,19 @@
         <v>5</v>
       </c>
       <c r="D252" s="12">
-        <v>44298</v>
+        <v>44302</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9213,16 +9221,16 @@
         <v>44302</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9233,20 +9241,18 @@
       <c r="B254" s="8">
         <v>5</v>
       </c>
+      <c r="C254" s="8"/>
       <c r="D254" s="12">
-        <v>44302</v>
+        <v>44312</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G254" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9259,16 +9265,19 @@
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="12">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9279,21 +9288,17 @@
       <c r="B256" s="8">
         <v>5</v>
       </c>
-      <c r="C256" s="8"/>
       <c r="D256" s="12">
-        <v>44315</v>
+        <v>44364</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9305,16 +9310,19 @@
         <v>5</v>
       </c>
       <c r="D257" s="12">
-        <v>44364</v>
+        <v>44396</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>286</v>
+        <v>371</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,19 +9334,16 @@
         <v>5</v>
       </c>
       <c r="D258" s="12">
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9350,16 +9355,19 @@
         <v>5</v>
       </c>
       <c r="D259" s="12">
-        <v>44399</v>
+        <v>44418</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>411</v>
+        <v>492</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>74</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9367,23 +9375,17 @@
         <f>B260-C260</f>
         <v>5</v>
       </c>
-      <c r="B260" s="8">
+      <c r="B260" s="4">
         <v>5</v>
       </c>
       <c r="D260" s="12">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G260" s="4" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>495</v>
+        <v>203</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9395,13 +9397,16 @@
         <v>5</v>
       </c>
       <c r="D261" s="12">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>523</v>
+        <v>540</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9413,20 +9418,20 @@
         <v>5</v>
       </c>
       <c r="D262" s="12">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="8">
+      <c r="A263" s="4">
         <f>B263-C263</f>
         <v>5</v>
       </c>
@@ -9434,16 +9439,16 @@
         <v>5</v>
       </c>
       <c r="D263" s="12">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9455,16 +9460,16 @@
         <v>5</v>
       </c>
       <c r="D264" s="12">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9476,16 +9481,16 @@
         <v>5</v>
       </c>
       <c r="D265" s="12">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9497,16 +9502,16 @@
         <v>5</v>
       </c>
       <c r="D266" s="12">
-        <v>44434</v>
+        <v>44442</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9521,13 +9526,13 @@
         <v>44442</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9539,16 +9544,16 @@
         <v>5</v>
       </c>
       <c r="D268" s="12">
-        <v>44442</v>
+        <v>44457</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>642</v>
+        <v>768</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>643</v>
+        <v>769</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9563,16 +9568,13 @@
         <v>44457</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F269" s="4" t="s">
         <v>770</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9587,10 +9589,13 @@
         <v>44457</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>774</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9602,37 +9607,38 @@
         <v>5</v>
       </c>
       <c r="D271" s="12">
-        <v>44457</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="H271" s="4" t="s">
-        <v>20</v>
+        <v>44494</v>
+      </c>
+      <c r="E271" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="H271" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
+      <c r="A272" s="8">
         <f>B272-C272</f>
-        <v>5</v>
-      </c>
-      <c r="B272" s="4">
-        <v>5</v>
-      </c>
-      <c r="D272" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E272" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="H272" s="18" t="s">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="B272" s="8">
+        <v>4</v>
+      </c>
+      <c r="C272" s="8"/>
+      <c r="D272" s="11">
+        <v>44293</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H272" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9643,18 +9649,20 @@
       <c r="B273" s="8">
         <v>4</v>
       </c>
-      <c r="C273" s="8"/>
-      <c r="D273" s="11">
-        <v>44293</v>
+      <c r="D273" s="12">
+        <v>44302</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9665,20 +9673,21 @@
       <c r="B274" s="8">
         <v>4</v>
       </c>
+      <c r="C274" s="8"/>
       <c r="D274" s="12">
-        <v>44302</v>
+        <v>44315</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9690,20 +9699,20 @@
         <v>4</v>
       </c>
       <c r="C275" s="8"/>
-      <c r="D275" s="12">
-        <v>44315</v>
+      <c r="D275" s="11">
+        <v>44323</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I275" s="4" t="s">
         <v>12</v>
@@ -9719,22 +9728,22 @@
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="11">
-        <v>44323</v>
+        <v>44337</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9745,21 +9754,17 @@
       <c r="B277" s="8">
         <v>4</v>
       </c>
-      <c r="C277" s="8"/>
-      <c r="D277" s="11">
-        <v>44337</v>
+      <c r="D277" s="12">
+        <v>44378</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9767,20 +9772,20 @@
         <f>B278-C278</f>
         <v>4</v>
       </c>
-      <c r="B278" s="8">
+      <c r="B278" s="4">
         <v>4</v>
       </c>
       <c r="D278" s="12">
-        <v>44378</v>
+        <v>44425</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>305</v>
+        <v>525</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>306</v>
+        <v>526</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9792,16 +9797,16 @@
         <v>4</v>
       </c>
       <c r="D279" s="12">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="I279" s="4" t="s">
         <v>12</v>
@@ -9816,20 +9821,20 @@
         <v>4</v>
       </c>
       <c r="D280" s="12">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="8">
+      <c r="A281" s="4">
         <f>B281-C281</f>
         <v>4</v>
       </c>
@@ -9837,16 +9842,19 @@
         <v>4</v>
       </c>
       <c r="D281" s="12">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>550</v>
+        <v>578</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I281" s="4" t="s">
         <v>12</v>
@@ -9861,19 +9869,19 @@
         <v>4</v>
       </c>
       <c r="D282" s="12">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9888,16 +9896,13 @@
         <v>44434</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9909,16 +9914,16 @@
         <v>4</v>
       </c>
       <c r="D284" s="12">
-        <v>44434</v>
+        <v>44442</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9933,13 +9938,13 @@
         <v>44442</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>20</v>
+        <v>649</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9954,13 +9959,13 @@
         <v>44442</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9972,16 +9977,16 @@
         <v>4</v>
       </c>
       <c r="D287" s="12">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>659</v>
+        <v>154</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9996,13 +10001,10 @@
         <v>44452</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10017,10 +10019,13 @@
         <v>44452</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>694</v>
+        <v>719</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10032,34 +10037,37 @@
         <v>4</v>
       </c>
       <c r="D290" s="12">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="4">
+      <c r="A291" s="8">
         <f>B291-C291</f>
-        <v>4</v>
-      </c>
-      <c r="B291" s="4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B291" s="8">
+        <v>3</v>
       </c>
       <c r="D291" s="12">
-        <v>44453</v>
+        <v>44298</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>739</v>
+        <v>97</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10071,19 +10079,19 @@
         <v>3</v>
       </c>
       <c r="D292" s="12">
-        <v>44298</v>
+        <v>44302</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10094,20 +10102,21 @@
       <c r="B293" s="8">
         <v>3</v>
       </c>
+      <c r="C293" s="8"/>
       <c r="D293" s="12">
-        <v>44302</v>
+        <v>44315</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10119,20 +10128,20 @@
         <v>3</v>
       </c>
       <c r="C294" s="8"/>
-      <c r="D294" s="12">
-        <v>44315</v>
+      <c r="D294" s="11">
+        <v>44326</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10140,27 +10149,23 @@
         <f>B295-C295</f>
         <v>3</v>
       </c>
-      <c r="B295" s="8">
+      <c r="B295" s="4">
         <v>3</v>
       </c>
-      <c r="C295" s="8"/>
-      <c r="D295" s="11">
-        <v>44326</v>
+      <c r="D295" s="12">
+        <v>44424</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>208</v>
+        <v>523</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G295" s="4" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10172,20 +10177,20 @@
         <v>3</v>
       </c>
       <c r="D296" s="12">
-        <v>44424</v>
+        <v>44428</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="8">
+      <c r="A297" s="4">
         <f>B297-C297</f>
         <v>3</v>
       </c>
@@ -10193,16 +10198,16 @@
         <v>3</v>
       </c>
       <c r="D297" s="12">
-        <v>44428</v>
+        <v>44442</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10214,37 +10219,41 @@
         <v>3</v>
       </c>
       <c r="D298" s="12">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>49</v>
+        <v>684</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="4">
+      <c r="A299" s="8">
         <f>B299-C299</f>
-        <v>3</v>
-      </c>
-      <c r="B299" s="4">
-        <v>3</v>
-      </c>
-      <c r="D299" s="12">
-        <v>44452</v>
+        <v>2</v>
+      </c>
+      <c r="B299" s="8">
+        <v>2</v>
+      </c>
+      <c r="C299" s="8"/>
+      <c r="D299" s="11">
+        <v>44326</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>683</v>
+        <v>210</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>684</v>
+        <v>211</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>685</v>
+        <v>109</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10255,24 +10264,23 @@
       <c r="B300" s="8">
         <v>2</v>
       </c>
-      <c r="C300" s="8"/>
-      <c r="D300" s="11">
-        <v>44326</v>
+      <c r="D300" s="12">
+        <v>44399</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>212</v>
+        <v>412</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I300" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10284,19 +10292,16 @@
         <v>2</v>
       </c>
       <c r="D301" s="12">
-        <v>44399</v>
+        <v>44418</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>412</v>
+        <v>495</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>97</v>
+        <v>496</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10311,16 +10316,16 @@
         <v>44418</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10328,20 +10333,20 @@
         <f>B303-C303</f>
         <v>2</v>
       </c>
-      <c r="B303" s="8">
+      <c r="B303" s="4">
         <v>2</v>
       </c>
       <c r="D303" s="12">
-        <v>44418</v>
+        <v>44428</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10356,17 +10361,17 @@
         <v>44428</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="8">
+      <c r="A305" s="4">
         <f>B305-C305</f>
         <v>2</v>
       </c>
@@ -10374,16 +10379,16 @@
         <v>2</v>
       </c>
       <c r="D305" s="12">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10395,16 +10400,16 @@
         <v>2</v>
       </c>
       <c r="D306" s="12">
-        <v>44432</v>
+        <v>44442</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10416,16 +10421,16 @@
         <v>2</v>
       </c>
       <c r="D307" s="12">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10440,88 +10445,92 @@
         <v>44452</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I308" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="4">
+      <c r="A309" s="8">
         <f>B309-C309</f>
-        <v>2</v>
-      </c>
-      <c r="B309" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B309" s="8">
+        <v>10</v>
+      </c>
+      <c r="C309" s="4">
+        <v>9</v>
       </c>
       <c r="D309" s="12">
-        <v>44452</v>
-      </c>
-      <c r="E309" s="4" t="s">
-        <v>697</v>
+        <v>44396</v>
+      </c>
+      <c r="E309" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>698</v>
+        <v>343</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="8">
+      <c r="A310" s="4">
         <f>B310-C310</f>
         <v>1</v>
       </c>
-      <c r="B310" s="8">
+      <c r="B310" s="4">
         <v>10</v>
       </c>
       <c r="C310" s="4">
         <v>9</v>
       </c>
       <c r="D310" s="12">
-        <v>44396</v>
-      </c>
-      <c r="E310" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F310" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G310" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H310" s="4" t="s">
-        <v>20</v>
+        <v>44494</v>
+      </c>
+      <c r="E310" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="H310" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="4">
+      <c r="A311" s="8">
         <f>B311-C311</f>
         <v>1</v>
       </c>
-      <c r="B311" s="4">
-        <v>10</v>
-      </c>
-      <c r="C311" s="4">
-        <v>9</v>
-      </c>
-      <c r="D311" s="12">
-        <v>44494</v>
-      </c>
-      <c r="E311" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="H311" s="18" t="s">
-        <v>66</v>
+      <c r="B311" s="8">
+        <v>1</v>
+      </c>
+      <c r="C311" s="8"/>
+      <c r="D311" s="11">
+        <v>44323</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H311" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="I311" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10532,21 +10541,17 @@
       <c r="B312" s="8">
         <v>1</v>
       </c>
-      <c r="C312" s="8"/>
-      <c r="D312" s="11">
-        <v>44323</v>
+      <c r="D312" s="12">
+        <v>44378</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G312" s="4" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10554,23 +10559,23 @@
         <f>B313-C313</f>
         <v>1</v>
       </c>
-      <c r="B313" s="8">
+      <c r="B313" s="4">
         <v>1</v>
       </c>
       <c r="D313" s="12">
-        <v>44378</v>
+        <v>44428</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>307</v>
+        <v>556</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>308</v>
+        <v>557</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="I313" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10582,43 +10587,49 @@
         <v>1</v>
       </c>
       <c r="D314" s="12">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <f>B315-C315</f>
-        <v>1</v>
-      </c>
-      <c r="B315" s="4">
-        <v>1</v>
-      </c>
-      <c r="D315" s="12">
-        <v>44432</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>583</v>
+        <v>0</v>
+      </c>
+      <c r="B315" s="8">
+        <v>10</v>
+      </c>
+      <c r="C315" s="4">
+        <v>10</v>
+      </c>
+      <c r="D315" s="10">
+        <v>44392</v>
+      </c>
+      <c r="E315" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>584</v>
+        <v>816</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I315" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10636,16 +10647,16 @@
         <v>44452</v>
       </c>
       <c r="E316" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="F316" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="F316" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="H316" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I316" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -10663,16 +10674,16 @@
         <v>44432</v>
       </c>
       <c r="E317" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="F317" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="F317" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="H317" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I317" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -11775,7 +11786,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H501" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H501">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H500">
       <sortCondition descending="1" ref="A1:A501"/>
     </sortState>
   </autoFilter>
@@ -11793,7 +11804,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F195" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F194" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11802,11 +11813,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11816,13 +11827,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11840,16 +11851,16 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <f ca="1">SUMIF(logs!H:I,汇总表!A3,logs!A:A)</f>
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <f ca="1">SUMIF(logs!H:I,汇总表!A4,logs!A:A)</f>
@@ -11858,7 +11869,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5">
         <f ca="1">SUMIF(logs!H:I,汇总表!A5,logs!A:A)</f>
@@ -11871,12 +11882,12 @@
       </c>
       <c r="B6">
         <f ca="1">SUMIF(logs!H:I,汇总表!A6,logs!A:A)</f>
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <f ca="1">SUMIF(logs!H:I,汇总表!A7,logs!A:A)</f>
@@ -11885,7 +11896,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <f ca="1">SUMIF(logs!H:I,汇总表!A8,logs!A:A)</f>
@@ -11894,7 +11905,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
@@ -11903,7 +11914,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <f ca="1">SUMIF(logs!H:I,汇总表!A10,logs!A:A)</f>
@@ -11912,7 +11923,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <f ca="1">SUMIF(logs!H:I,汇总表!A11,logs!A:A)</f>
@@ -11930,7 +11941,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13">
         <f ca="1">SUMIF(logs!H:I,汇总表!A13,logs!A:A)</f>
@@ -11939,7 +11950,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <f ca="1">SUMIF(logs!H:I,汇总表!A14,logs!A:A)</f>
@@ -11948,16 +11959,16 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <f ca="1">SUMIF(logs!H:I,汇总表!A15,logs!A:A)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <f ca="1">SUMIF(logs!H:I,汇总表!A16,logs!A:A)</f>
@@ -11966,7 +11977,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17">
         <f ca="1">SUMIF(logs!H:I,汇总表!A17,logs!A:A)</f>
@@ -11975,7 +11986,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18">
         <f ca="1">SUMIF(logs!H:I,汇总表!A18,logs!A:A)</f>
@@ -11984,7 +11995,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <f ca="1">SUMIF(logs!H:I,汇总表!A19,logs!A:A)</f>
@@ -11993,7 +12004,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <f ca="1">SUMIF(logs!H:I,汇总表!A20,logs!A:A)</f>
@@ -12002,7 +12013,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <f ca="1">SUMIF(logs!H:I,汇总表!A21,logs!A:A)</f>
@@ -12011,7 +12022,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22">
         <f ca="1">SUMIF(logs!H:I,汇总表!A22,logs!A:A)</f>
@@ -12020,7 +12031,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23">
         <f ca="1">SUMIF(logs!H:I,汇总表!A23,logs!A:A)</f>
@@ -12029,7 +12040,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24">
         <f ca="1">SUMIF(logs!H:I,汇总表!A24,logs!A:A)</f>
@@ -12038,7 +12049,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25">
         <f ca="1">SUMIF(logs!H:I,汇总表!A25,logs!A:A)</f>
@@ -12047,7 +12058,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26">
         <f ca="1">SUMIF(logs!H:I,汇总表!A26,logs!A:A)</f>
@@ -12056,7 +12067,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27">
         <f ca="1">SUMIF(logs!H:I,汇总表!A27,logs!A:A)</f>
@@ -12065,7 +12076,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28">
         <f ca="1">SUMIF(logs!H:I,汇总表!A28,logs!A:A)</f>
@@ -12074,7 +12085,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <f ca="1">SUMIF(logs!H:I,汇总表!A29,logs!A:A)</f>
@@ -12083,7 +12094,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <f ca="1">SUMIF(logs!H:I,汇总表!A30,logs!A:A)</f>
@@ -12092,7 +12103,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B31">
         <f ca="1">SUMIF(logs!H:I,汇总表!A31,logs!A:A)</f>
@@ -12101,7 +12112,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B32">
         <f ca="1">SUMIF(logs!H:I,汇总表!A32,logs!A:A)</f>
@@ -12110,7 +12121,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B33">
         <f ca="1">SUMIF(logs!H:I,汇总表!A33,logs!A:A)</f>
@@ -12119,7 +12130,7 @@
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B34">
         <f ca="1">SUMIF(logs!H:I,汇总表!A34,logs!A:A)</f>
@@ -12128,7 +12139,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B35">
         <f ca="1">SUMIF(logs!H:I,汇总表!A35,logs!A:A)</f>
@@ -12137,7 +12148,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B36">
         <f ca="1">SUMIF(logs!H:I,汇总表!A36,logs!A:A)</f>
@@ -12146,7 +12157,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B37">
         <f ca="1">SUMIF(logs!H:I,汇总表!A37,logs!A:A)</f>
@@ -12164,7 +12175,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B39">
         <f ca="1">SUMIF(logs!H:I,汇总表!A39,logs!A:A)</f>
@@ -12173,7 +12184,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B40">
         <f ca="1">SUMIF(logs!H:I,汇总表!A40,logs!A:A)</f>
@@ -12182,11 +12193,20 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B41">
         <f ca="1">SUMIF(logs!H:I,汇总表!A41,logs!A:A)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B42">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A42,logs!A:A)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -12230,29 +12250,29 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827CDB5E-3095-43BD-99AD-79CA13A0A206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5199BE-B238-477D-8B3E-D026369E705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
-    <sheet name="汇总表" sheetId="2" r:id="rId2"/>
-    <sheet name="ING" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="汇总表" sheetId="2" r:id="rId3"/>
+    <sheet name="ING" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$A$1:$H$501</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">汇总表!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="833">
   <si>
     <t>权重</t>
   </si>
@@ -3026,12 +3027,57 @@
 时间类型的应用：https://time.geekbang.org/column/article/350470</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>Column JSON Name Meaning</t>
+  </si>
+  <si>
+    <t>id select_id The SELECT identifier</t>
+  </si>
+  <si>
+    <t>select_type None The SELECT type</t>
+  </si>
+  <si>
+    <t>table table_name The table for the output row</t>
+  </si>
+  <si>
+    <t>partitions partitions The matching partitions</t>
+  </si>
+  <si>
+    <t>type access_type The join type</t>
+  </si>
+  <si>
+    <t>possible_keys possible_keys The possible indexes to choose</t>
+  </si>
+  <si>
+    <t>key key The index actually chosen</t>
+  </si>
+  <si>
+    <t>key_len key_length The length of the chosen key</t>
+  </si>
+  <si>
+    <t>ref ref The columns compared to the</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>rows rows Estimate of rows to be examined</t>
+  </si>
+  <si>
+    <t>filtered filtered Percentage of rows filtered by</t>
+  </si>
+  <si>
+    <t>table condition</t>
+  </si>
+  <si>
+    <t>Extra None Additional information</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3098,6 +3144,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3515,9 +3567,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3563,7 +3615,7 @@
     </row>
     <row r="2" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <f>B2-C2</f>
+        <f t="shared" ref="A2:A65" si="0">B2-C2</f>
         <v>0</v>
       </c>
       <c r="B2" s="8">
@@ -3593,7 +3645,7 @@
     </row>
     <row r="3" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" s="4">
@@ -3617,7 +3669,7 @@
     </row>
     <row r="4" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" s="4">
@@ -3644,1105 +3696,1105 @@
     </row>
     <row r="5" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <f>B32-C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <f>B33-C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <f>B34-C34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <f>B35-C35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <f>B36-C36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <f>B37-C37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <f>B38-C38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <f>B39-C39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <f>B40-C40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <f>B41-C41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <f>B42-C42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <f>B43-C43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <f>B44-C44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <f>B45-C45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <f>B46-C46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <f>B47-C47</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <f>B48-C48</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <f>B49-C49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <f>B50-C50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <f>B51-C51</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <f>B52-C52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <f>B53-C53</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <f>B54-C54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <f>B55-C55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <f>B56-C56</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <f>B57-C57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <f>B58-C58</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <f>B59-C59</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <f>B60-C60</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <f>B61-C61</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <f>B62-C62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <f>B63-C63</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <f>B64-C64</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <f>B65-C65</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <f>B66-C66</f>
+        <f t="shared" ref="A66:A129" si="1">B66-C66</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <f>B67-C67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <f>B68-C68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <f>B69-C69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <f>B70-C70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <f>B71-C71</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <f>B72-C72</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <f>B73-C73</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <f>B74-C74</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <f>B75-C75</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <f>B76-C76</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <f>B77-C77</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <f>B78-C78</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <f>B79-C79</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <f>B80-C80</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <f>B81-C81</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <f>B82-C82</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <f>B83-C83</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <f>B84-C84</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <f>B85-C85</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <f>B86-C86</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <f>B87-C87</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <f>B88-C88</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <f>B89-C89</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <f>B90-C90</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <f>B91-C91</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <f>B92-C92</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <f>B93-C93</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <f>B94-C94</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <f>B95-C95</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <f>B96-C96</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <f>B97-C97</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <f>B98-C98</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <f>B99-C99</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <f>B100-C100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <f>B101-C101</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <f>B102-C102</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <f>B103-C103</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <f>B104-C104</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <f>B105-C105</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <f>B106-C106</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <f>B107-C107</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <f>B108-C108</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <f>B109-C109</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <f>B110-C110</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <f>B111-C111</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <f>B112-C112</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <f>B113-C113</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <f>B114-C114</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <f>B115-C115</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <f>B116-C116</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <f>B117-C117</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <f>B118-C118</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <f>B119-C119</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <f>B120-C120</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <f>B121-C121</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <f>B122-C122</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <f>B123-C123</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <f>B124-C124</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <f>B125-C125</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <f>B126-C126</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <f>B127-C127</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <f>B128-C128</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <f>B129-C129</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <f>B130-C130</f>
+        <f t="shared" ref="A130:A193" si="2">B130-C130</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <f>B131-C131</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <f>B132-C132</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <f>B133-C133</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <f>B134-C134</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <f>B135-C135</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <f>B136-C136</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <f>B137-C137</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <f>B138-C138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <f>B139-C139</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <f>B140-C140</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <f>B141-C141</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <f>B142-C142</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <f>B143-C143</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <f>B144-C144</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <f>B145-C145</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <f>B146-C146</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <f>B147-C147</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <f>B148-C148</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <f>B149-C149</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <f>B150-C150</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <f>B151-C151</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <f>B152-C152</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <f>B153-C153</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <f>B154-C154</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <f>B155-C155</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <f>B156-C156</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <f>B157-C157</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <f>B158-C158</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <f>B159-C159</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <f>B160-C160</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <f>B161-C161</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <f>B162-C162</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <f>B163-C163</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <f>B164-C164</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <f>B165-C165</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <f>B166-C166</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <f>B167-C167</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <f>B168-C168</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <f>B169-C169</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <f>B170-C170</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <f>B171-C171</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <f>B172-C172</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <f>B173-C173</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <f>B174-C174</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <f>B175-C175</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <f>B176-C176</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <f>B177-C177</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <f>B178-C178</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <f>B179-C179</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <f>B180-C180</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <f>B181-C181</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <f>B182-C182</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <f>B183-C183</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <f>B184-C184</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <f>B185-C185</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <f>B186-C186</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <f>B187-C187</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
-        <f>B188-C188</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B188" s="8">
@@ -4769,7 +4821,7 @@
     </row>
     <row r="189" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <f>B189-C189</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B189" s="4">
@@ -4790,7 +4842,7 @@
     </row>
     <row r="190" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
-        <f>B190-C190</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B190" s="8">
@@ -4815,7 +4867,7 @@
     </row>
     <row r="191" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
-        <f>B191-C191</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B191" s="8">
@@ -4836,7 +4888,7 @@
     </row>
     <row r="192" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
-        <f>B192-C192</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B192" s="4">
@@ -4857,7 +4909,7 @@
     </row>
     <row r="193" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
-        <f>B193-C193</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B193" s="4">
@@ -4878,7 +4930,7 @@
     </row>
     <row r="194" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
-        <f>B194-C194</f>
+        <f t="shared" ref="A194:A257" si="3">B194-C194</f>
         <v>2</v>
       </c>
       <c r="B194" s="8">
@@ -4903,7 +4955,7 @@
     </row>
     <row r="195" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
-        <f>B195-C195</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B195" s="8">
@@ -4927,7 +4979,7 @@
     </row>
     <row r="196" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
-        <f>B196-C196</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B196" s="8">
@@ -4948,7 +5000,7 @@
     </row>
     <row r="197" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
-        <f>B197-C197</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B197" s="8">
@@ -4969,7 +5021,7 @@
     </row>
     <row r="198" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
-        <f>B198-C198</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B198" s="4">
@@ -4990,7 +5042,7 @@
     </row>
     <row r="199" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
-        <f>B199-C199</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B199" s="4">
@@ -5011,7 +5063,7 @@
     </row>
     <row r="200" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <f>B200-C200</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B200" s="4">
@@ -5032,7 +5084,7 @@
     </row>
     <row r="201" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <f>B201-C201</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B201" s="4">
@@ -5053,7 +5105,7 @@
     </row>
     <row r="202" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <f>B202-C202</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B202" s="4">
@@ -5074,7 +5126,7 @@
     </row>
     <row r="203" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <f>B203-C203</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B203" s="4">
@@ -5095,7 +5147,7 @@
     </row>
     <row r="204" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
-        <f>B204-C204</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B204" s="8">
@@ -5119,7 +5171,7 @@
     </row>
     <row r="205" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
-        <f>B205-C205</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B205" s="8">
@@ -5143,7 +5195,7 @@
     </row>
     <row r="206" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
-        <f>B206-C206</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B206" s="8">
@@ -5168,7 +5220,7 @@
     </row>
     <row r="207" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
-        <f>B207-C207</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B207" s="8">
@@ -5193,7 +5245,7 @@
     </row>
     <row r="208" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
-        <f>B208-C208</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B208" s="8">
@@ -5217,7 +5269,7 @@
     </row>
     <row r="209" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
-        <f>B209-C209</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B209" s="8">
@@ -5241,12 +5293,15 @@
     </row>
     <row r="210" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <f>B210-C210</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="B210" s="4">
         <v>10</v>
       </c>
+      <c r="C210" s="4">
+        <v>8</v>
+      </c>
       <c r="D210" s="12">
         <v>44442</v>
       </c>
@@ -5262,7 +5317,7 @@
     </row>
     <row r="211" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <f>B211-C211</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B211" s="4">
@@ -5283,7 +5338,7 @@
     </row>
     <row r="212" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
-        <f>B212-C212</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B212" s="8">
@@ -5305,7 +5360,7 @@
     </row>
     <row r="213" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
-        <f>B213-C213</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B213" s="8">
@@ -5329,7 +5384,7 @@
     </row>
     <row r="214" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
-        <f>B214-C214</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B214" s="8">
@@ -5354,7 +5409,7 @@
     </row>
     <row r="215" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
-        <f>B215-C215</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B215" s="8">
@@ -5379,7 +5434,7 @@
     </row>
     <row r="216" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
-        <f>B216-C216</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B216" s="8">
@@ -5404,7 +5459,7 @@
     </row>
     <row r="217" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
-        <f>B217-C217</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B217" s="8">
@@ -5425,7 +5480,7 @@
     </row>
     <row r="218" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
-        <f>B218-C218</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B218" s="8">
@@ -5449,7 +5504,7 @@
     </row>
     <row r="219" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
-        <f>B219-C219</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B219" s="4">
@@ -5470,7 +5525,7 @@
     </row>
     <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
-        <f>B220-C220</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B220" s="8">
@@ -5495,7 +5550,7 @@
     </row>
     <row r="221" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <f>B221-C221</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B221" s="4">
@@ -5519,7 +5574,7 @@
     </row>
     <row r="222" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <f>B222-C222</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B222" s="4">
@@ -5543,7 +5598,7 @@
     </row>
     <row r="223" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <f>B223-C223</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B223" s="4">
@@ -5564,7 +5619,7 @@
     </row>
     <row r="224" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
-        <f>B224-C224</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B224" s="4">
@@ -5585,7 +5640,7 @@
     </row>
     <row r="225" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <f>B225-C225</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B225" s="4">
@@ -5606,7 +5661,7 @@
     </row>
     <row r="226" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <f>B226-C226</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B226" s="4">
@@ -5627,7 +5682,7 @@
     </row>
     <row r="227" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <f>B227-C227</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B227" s="4">
@@ -5648,12 +5703,15 @@
     </row>
     <row r="228" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
-        <f>B228-C228</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B228" s="8">
         <v>9</v>
       </c>
+      <c r="C228" s="4">
+        <v>9</v>
+      </c>
       <c r="D228" s="12">
         <v>44392</v>
       </c>
@@ -5672,7 +5730,7 @@
     </row>
     <row r="229" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
-        <f>B229-C229</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B229" s="8">
@@ -5696,7 +5754,7 @@
     </row>
     <row r="230" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <f>B230-C230</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B230" s="4">
@@ -5714,7 +5772,7 @@
     </row>
     <row r="231" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
-        <f>B231-C231</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B231" s="8">
@@ -5739,7 +5797,7 @@
     </row>
     <row r="232" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
-        <f>B232-C232</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B232" s="8">
@@ -5761,7 +5819,7 @@
     </row>
     <row r="233" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
-        <f>B233-C233</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B233" s="8">
@@ -5782,7 +5840,7 @@
     </row>
     <row r="234" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
-        <f>B234-C234</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B234" s="8">
@@ -5803,7 +5861,7 @@
     </row>
     <row r="235" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
-        <f>B235-C235</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B235" s="8">
@@ -5827,7 +5885,7 @@
     </row>
     <row r="236" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
-        <f>B236-C236</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B236" s="8">
@@ -5851,7 +5909,7 @@
     </row>
     <row r="237" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
-        <f>B237-C237</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B237" s="8">
@@ -5873,7 +5931,7 @@
     </row>
     <row r="238" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
-        <f>B238-C238</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B238" s="8">
@@ -5898,12 +5956,15 @@
     </row>
     <row r="239" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
-        <f>B239-C239</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B239" s="8">
         <v>9</v>
       </c>
+      <c r="C239" s="4">
+        <v>9</v>
+      </c>
       <c r="D239" s="12">
         <v>44396</v>
       </c>
@@ -5922,7 +5983,7 @@
     </row>
     <row r="240" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
-        <f>B240-C240</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B240" s="8">
@@ -5946,7 +6007,7 @@
     </row>
     <row r="241" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
-        <f>B241-C241</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B241" s="8">
@@ -5967,7 +6028,7 @@
     </row>
     <row r="242" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
-        <f>B242-C242</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B242" s="8">
@@ -5991,7 +6052,7 @@
     </row>
     <row r="243" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
-        <f>B243-C243</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B243" s="4">
@@ -6009,7 +6070,7 @@
     </row>
     <row r="244" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
-        <f>B244-C244</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B244" s="8">
@@ -6033,7 +6094,7 @@
     </row>
     <row r="245" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
-        <f>B245-C245</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B245" s="4">
@@ -6054,7 +6115,7 @@
     </row>
     <row r="246" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <f>B246-C246</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B246" s="4">
@@ -6075,7 +6136,7 @@
     </row>
     <row r="247" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <f>B247-C247</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B247" s="4">
@@ -6096,12 +6157,15 @@
     </row>
     <row r="248" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <f>B248-C248</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B248" s="4">
         <v>9</v>
       </c>
+      <c r="C248" s="4">
+        <v>9</v>
+      </c>
       <c r="D248" s="12">
         <v>44494</v>
       </c>
@@ -6114,7 +6178,7 @@
     </row>
     <row r="249" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
-        <f>B249-C249</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B249" s="4">
@@ -6135,7 +6199,7 @@
     </row>
     <row r="250" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
-        <f>B250-C250</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B250" s="8">
@@ -6156,7 +6220,7 @@
     </row>
     <row r="251" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
-        <f>B251-C251</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B251" s="4">
@@ -6177,7 +6241,7 @@
     </row>
     <row r="252" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
-        <f>B252-C252</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B252" s="4">
@@ -6195,7 +6259,7 @@
     </row>
     <row r="253" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
-        <f>B253-C253</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B253" s="4">
@@ -6216,7 +6280,7 @@
     </row>
     <row r="254" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
-        <f>B254-C254</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B254" s="4">
@@ -6234,7 +6298,7 @@
     </row>
     <row r="255" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
-        <f>B255-C255</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B255" s="8">
@@ -6261,7 +6325,7 @@
     </row>
     <row r="256" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
-        <f>B256-C256</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B256" s="8">
@@ -6282,7 +6346,7 @@
     </row>
     <row r="257" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
-        <f>B257-C257</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B257" s="8">
@@ -6304,7 +6368,7 @@
     </row>
     <row r="258" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
-        <f>B258-C258</f>
+        <f t="shared" ref="A258:A321" si="4">B258-C258</f>
         <v>6</v>
       </c>
       <c r="B258" s="8">
@@ -6325,7 +6389,7 @@
     </row>
     <row r="259" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
-        <f>B259-C259</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B259" s="8">
@@ -6346,7 +6410,7 @@
     </row>
     <row r="260" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
-        <f>B260-C260</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B260" s="8">
@@ -6367,13 +6431,15 @@
     </row>
     <row r="261" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
-        <f>B261-C261</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="B261" s="8">
         <v>8</v>
       </c>
-      <c r="C261" s="8"/>
+      <c r="C261" s="8">
+        <v>7</v>
+      </c>
       <c r="D261" s="11">
         <v>44337</v>
       </c>
@@ -6392,7 +6458,7 @@
     </row>
     <row r="262" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
-        <f>B262-C262</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B262" s="8">
@@ -6416,7 +6482,7 @@
     </row>
     <row r="263" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
-        <f>B263-C263</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B263" s="8">
@@ -6435,7 +6501,7 @@
     </row>
     <row r="264" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
-        <f>B264-C264</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B264" s="8">
@@ -6460,7 +6526,7 @@
     </row>
     <row r="265" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
-        <f>B265-C265</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B265" s="8">
@@ -6485,7 +6551,7 @@
     </row>
     <row r="266" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
-        <f>B266-C266</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B266" s="8">
@@ -6510,7 +6576,7 @@
     </row>
     <row r="267" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
-        <f>B267-C267</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B267" s="8">
@@ -6535,7 +6601,7 @@
     </row>
     <row r="268" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
-        <f>B268-C268</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B268" s="8">
@@ -6560,7 +6626,7 @@
     </row>
     <row r="269" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
-        <f>B269-C269</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B269" s="8">
@@ -6587,7 +6653,7 @@
     </row>
     <row r="270" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
-        <f>B270-C270</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B270" s="8">
@@ -6611,7 +6677,7 @@
     </row>
     <row r="271" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
-        <f>B271-C271</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B271" s="8">
@@ -6632,7 +6698,7 @@
     </row>
     <row r="272" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
-        <f>B272-C272</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B272" s="8">
@@ -6656,7 +6722,7 @@
     </row>
     <row r="273" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
-        <f>B273-C273</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B273" s="8">
@@ -6680,7 +6746,7 @@
     </row>
     <row r="274" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
-        <f>B274-C274</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B274" s="8">
@@ -6704,7 +6770,7 @@
     </row>
     <row r="275" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
-        <f>B275-C275</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B275" s="8">
@@ -6731,7 +6797,7 @@
     </row>
     <row r="276" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
-        <f>B276-C276</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B276" s="8">
@@ -6755,7 +6821,7 @@
     </row>
     <row r="277" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
-        <f>B277-C277</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B277" s="8">
@@ -6779,7 +6845,7 @@
     </row>
     <row r="278" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
-        <f>B278-C278</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B278" s="4">
@@ -6800,7 +6866,7 @@
     </row>
     <row r="279" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
-        <f>B279-C279</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B279" s="4">
@@ -6824,7 +6890,7 @@
     </row>
     <row r="280" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
-        <f>B280-C280</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B280" s="4">
@@ -6845,7 +6911,7 @@
     </row>
     <row r="281" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
-        <f>B281-C281</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B281" s="8">
@@ -6872,7 +6938,7 @@
     </row>
     <row r="282" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
-        <f>B282-C282</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B282" s="4">
@@ -6893,7 +6959,7 @@
     </row>
     <row r="283" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
-        <f>B283-C283</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B283" s="4">
@@ -6914,7 +6980,7 @@
     </row>
     <row r="284" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
-        <f>B284-C284</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B284" s="8">
@@ -6935,7 +7001,7 @@
     </row>
     <row r="285" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
-        <f>B285-C285</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B285" s="4">
@@ -6959,7 +7025,7 @@
     </row>
     <row r="286" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
-        <f>B286-C286</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B286" s="4">
@@ -6980,7 +7046,7 @@
     </row>
     <row r="287" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
-        <f>B287-C287</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B287" s="4">
@@ -7001,7 +7067,7 @@
     </row>
     <row r="288" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
-        <f>B288-C288</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B288" s="4">
@@ -7022,7 +7088,7 @@
     </row>
     <row r="289" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
-        <f>B289-C289</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B289" s="4">
@@ -7043,7 +7109,7 @@
     </row>
     <row r="290" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
-        <f>B290-C290</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B290" s="4">
@@ -7064,7 +7130,7 @@
     </row>
     <row r="291" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
-        <f>B291-C291</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B291" s="4">
@@ -7085,7 +7151,7 @@
     </row>
     <row r="292" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
-        <f>B292-C292</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B292" s="4">
@@ -7106,7 +7172,7 @@
     </row>
     <row r="293" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
-        <f>B293-C293</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B293" s="4">
@@ -7127,7 +7193,7 @@
     </row>
     <row r="294" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
-        <f>B294-C294</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B294" s="4">
@@ -7148,7 +7214,7 @@
     </row>
     <row r="295" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
-        <f>B295-C295</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B295" s="4">
@@ -7172,7 +7238,7 @@
     </row>
     <row r="296" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
-        <f>B296-C296</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B296" s="4">
@@ -7196,7 +7262,7 @@
     </row>
     <row r="297" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
-        <f>B297-C297</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B297" s="4">
@@ -7214,7 +7280,7 @@
     </row>
     <row r="298" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
-        <f>B298-C298</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B298" s="4">
@@ -7232,7 +7298,7 @@
     </row>
     <row r="299" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
-        <f>B299-C299</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B299" s="8">
@@ -7259,7 +7325,7 @@
     </row>
     <row r="300" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
-        <f>B300-C300</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B300" s="8">
@@ -7287,7 +7353,7 @@
     </row>
     <row r="301" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
-        <f>B301-C301</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B301" s="8">
@@ -7305,7 +7371,7 @@
     </row>
     <row r="302" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
-        <f>B302-C302</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B302" s="8">
@@ -7329,7 +7395,7 @@
     </row>
     <row r="303" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
-        <f>B303-C303</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B303" s="8">
@@ -7353,7 +7419,7 @@
     </row>
     <row r="304" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
-        <f>B304-C304</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B304" s="8">
@@ -7374,7 +7440,7 @@
     </row>
     <row r="305" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
-        <f>B305-C305</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B305" s="8">
@@ -7395,7 +7461,7 @@
     </row>
     <row r="306" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
-        <f>B306-C306</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B306" s="8">
@@ -7416,7 +7482,7 @@
     </row>
     <row r="307" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
-        <f>B307-C307</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B307" s="8">
@@ -7437,7 +7503,7 @@
     </row>
     <row r="308" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
-        <f>B308-C308</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B308" s="8">
@@ -7459,7 +7525,7 @@
     </row>
     <row r="309" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
-        <f>B309-C309</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B309" s="8">
@@ -7481,7 +7547,7 @@
     </row>
     <row r="310" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
-        <f>B310-C310</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B310" s="8">
@@ -7506,7 +7572,7 @@
     </row>
     <row r="311" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
-        <f>B311-C311</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B311" s="8">
@@ -7534,7 +7600,7 @@
     </row>
     <row r="312" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
-        <f>B312-C312</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B312" s="8">
@@ -7559,7 +7625,7 @@
     </row>
     <row r="313" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
-        <f>B313-C313</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B313" s="4">
@@ -7583,7 +7649,7 @@
     </row>
     <row r="314" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
-        <f>B314-C314</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B314" s="4">
@@ -7607,7 +7673,7 @@
     </row>
     <row r="315" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
-        <f>B315-C315</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B315" s="8">
@@ -7634,7 +7700,7 @@
     </row>
     <row r="316" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
-        <f>B316-C316</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B316" s="8">
@@ -7661,7 +7727,7 @@
     </row>
     <row r="317" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
-        <f>B317-C317</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B317" s="8">
@@ -7688,7 +7754,7 @@
     </row>
     <row r="318" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
-        <f>B318-C318</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B318" s="4">
@@ -7712,7 +7778,7 @@
     </row>
     <row r="319" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
-        <f>B319-C319</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B319" s="8">
@@ -7733,7 +7799,7 @@
     </row>
     <row r="320" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
-        <f>B320-C320</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B320" s="8">
@@ -7757,7 +7823,7 @@
     </row>
     <row r="321" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
-        <f>B321-C321</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B321" s="8">
@@ -7781,7 +7847,7 @@
     </row>
     <row r="322" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
-        <f>B322-C322</f>
+        <f t="shared" ref="A322:A385" si="5">B322-C322</f>
         <v>7</v>
       </c>
       <c r="B322" s="8">
@@ -7805,7 +7871,7 @@
     </row>
     <row r="323" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
-        <f>B323-C323</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B323" s="8">
@@ -7829,7 +7895,7 @@
     </row>
     <row r="324" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
-        <f>B324-C324</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B324" s="8">
@@ -7850,7 +7916,7 @@
     </row>
     <row r="325" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
-        <f>B325-C325</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B325" s="8">
@@ -7874,7 +7940,7 @@
     </row>
     <row r="326" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
-        <f>B326-C326</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B326" s="8">
@@ -7895,7 +7961,7 @@
     </row>
     <row r="327" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
-        <f>B327-C327</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B327" s="4">
@@ -7916,7 +7982,7 @@
     </row>
     <row r="328" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
-        <f>B328-C328</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B328" s="4">
@@ -7940,7 +8006,7 @@
     </row>
     <row r="329" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
-        <f>B329-C329</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B329" s="4">
@@ -7961,7 +8027,7 @@
     </row>
     <row r="330" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
-        <f>B330-C330</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B330" s="4">
@@ -7985,7 +8051,7 @@
     </row>
     <row r="331" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
-        <f>B331-C331</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B331" s="4">
@@ -8009,7 +8075,7 @@
     </row>
     <row r="332" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
-        <f>B332-C332</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B332" s="4">
@@ -8030,7 +8096,7 @@
     </row>
     <row r="333" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
-        <f>B333-C333</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B333" s="4">
@@ -8051,7 +8117,7 @@
     </row>
     <row r="334" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
-        <f>B334-C334</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B334" s="4">
@@ -8072,7 +8138,7 @@
     </row>
     <row r="335" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
-        <f>B335-C335</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B335" s="4">
@@ -8093,7 +8159,7 @@
     </row>
     <row r="336" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
-        <f>B336-C336</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B336" s="4">
@@ -8117,7 +8183,7 @@
     </row>
     <row r="337" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
-        <f>B337-C337</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B337" s="4">
@@ -8138,7 +8204,7 @@
     </row>
     <row r="338" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
-        <f>B338-C338</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B338" s="4">
@@ -8159,7 +8225,7 @@
     </row>
     <row r="339" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
-        <f>B339-C339</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B339" s="4">
@@ -8180,7 +8246,7 @@
     </row>
     <row r="340" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
-        <f>B340-C340</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B340" s="4">
@@ -8201,7 +8267,7 @@
     </row>
     <row r="341" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
-        <f>B341-C341</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B341" s="4">
@@ -8219,7 +8285,7 @@
     </row>
     <row r="342" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
-        <f>B342-C342</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B342" s="4">
@@ -8237,7 +8303,7 @@
     </row>
     <row r="343" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
-        <f>B343-C343</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B343" s="8">
@@ -8264,7 +8330,7 @@
     </row>
     <row r="344" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
-        <f>B344-C344</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B344" s="8">
@@ -8288,7 +8354,7 @@
     </row>
     <row r="345" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
-        <f>B345-C345</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B345" s="8">
@@ -8312,7 +8378,7 @@
     </row>
     <row r="346" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
-        <f>B346-C346</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B346" s="8">
@@ -8336,7 +8402,7 @@
     </row>
     <row r="347" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
-        <f>B347-C347</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B347" s="8">
@@ -8358,7 +8424,7 @@
     </row>
     <row r="348" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
-        <f>B348-C348</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B348" s="8">
@@ -8382,7 +8448,7 @@
     </row>
     <row r="349" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
-        <f>B349-C349</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B349" s="8">
@@ -8404,7 +8470,7 @@
     </row>
     <row r="350" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
-        <f>B350-C350</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B350" s="8">
@@ -8429,7 +8495,7 @@
     </row>
     <row r="351" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
-        <f>B351-C351</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B351" s="8">
@@ -8454,7 +8520,7 @@
     </row>
     <row r="352" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
-        <f>B352-C352</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B352" s="8">
@@ -8479,7 +8545,7 @@
     </row>
     <row r="353" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
-        <f>B353-C353</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B353" s="8">
@@ -8504,7 +8570,7 @@
     </row>
     <row r="354" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="8">
-        <f>B354-C354</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B354" s="8">
@@ -8529,7 +8595,7 @@
     </row>
     <row r="355" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
-        <f>B355-C355</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B355" s="8">
@@ -8553,7 +8619,7 @@
     </row>
     <row r="356" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="8">
-        <f>B356-C356</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B356" s="8">
@@ -8578,7 +8644,7 @@
     </row>
     <row r="357" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="8">
-        <f>B357-C357</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B357" s="8">
@@ -8602,7 +8668,7 @@
     </row>
     <row r="358" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="8">
-        <f>B358-C358</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B358" s="8">
@@ -8627,7 +8693,7 @@
     </row>
     <row r="359" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="8">
-        <f>B359-C359</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B359" s="8">
@@ -8652,7 +8718,7 @@
     </row>
     <row r="360" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="8">
-        <f>B360-C360</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B360" s="8">
@@ -8677,7 +8743,7 @@
     </row>
     <row r="361" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="8">
-        <f>B361-C361</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B361" s="8">
@@ -8701,7 +8767,7 @@
     </row>
     <row r="362" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8">
-        <f>B362-C362</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B362" s="8">
@@ -8725,7 +8791,7 @@
     </row>
     <row r="363" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="8">
-        <f>B363-C363</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B363" s="8">
@@ -8749,7 +8815,7 @@
     </row>
     <row r="364" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="8">
-        <f>B364-C364</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B364" s="8">
@@ -8773,7 +8839,7 @@
     </row>
     <row r="365" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="8">
-        <f>B365-C365</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B365" s="8">
@@ -8794,7 +8860,7 @@
     </row>
     <row r="366" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="8">
-        <f>B366-C366</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B366" s="8">
@@ -8815,7 +8881,7 @@
     </row>
     <row r="367" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="8">
-        <f>B367-C367</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B367" s="8">
@@ -8839,7 +8905,7 @@
     </row>
     <row r="368" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
-        <f>B368-C368</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B368" s="4">
@@ -8863,7 +8929,7 @@
     </row>
     <row r="369" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="8">
-        <f>B369-C369</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B369" s="8">
@@ -8887,7 +8953,7 @@
     </row>
     <row r="370" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8">
-        <f>B370-C370</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B370" s="8">
@@ -8911,7 +8977,7 @@
     </row>
     <row r="371" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="8">
-        <f>B371-C371</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B371" s="8">
@@ -8935,7 +9001,7 @@
     </row>
     <row r="372" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="8">
-        <f>B372-C372</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B372" s="8">
@@ -8956,7 +9022,7 @@
     </row>
     <row r="373" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="8">
-        <f>B373-C373</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B373" s="8">
@@ -8980,7 +9046,7 @@
     </row>
     <row r="374" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="8">
-        <f>B374-C374</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B374" s="8">
@@ -9001,7 +9067,7 @@
     </row>
     <row r="375" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="8">
-        <f>B375-C375</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B375" s="8">
@@ -9022,7 +9088,7 @@
     </row>
     <row r="376" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="8">
-        <f>B376-C376</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B376" s="8">
@@ -9040,7 +9106,7 @@
     </row>
     <row r="377" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="8">
-        <f>B377-C377</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B377" s="8">
@@ -9064,7 +9130,7 @@
     </row>
     <row r="378" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="8">
-        <f>B378-C378</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B378" s="8">
@@ -9088,7 +9154,7 @@
     </row>
     <row r="379" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="8">
-        <f>B379-C379</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B379" s="8">
@@ -9112,7 +9178,7 @@
     </row>
     <row r="380" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="8">
-        <f>B380-C380</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B380" s="8">
@@ -9136,7 +9202,7 @@
     </row>
     <row r="381" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="8">
-        <f>B381-C381</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B381" s="4">
@@ -9157,7 +9223,7 @@
     </row>
     <row r="382" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="8">
-        <f>B382-C382</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B382" s="4">
@@ -9178,7 +9244,7 @@
     </row>
     <row r="383" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="8">
-        <f>B383-C383</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B383" s="8">
@@ -9202,7 +9268,7 @@
     </row>
     <row r="384" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
-        <f>B384-C384</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B384" s="4">
@@ -9223,7 +9289,7 @@
     </row>
     <row r="385" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
-        <f>B385-C385</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B385" s="4">
@@ -9244,7 +9310,7 @@
     </row>
     <row r="386" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
-        <f>B386-C386</f>
+        <f t="shared" ref="A386:A449" si="6">B386-C386</f>
         <v>8</v>
       </c>
       <c r="B386" s="4">
@@ -9268,7 +9334,7 @@
     </row>
     <row r="387" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
-        <f>B387-C387</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B387" s="4">
@@ -9286,7 +9352,7 @@
     </row>
     <row r="388" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
-        <f>B388-C388</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B388" s="4">
@@ -9307,7 +9373,7 @@
     </row>
     <row r="389" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
-        <f>B389-C389</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B389" s="4">
@@ -9328,7 +9394,7 @@
     </row>
     <row r="390" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
-        <f>B390-C390</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B390" s="4">
@@ -9349,7 +9415,7 @@
     </row>
     <row r="391" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
-        <f>B391-C391</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B391" s="4">
@@ -9370,7 +9436,7 @@
     </row>
     <row r="392" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
-        <f>B392-C392</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B392" s="4">
@@ -9391,7 +9457,7 @@
     </row>
     <row r="393" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
-        <f>B393-C393</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B393" s="4">
@@ -9412,7 +9478,7 @@
     </row>
     <row r="394" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
-        <f>B394-C394</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B394" s="4">
@@ -9433,7 +9499,7 @@
     </row>
     <row r="395" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
-        <f>B395-C395</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B395" s="4">
@@ -9454,7 +9520,7 @@
     </row>
     <row r="396" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
-        <f>B396-C396</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B396" s="4">
@@ -9475,7 +9541,7 @@
     </row>
     <row r="397" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
-        <f>B397-C397</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B397" s="4">
@@ -9496,7 +9562,7 @@
     </row>
     <row r="398" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
-        <f>B398-C398</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B398" s="4">
@@ -9517,7 +9583,7 @@
     </row>
     <row r="399" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
-        <f>B399-C399</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B399" s="4">
@@ -9538,7 +9604,7 @@
     </row>
     <row r="400" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
-        <f>B400-C400</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B400" s="4">
@@ -9556,7 +9622,7 @@
     </row>
     <row r="401" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
-        <f>B401-C401</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B401" s="4">
@@ -9577,7 +9643,7 @@
     </row>
     <row r="402" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
-        <f>B402-C402</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B402" s="4">
@@ -9598,7 +9664,7 @@
     </row>
     <row r="403" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
-        <f>B403-C403</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B403" s="4">
@@ -9619,7 +9685,7 @@
     </row>
     <row r="404" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
-        <f>B404-C404</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B404" s="4">
@@ -9640,7 +9706,7 @@
     </row>
     <row r="405" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
-        <f>B405-C405</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B405" s="4">
@@ -9661,7 +9727,7 @@
     </row>
     <row r="406" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="8">
-        <f>B406-C406</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B406" s="8">
@@ -9682,7 +9748,7 @@
     </row>
     <row r="407" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
-        <f>B407-C407</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B407" s="4">
@@ -9703,7 +9769,7 @@
     </row>
     <row r="408" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
-        <f>B408-C408</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B408" s="4">
@@ -9724,7 +9790,7 @@
     </row>
     <row r="409" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
-        <f>B409-C409</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B409" s="4">
@@ -9742,7 +9808,7 @@
     </row>
     <row r="410" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
-        <f>B410-C410</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B410" s="4">
@@ -9763,7 +9829,7 @@
     </row>
     <row r="411" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
-        <f>B411-C411</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B411" s="4">
@@ -9784,7 +9850,7 @@
     </row>
     <row r="412" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="8">
-        <f>B412-C412</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B412" s="8">
@@ -9809,7 +9875,7 @@
     </row>
     <row r="413" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="8">
-        <f>B413-C413</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B413" s="8">
@@ -9833,7 +9899,7 @@
     </row>
     <row r="414" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="8">
-        <f>B414-C414</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B414" s="8">
@@ -9857,7 +9923,7 @@
     </row>
     <row r="415" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="8">
-        <f>B415-C415</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B415" s="8">
@@ -9881,7 +9947,7 @@
     </row>
     <row r="416" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="8">
-        <f>B416-C416</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B416" s="8">
@@ -9905,7 +9971,7 @@
     </row>
     <row r="417" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="8">
-        <f>B417-C417</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B417" s="8">
@@ -9929,7 +9995,7 @@
     </row>
     <row r="418" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="8">
-        <f>B418-C418</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B418" s="4">
@@ -9950,7 +10016,7 @@
     </row>
     <row r="419" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
-        <f>B419-C419</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B419" s="4">
@@ -9971,7 +10037,7 @@
     </row>
     <row r="420" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="8">
-        <f>B420-C420</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B420" s="8">
@@ -9995,7 +10061,7 @@
     </row>
     <row r="421" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="8">
-        <f>B421-C421</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B421" s="8">
@@ -10019,7 +10085,7 @@
     </row>
     <row r="422" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="8">
-        <f>B422-C422</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B422" s="8">
@@ -10038,7 +10104,7 @@
     </row>
     <row r="423" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
-        <f>B423-C423</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B423" s="4">
@@ -10059,7 +10125,7 @@
     </row>
     <row r="424" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="8">
-        <f>B424-C424</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B424" s="8">
@@ -10084,7 +10150,7 @@
     </row>
     <row r="425" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="8">
-        <f>B425-C425</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B425" s="8">
@@ -10109,7 +10175,7 @@
     </row>
     <row r="426" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="8">
-        <f>B426-C426</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B426" s="8">
@@ -10131,7 +10197,7 @@
     </row>
     <row r="427" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="8">
-        <f>B427-C427</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B427" s="8">
@@ -10156,7 +10222,7 @@
     </row>
     <row r="428" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="8">
-        <f>B428-C428</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B428" s="8">
@@ -10181,7 +10247,7 @@
     </row>
     <row r="429" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="8">
-        <f>B429-C429</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B429" s="8">
@@ -10206,7 +10272,7 @@
     </row>
     <row r="430" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="8">
-        <f>B430-C430</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B430" s="8">
@@ -10228,7 +10294,7 @@
     </row>
     <row r="431" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="8">
-        <f>B431-C431</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B431" s="8">
@@ -10250,7 +10316,7 @@
     </row>
     <row r="432" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="8">
-        <f>B432-C432</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B432" s="8">
@@ -10275,7 +10341,7 @@
     </row>
     <row r="433" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="8">
-        <f>B433-C433</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B433" s="8">
@@ -10299,7 +10365,7 @@
     </row>
     <row r="434" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="8">
-        <f>B434-C434</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B434" s="8">
@@ -10323,7 +10389,7 @@
     </row>
     <row r="435" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="8">
-        <f>B435-C435</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B435" s="8">
@@ -10347,7 +10413,7 @@
     </row>
     <row r="436" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="8">
-        <f>B436-C436</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B436" s="8">
@@ -10371,7 +10437,7 @@
     </row>
     <row r="437" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="8">
-        <f>B437-C437</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B437" s="8">
@@ -10395,7 +10461,7 @@
     </row>
     <row r="438" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="8">
-        <f>B438-C438</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B438" s="8">
@@ -10419,7 +10485,7 @@
     </row>
     <row r="439" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
-        <f>B439-C439</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B439" s="4">
@@ -10440,7 +10506,7 @@
     </row>
     <row r="440" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="8">
-        <f>B440-C440</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B440" s="8">
@@ -10464,7 +10530,7 @@
     </row>
     <row r="441" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="8">
-        <f>B441-C441</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B441" s="8">
@@ -10482,7 +10548,7 @@
     </row>
     <row r="442" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="8">
-        <f>B442-C442</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B442" s="8">
@@ -10506,7 +10572,7 @@
     </row>
     <row r="443" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="8">
-        <f>B443-C443</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B443" s="8">
@@ -10530,7 +10596,7 @@
     </row>
     <row r="444" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="8">
-        <f>B444-C444</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B444" s="4">
@@ -10551,7 +10617,7 @@
     </row>
     <row r="445" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="8">
-        <f>B445-C445</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B445" s="4">
@@ -10572,7 +10638,7 @@
     </row>
     <row r="446" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="8">
-        <f>B446-C446</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B446" s="8">
@@ -10596,7 +10662,7 @@
     </row>
     <row r="447" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="8">
-        <f>B447-C447</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B447" s="8">
@@ -10617,7 +10683,7 @@
     </row>
     <row r="448" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="8">
-        <f>B448-C448</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B448" s="8">
@@ -10641,7 +10707,7 @@
     </row>
     <row r="449" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="8">
-        <f>B449-C449</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B449" s="8">
@@ -10665,7 +10731,7 @@
     </row>
     <row r="450" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="8">
-        <f>B450-C450</f>
+        <f t="shared" ref="A450:A513" si="7">B450-C450</f>
         <v>9</v>
       </c>
       <c r="B450" s="8">
@@ -10686,7 +10752,7 @@
     </row>
     <row r="451" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="8">
-        <f>B451-C451</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B451" s="8">
@@ -10710,7 +10776,7 @@
     </row>
     <row r="452" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4">
-        <f>B452-C452</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B452" s="4">
@@ -10728,7 +10794,7 @@
     </row>
     <row r="453" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="8">
-        <f>B453-C453</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B453" s="8">
@@ -10749,7 +10815,7 @@
     </row>
     <row r="454" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="8">
-        <f>B454-C454</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B454" s="8">
@@ -10773,7 +10839,7 @@
     </row>
     <row r="455" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="8">
-        <f>B455-C455</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B455" s="8">
@@ -10797,7 +10863,7 @@
     </row>
     <row r="456" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="8">
-        <f>B456-C456</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B456" s="4">
@@ -10821,7 +10887,7 @@
     </row>
     <row r="457" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="8">
-        <f>B457-C457</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B457" s="4">
@@ -10845,7 +10911,7 @@
     </row>
     <row r="458" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4">
-        <f>B458-C458</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B458" s="4">
@@ -10869,7 +10935,7 @@
     </row>
     <row r="459" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
-        <f>B459-C459</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B459" s="4">
@@ -10890,7 +10956,7 @@
     </row>
     <row r="460" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4">
-        <f>B460-C460</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B460" s="4">
@@ -10911,7 +10977,7 @@
     </row>
     <row r="461" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
-        <f>B461-C461</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B461" s="4">
@@ -10932,7 +10998,7 @@
     </row>
     <row r="462" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="8">
-        <f>B462-C462</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B462" s="8">
@@ -10953,7 +11019,7 @@
     </row>
     <row r="463" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="8">
-        <f>B463-C463</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B463" s="8">
@@ -10975,7 +11041,7 @@
     </row>
     <row r="464" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="8">
-        <f>B464-C464</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B464" s="8">
@@ -10999,7 +11065,7 @@
     </row>
     <row r="465" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="8">
-        <f>B465-C465</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="B465" s="4">
@@ -11020,7 +11086,7 @@
     </row>
     <row r="466" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="8">
-        <f>B466-C466</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B466" s="8">
@@ -11044,7 +11110,7 @@
     </row>
     <row r="467" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="8">
-        <f>B467-C467</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B467" s="8">
@@ -11068,7 +11134,7 @@
     </row>
     <row r="468" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="8">
-        <f>B468-C468</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B468" s="8">
@@ -11092,7 +11158,7 @@
     </row>
     <row r="469" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="8">
-        <f>B469-C469</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="B469" s="4">
@@ -11113,7 +11179,7 @@
     </row>
     <row r="470" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="8">
-        <f>B470-C470</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B470" s="8">
@@ -11137,7 +11203,7 @@
     </row>
     <row r="471" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="8">
-        <f>B471-C471</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B471" s="8">
@@ -11161,7 +11227,7 @@
     </row>
     <row r="472" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="8">
-        <f>B472-C472</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B472" s="8">
@@ -11182,7 +11248,7 @@
     </row>
     <row r="473" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="8">
-        <f>B473-C473</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B473" s="8">
@@ -11206,7 +11272,7 @@
     </row>
     <row r="474" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="8">
-        <f>B474-C474</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B474" s="8">
@@ -11224,7 +11290,7 @@
     </row>
     <row r="475" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="8">
-        <f>B475-C475</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B475" s="8">
@@ -11248,7 +11314,7 @@
     </row>
     <row r="476" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="8">
-        <f>B476-C476</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B476" s="8">
@@ -11269,7 +11335,7 @@
     </row>
     <row r="477" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="8">
-        <f>B477-C477</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B477" s="8">
@@ -11290,7 +11356,7 @@
     </row>
     <row r="478" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="8">
-        <f>B478-C478</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B478" s="8">
@@ -11314,7 +11380,7 @@
     </row>
     <row r="479" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="8">
-        <f>B479-C479</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B479" s="8">
@@ -11338,7 +11404,7 @@
     </row>
     <row r="480" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="8">
-        <f>B480-C480</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B480" s="8">
@@ -11362,7 +11428,7 @@
     </row>
     <row r="481" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="8">
-        <f>B481-C481</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B481" s="4">
@@ -11383,7 +11449,7 @@
     </row>
     <row r="482" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
-        <f>B482-C482</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B482" s="4">
@@ -11407,7 +11473,7 @@
     </row>
     <row r="483" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
-        <f>B483-C483</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B483" s="4">
@@ -11431,7 +11497,7 @@
     </row>
     <row r="484" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4">
-        <f>B484-C484</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B484" s="4">
@@ -11449,7 +11515,7 @@
     </row>
     <row r="485" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
-        <f>B485-C485</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B485" s="4">
@@ -11473,7 +11539,7 @@
     </row>
     <row r="486" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
-        <f>B486-C486</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B486" s="4">
@@ -11497,7 +11563,7 @@
     </row>
     <row r="487" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
-        <f>B487-C487</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="B487" s="4">
@@ -11518,7 +11584,7 @@
     </row>
     <row r="488" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4">
-        <f>B488-C488</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B488" s="4">
@@ -11539,7 +11605,7 @@
     </row>
     <row r="489" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
-        <f>B489-C489</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B489" s="4">
@@ -11560,7 +11626,7 @@
     </row>
     <row r="490" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
-        <f>B490-C490</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B490" s="4">
@@ -11581,7 +11647,7 @@
     </row>
     <row r="491" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4">
-        <f>B491-C491</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B491" s="4">
@@ -11602,7 +11668,7 @@
     </row>
     <row r="492" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
-        <f>B492-C492</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B492" s="4">
@@ -11623,7 +11689,7 @@
     </row>
     <row r="493" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4">
-        <f>B493-C493</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B493" s="4">
@@ -11644,7 +11710,7 @@
     </row>
     <row r="494" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4">
-        <f>B494-C494</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B494" s="4">
@@ -11668,7 +11734,7 @@
     </row>
     <row r="495" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
-        <f>B495-C495</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B495" s="4">
@@ -11689,7 +11755,7 @@
     </row>
     <row r="496" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
-        <f>B496-C496</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B496" s="4">
@@ -11713,7 +11779,7 @@
     </row>
     <row r="497" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
-        <f>B497-C497</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B497" s="4">
@@ -11734,7 +11800,7 @@
     </row>
     <row r="498" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
-        <f>B498-C498</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B498" s="4">
@@ -11752,7 +11818,7 @@
     </row>
     <row r="499" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
-        <f>B499-C499</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B499" s="4">
@@ -11773,7 +11839,7 @@
     </row>
     <row r="500" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
-        <f>B500-C500</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B500" s="4">
@@ -11826,12 +11892,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367B9EA5-FBCA-401E-A55A-435C3BD6C990}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11860,7 +12017,7 @@
       </c>
       <c r="C2">
         <f ca="1">SUM(B:B)</f>
-        <v>2246</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11869,362 +12026,366 @@
       </c>
       <c r="B3">
         <f ca="1">SUMIF(logs!H:I,汇总表!A3,logs!A:A)</f>
-        <v>330</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A4,logs!A:A)</f>
-        <v>124</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A6,logs!A:A)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A5,logs!A:A)</f>
-        <v>18</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A4,logs!A:A)</f>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B6">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A6,logs!A:A)</f>
-        <v>221</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A22,logs!A:A)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A7,logs!A:A)</f>
-        <v>27</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A8,logs!A:A)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B8">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A8,logs!A:A)</f>
-        <v>67</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A16,logs!A:A)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
-        <v>43</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A12,logs!A:A)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A10,logs!A:A)</f>
-        <v>41</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A15,logs!A:A)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A11,logs!A:A)</f>
-        <v>22</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A29,logs!A:A)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A12,logs!A:A)</f>
-        <v>55</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A19,logs!A:A)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A13,logs!A:A)</f>
-        <v>19</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A9,logs!A:A)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B14">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A14,logs!A:A)</f>
-        <v>6</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A17,logs!A:A)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="B15">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A15,logs!A:A)</f>
-        <v>52</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A21,logs!A:A)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A16,logs!A:A)</f>
-        <v>60</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A10,logs!A:A)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B17">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A17,logs!A:A)</f>
-        <v>43</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A25,logs!A:A)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B18">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A18,logs!A:A)</f>
-        <v>7</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A26,logs!A:A)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B19">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A19,logs!A:A)</f>
-        <v>46</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A7,logs!A:A)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>560</v>
       </c>
       <c r="B20">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A20,logs!A:A)</f>
-        <v>7</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A33,logs!A:A)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A21,logs!A:A)</f>
-        <v>43</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A11,logs!A:A)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B22">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A22,logs!A:A)</f>
-        <v>102</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A13,logs!A:A)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A5,logs!A:A)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>154</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f ca="1">SUMIF(logs!H:I,汇总表!A23,logs!A:A)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A24,logs!A:A)</f>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B25">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A34,logs!A:A)</f>
         <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A25,logs!A:A)</f>
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>710</v>
       </c>
       <c r="B26">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A26,logs!A:A)</f>
-        <v>32</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A39,logs!A:A)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>727</v>
       </c>
       <c r="B27">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A27,logs!A:A)</f>
-        <v>14</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A40,logs!A:A)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A28,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A30,logs!A:A)</f>
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="B29">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A29,logs!A:A)</f>
-        <v>49</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A27,logs!A:A)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="B30">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A30,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A28,logs!A:A)</f>
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>657</v>
       </c>
       <c r="B31">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A31,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A36,logs!A:A)</f>
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>493</v>
+      <c r="A32" s="5" t="s">
+        <v>816</v>
       </c>
       <c r="B32">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A32,logs!A:A)</f>
-        <v>5</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A42,logs!A:A)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>560</v>
+        <v>683</v>
       </c>
       <c r="B33">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A33,logs!A:A)</f>
-        <v>26</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A37,logs!A:A)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>596</v>
+      <c r="A34" t="s">
+        <v>131</v>
       </c>
       <c r="B34">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A34,logs!A:A)</f>
-        <v>18</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A18,logs!A:A)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>648</v>
+        <v>138</v>
       </c>
       <c r="B35">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A35,logs!A:A)</f>
-        <v>4</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A20,logs!A:A)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>657</v>
+        <v>161</v>
       </c>
       <c r="B36">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A36,logs!A:A)</f>
-        <v>11</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A24,logs!A:A)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>683</v>
+        <v>400</v>
       </c>
       <c r="B37">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A37,logs!A:A)</f>
-        <v>9</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A31,logs!A:A)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>21</v>
+      <c r="A38" s="5" t="s">
+        <v>796</v>
       </c>
       <c r="B38">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A38,logs!A:A)</f>
-        <v>3</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A41,logs!A:A)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>710</v>
+        <v>88</v>
       </c>
       <c r="B39">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A39,logs!A:A)</f>
-        <v>18</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A14,logs!A:A)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>727</v>
+        <v>493</v>
       </c>
       <c r="B40">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A40,logs!A:A)</f>
-        <v>17</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A32,logs!A:A)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>796</v>
+      <c r="A41" t="s">
+        <v>648</v>
       </c>
       <c r="B41">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A41,logs!A:A)</f>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A35,logs!A:A)</f>
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>816</v>
+      <c r="A42" t="s">
+        <v>21</v>
       </c>
       <c r="B42">
-        <f ca="1">SUMIF(logs!H:I,汇总表!A42,logs!A:A)</f>
-        <v>10</v>
+        <f ca="1">SUMIF(logs!H:I,汇总表!A38,logs!A:A)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C41" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C41" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
+      <sortCondition descending="1" ref="B1:B41"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
@@ -12244,7 +12405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Others\Mine\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5199BE-B238-477D-8B3E-D026369E705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ACEF61-952E-4D5D-89A4-6CB871270C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="834">
   <si>
     <t>权重</t>
   </si>
@@ -3071,6 +3071,10 @@
   </si>
   <si>
     <t>Extra None Additional information</t>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3568,8 +3572,8 @@
   <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7821,7 +7825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -7845,7 +7849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <f t="shared" ref="A322:A385" si="5">B322-C322</f>
         <v>7</v>
@@ -7869,7 +7873,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -7893,7 +7897,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -7914,7 +7918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -7938,7 +7942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -7959,7 +7963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -7980,7 +7984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8004,7 +8008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -8024,8 +8028,11 @@
       <c r="H329" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I329" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8049,7 +8056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8073,7 +8080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8094,7 +8101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8115,7 +8122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8136,7 +8143,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -8157,7 +8164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -11984,11 +11991,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12017,7 +12024,7 @@
       </c>
       <c r="C2">
         <f ca="1">SUM(B:B)</f>
-        <v>2204</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -12378,6 +12385,15 @@
       <c r="B42">
         <f ca="1">SUMIF(logs!H:I,汇总表!A38,logs!A:A)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B43">
+        <f ca="1">SUMIF(logs!H:I,汇总表!A39,logs!A:A)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
